--- a/Samples_and_Images/Sample_output.xlsx
+++ b/Samples_and_Images/Sample_output.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\popov\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\popov\Dropbox\_Прожитое\My_projects\Gantt\Samples_and_Images\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{202927C6-2DFD-4931-B6FB-8C4754CF73F8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FF8CC046-D936-4E9E-9F79-EC762EEA8B4B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{68CDFA4F-B2F5-41E9-BB9E-CB1C3C54F8D4}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{356298DC-5E9F-45FC-96A8-3931A92DB39D}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,30 +34,33 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448" uniqueCount="208">
   <si>
     <t>№</t>
   </si>
   <si>
-    <t>Unique ID</t>
-  </si>
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>Start</t>
-  </si>
-  <si>
-    <t>Finish</t>
-  </si>
-  <si>
-    <t>Duration</t>
-  </si>
-  <si>
-    <t>Resource Names</t>
-  </si>
-  <si>
-    <t>Predecessors</t>
+    <t>Уникальный идентификатор</t>
+  </si>
+  <si>
+    <t>Название</t>
+  </si>
+  <si>
+    <t>Начало</t>
+  </si>
+  <si>
+    <t>Окончание</t>
+  </si>
+  <si>
+    <t>Длительность</t>
+  </si>
+  <si>
+    <t>Названия ресурсов</t>
+  </si>
+  <si>
+    <t>Предшественники</t>
+  </si>
+  <si>
+    <t>% завершения</t>
   </si>
   <si>
     <t>С</t>
@@ -153,10 +156,10 @@
     <t xml:space="preserve"> Project's start</t>
   </si>
   <si>
-    <t>Sat 01.01.22</t>
-  </si>
-  <si>
-    <t>0 days</t>
+    <t>Сб 01.01.22</t>
+  </si>
+  <si>
+    <t>0 дней</t>
   </si>
   <si>
     <t>◊</t>
@@ -168,13 +171,13 @@
     <t xml:space="preserve"> Software system development project</t>
   </si>
   <si>
-    <t>Mon 03.01.22</t>
-  </si>
-  <si>
-    <t>Fri 13.05.22</t>
-  </si>
-  <si>
-    <t>95 days?</t>
+    <t>Пн 03.01.22</t>
+  </si>
+  <si>
+    <t>Пт 13.05.22</t>
+  </si>
+  <si>
+    <t>95 дней?</t>
   </si>
   <si>
     <t>2.1</t>
@@ -183,10 +186,10 @@
     <t xml:space="preserve">  Initiating</t>
   </si>
   <si>
-    <t>Mon 10.01.22</t>
-  </si>
-  <si>
-    <t>6 days</t>
+    <t>Пн 10.01.22</t>
+  </si>
+  <si>
+    <t>6 дней</t>
   </si>
   <si>
     <t>2.1.1</t>
@@ -195,7 +198,7 @@
     <t xml:space="preserve">   Kick-off meeting</t>
   </si>
   <si>
-    <t>1 day</t>
+    <t>1 день</t>
   </si>
   <si>
     <t>Customer;Contractor</t>
@@ -207,10 +210,10 @@
     <t xml:space="preserve">   Contract's negotiations</t>
   </si>
   <si>
-    <t>Tue 04.01.22</t>
-  </si>
-  <si>
-    <t>5 days</t>
+    <t>Вт 04.01.22</t>
+  </si>
+  <si>
+    <t>5 дней</t>
   </si>
   <si>
     <t>2.1.3</t>
@@ -225,13 +228,13 @@
     <t xml:space="preserve">  Planning and analysis</t>
   </si>
   <si>
-    <t>Tue 11.01.22</t>
-  </si>
-  <si>
-    <t>Wed 16.02.22</t>
-  </si>
-  <si>
-    <t>27 days</t>
+    <t>Вт 11.01.22</t>
+  </si>
+  <si>
+    <t>Ср 16.02.22</t>
+  </si>
+  <si>
+    <t>27 дней</t>
   </si>
   <si>
     <t>2.2.1</t>
@@ -240,10 +243,10 @@
     <t xml:space="preserve">   Business-processes' examination</t>
   </si>
   <si>
-    <t>Mon 24.01.22</t>
-  </si>
-  <si>
-    <t>10 days</t>
+    <t>Пн 24.01.22</t>
+  </si>
+  <si>
+    <t>10 дней</t>
   </si>
   <si>
     <t>Contractor</t>
@@ -255,10 +258,10 @@
     <t xml:space="preserve">   Creating a report</t>
   </si>
   <si>
-    <t>Tue 25.01.22</t>
-  </si>
-  <si>
-    <t>Mon 31.01.22</t>
+    <t>Вт 25.01.22</t>
+  </si>
+  <si>
+    <t>Пн 31.01.22</t>
   </si>
   <si>
     <t>2.2.3</t>
@@ -267,10 +270,10 @@
     <t xml:space="preserve">   Report Delivery</t>
   </si>
   <si>
-    <t>Tue 01.02.22</t>
-  </si>
-  <si>
-    <t>Mon 07.02.22</t>
+    <t>Вт 01.02.22</t>
+  </si>
+  <si>
+    <t>Пн 07.02.22</t>
   </si>
   <si>
     <t>2.2.4</t>
@@ -279,10 +282,10 @@
     <t xml:space="preserve">   Detailed shedule delivery</t>
   </si>
   <si>
-    <t>Tue 08.02.22</t>
-  </si>
-  <si>
-    <t>Mon 14.02.22</t>
+    <t>Вт 08.02.22</t>
+  </si>
+  <si>
+    <t>Пн 14.02.22</t>
   </si>
   <si>
     <t>2.2.5</t>
@@ -291,7 +294,7 @@
     <t xml:space="preserve">   Project charter delivery</t>
   </si>
   <si>
-    <t>7 days</t>
+    <t>7 дней</t>
   </si>
   <si>
     <t>2.2.6</t>
@@ -309,13 +312,13 @@
     <t xml:space="preserve">  Development</t>
   </si>
   <si>
-    <t>Thu 17.02.22</t>
-  </si>
-  <si>
-    <t>Tue 22.03.22</t>
-  </si>
-  <si>
-    <t>24 days?</t>
+    <t>Чт 17.02.22</t>
+  </si>
+  <si>
+    <t>Вт 22.03.22</t>
+  </si>
+  <si>
+    <t>24 дней?</t>
   </si>
   <si>
     <t>2.3.1</t>
@@ -324,7 +327,7 @@
     <t xml:space="preserve">   Infrastructure preparation</t>
   </si>
   <si>
-    <t>Fri 25.02.22</t>
+    <t>Пт 25.02.22</t>
   </si>
   <si>
     <t>Customer</t>
@@ -336,10 +339,10 @@
     <t xml:space="preserve">   Infrastructure ready</t>
   </si>
   <si>
-    <t>Mon 28.02.22</t>
-  </si>
-  <si>
-    <t>1 day?</t>
+    <t>Пн 28.02.22</t>
+  </si>
+  <si>
+    <t>1 день?</t>
   </si>
   <si>
     <t>2.3.3</t>
@@ -348,7 +351,7 @@
     <t xml:space="preserve">   Coding and initial testing</t>
   </si>
   <si>
-    <t>24 days</t>
+    <t>24 дней</t>
   </si>
   <si>
     <t>2.3.3.1</t>
@@ -357,10 +360,10 @@
     <t xml:space="preserve">    Subsystem 1</t>
   </si>
   <si>
-    <t>Fri 18.03.22</t>
-  </si>
-  <si>
-    <t>22 days</t>
+    <t>Пт 18.03.22</t>
+  </si>
+  <si>
+    <t>22 дней</t>
   </si>
   <si>
     <t>2.3.3.1.1</t>
@@ -369,10 +372,10 @@
     <t xml:space="preserve">     Module 1</t>
   </si>
   <si>
-    <t>Mon 07.03.22</t>
-  </si>
-  <si>
-    <t>13 days</t>
+    <t>Пн 07.03.22</t>
+  </si>
+  <si>
+    <t>13 дней</t>
   </si>
   <si>
     <t>2.3.3.1.1.1</t>
@@ -381,7 +384,7 @@
     <t xml:space="preserve">      Coding </t>
   </si>
   <si>
-    <t>Wed 02.03.22</t>
+    <t>Ср 02.03.22</t>
   </si>
   <si>
     <t>Developer 1</t>
@@ -393,10 +396,10 @@
     <t xml:space="preserve">      Testing</t>
   </si>
   <si>
-    <t>Thu 03.03.22</t>
-  </si>
-  <si>
-    <t>3 days</t>
+    <t>Чт 03.03.22</t>
+  </si>
+  <si>
+    <t>3 дней</t>
   </si>
   <si>
     <t>2.3.3.1.2</t>
@@ -405,10 +408,10 @@
     <t xml:space="preserve">     Module 2</t>
   </si>
   <si>
-    <t>Tue 08.03.22</t>
-  </si>
-  <si>
-    <t>9 days</t>
+    <t>Вт 08.03.22</t>
+  </si>
+  <si>
+    <t>9 дней</t>
   </si>
   <si>
     <t>2.3.3.1.2.1</t>
@@ -417,16 +420,16 @@
     <t xml:space="preserve">      Coding</t>
   </si>
   <si>
-    <t>Wed 16.03.22</t>
+    <t>Ср 16.03.22</t>
   </si>
   <si>
     <t>2.3.3.1.2.2</t>
   </si>
   <si>
-    <t>Thu 17.03.22</t>
-  </si>
-  <si>
-    <t>2 days</t>
+    <t>Чт 17.03.22</t>
+  </si>
+  <si>
+    <t>2 дней</t>
   </si>
   <si>
     <t>2.3.3.2</t>
@@ -441,13 +444,13 @@
     <t xml:space="preserve">     Module 3</t>
   </si>
   <si>
-    <t>Tue 01.03.22</t>
+    <t>Вт 01.03.22</t>
   </si>
   <si>
     <t>2.3.3.2.1.1</t>
   </si>
   <si>
-    <t>8 days</t>
+    <t>8 дней</t>
   </si>
   <si>
     <t>Developer 2</t>
@@ -462,13 +465,13 @@
     <t xml:space="preserve">     Module 4</t>
   </si>
   <si>
-    <t>15 days</t>
+    <t>15 дней</t>
   </si>
   <si>
     <t>2.3.3.2.2.1</t>
   </si>
   <si>
-    <t>12 days</t>
+    <t>12 дней</t>
   </si>
   <si>
     <t>2.3.3.2.2.2</t>
@@ -489,13 +492,13 @@
     <t xml:space="preserve">  Acceptance testing</t>
   </si>
   <si>
-    <t>Wed 23.03.22</t>
-  </si>
-  <si>
-    <t>Tue 03.05.22</t>
-  </si>
-  <si>
-    <t>30 days</t>
+    <t>Ср 23.03.22</t>
+  </si>
+  <si>
+    <t>Вт 03.05.22</t>
+  </si>
+  <si>
+    <t>30 дней</t>
   </si>
   <si>
     <t>2.4.1</t>
@@ -504,7 +507,7 @@
     <t xml:space="preserve">   Modules' testing</t>
   </si>
   <si>
-    <t>Tue 29.03.22</t>
+    <t>Вт 29.03.22</t>
   </si>
   <si>
     <t>Analyst 1;Developer 1;Developer 2</t>
@@ -525,10 +528,10 @@
     <t xml:space="preserve">   Integration testing</t>
   </si>
   <si>
-    <t>Wed 30.03.22</t>
-  </si>
-  <si>
-    <t>Thu 07.04.22</t>
+    <t>Ср 30.03.22</t>
+  </si>
+  <si>
+    <t>Чт 07.04.22</t>
   </si>
   <si>
     <t>Analyst 1</t>
@@ -543,10 +546,10 @@
     <t xml:space="preserve">   Error correction</t>
   </si>
   <si>
-    <t>Fri 08.04.22</t>
-  </si>
-  <si>
-    <t>Thu 14.04.22</t>
+    <t>Пт 08.04.22</t>
+  </si>
+  <si>
+    <t>Чт 14.04.22</t>
   </si>
   <si>
     <t>Analyst 1;Analyst2;Developer 1;Developer 2</t>
@@ -558,10 +561,10 @@
     <t xml:space="preserve">   New requirments' implementation</t>
   </si>
   <si>
-    <t>Fri 15.04.22</t>
-  </si>
-  <si>
-    <t>Mon 25.04.22</t>
+    <t>Пт 15.04.22</t>
+  </si>
+  <si>
+    <t>Пн 25.04.22</t>
   </si>
   <si>
     <t>2.4.6</t>
@@ -570,7 +573,7 @@
     <t xml:space="preserve">   Testing - second iteration</t>
   </si>
   <si>
-    <t>Tue 26.04.22</t>
+    <t>Вт 26.04.22</t>
   </si>
   <si>
     <t>Analyst 1;Analyst2;Contractor;Customer;Developer 1;Developer 2</t>
@@ -582,7 +585,7 @@
     <t xml:space="preserve">    Modules' testing</t>
   </si>
   <si>
-    <t>Thu 28.04.22</t>
+    <t>Чт 28.04.22</t>
   </si>
   <si>
     <t>38;39;40;41;42</t>
@@ -594,7 +597,7 @@
     <t xml:space="preserve">    Perfomance testing</t>
   </si>
   <si>
-    <t>Wed 27.04.22</t>
+    <t>Ср 27.04.22</t>
   </si>
   <si>
     <t>2.4.6.3</t>
@@ -603,7 +606,7 @@
     <t xml:space="preserve">    Integration testing</t>
   </si>
   <si>
-    <t>Fri 29.04.22</t>
+    <t>Пт 29.04.22</t>
   </si>
   <si>
     <t>44;45</t>
@@ -624,7 +627,7 @@
     <t xml:space="preserve">  Work closing</t>
   </si>
   <si>
-    <t>Wed 04.05.22</t>
+    <t>Ср 04.05.22</t>
   </si>
   <si>
     <t>2.5.1</t>
@@ -633,7 +636,7 @@
     <t xml:space="preserve">   Certificate of completion's signment</t>
   </si>
   <si>
-    <t>Fri 06.05.22</t>
+    <t>Пт 06.05.22</t>
   </si>
   <si>
     <t>2.5.2</t>
@@ -642,7 +645,7 @@
     <t xml:space="preserve">   Billing and paymemts</t>
   </si>
   <si>
-    <t>Mon 09.05.22</t>
+    <t>Пн 09.05.22</t>
   </si>
   <si>
     <t>2.5.3</t>
@@ -898,7 +901,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -967,15 +970,9 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -991,9 +988,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Стандартная">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1031,7 +1028,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Стандартная">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1137,7 +1134,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Стандартная">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1286,31 +1283,33 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CC55346-AB00-438A-A2FB-84B8AA1C26E1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{537FF155-616F-4B8F-B587-D7B966C3ADAF}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:EK52"/>
+  <dimension ref="A1:EL52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="3" ySplit="4" topLeftCell="D5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="G8" sqref="G8"/>
+      <selection pane="bottomRight" activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="37.42578125" customWidth="1"/>
-    <col min="4" max="5" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.28515625" customWidth="1"/>
-    <col min="8" max="8" width="8.85546875" customWidth="1"/>
-    <col min="9" max="141" width="1.7109375" customWidth="1"/>
+    <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="42.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="59.21875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.77734375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="142" width="1.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:141" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:142" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1335,10 +1334,12 @@
       <c r="H1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="14">
+      <c r="I1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="14">
         <v>2022</v>
       </c>
-      <c r="J1" s="14"/>
       <c r="K1" s="14"/>
       <c r="L1" s="14"/>
       <c r="M1" s="14"/>
@@ -1470,8 +1471,9 @@
       <c r="EI1" s="14"/>
       <c r="EJ1" s="14"/>
       <c r="EK1" s="14"/>
+      <c r="EL1" s="14"/>
     </row>
-    <row r="2" spans="1:141" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:142" x14ac:dyDescent="0.3">
       <c r="A2" s="5"/>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
@@ -1480,10 +1482,10 @@
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
       <c r="H2" s="5"/>
-      <c r="I2" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="J2" s="15"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="15" t="s">
+        <v>18</v>
+      </c>
       <c r="K2" s="15"/>
       <c r="L2" s="15"/>
       <c r="M2" s="15"/>
@@ -1512,11 +1514,11 @@
       <c r="AJ2" s="15"/>
       <c r="AK2" s="15"/>
       <c r="AL2" s="15"/>
-      <c r="AM2" s="11"/>
-      <c r="AN2" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="AO2" s="15"/>
+      <c r="AM2" s="15"/>
+      <c r="AN2" s="11"/>
+      <c r="AO2" s="15" t="s">
+        <v>23</v>
+      </c>
       <c r="AP2" s="15"/>
       <c r="AQ2" s="15"/>
       <c r="AR2" s="15"/>
@@ -1542,11 +1544,11 @@
       <c r="BL2" s="15"/>
       <c r="BM2" s="15"/>
       <c r="BN2" s="15"/>
-      <c r="BO2" s="11"/>
-      <c r="BP2" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="BQ2" s="15"/>
+      <c r="BO2" s="15"/>
+      <c r="BP2" s="11"/>
+      <c r="BQ2" s="15" t="s">
+        <v>28</v>
+      </c>
       <c r="BR2" s="15"/>
       <c r="BS2" s="15"/>
       <c r="BT2" s="15"/>
@@ -1572,14 +1574,14 @@
       <c r="CN2" s="15"/>
       <c r="CO2" s="15"/>
       <c r="CP2" s="15"/>
-      <c r="CQ2" s="16"/>
+      <c r="CQ2" s="15"/>
       <c r="CR2" s="16"/>
       <c r="CS2" s="16"/>
-      <c r="CT2" s="11"/>
-      <c r="CU2" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="CV2" s="15"/>
+      <c r="CT2" s="16"/>
+      <c r="CU2" s="11"/>
+      <c r="CV2" s="15" t="s">
+        <v>33</v>
+      </c>
       <c r="CW2" s="15"/>
       <c r="CX2" s="15"/>
       <c r="CY2" s="15"/>
@@ -1602,29 +1604,30 @@
       <c r="DP2" s="15"/>
       <c r="DQ2" s="15"/>
       <c r="DR2" s="15"/>
-      <c r="DS2" s="16"/>
+      <c r="DS2" s="15"/>
       <c r="DT2" s="16"/>
       <c r="DU2" s="16"/>
       <c r="DV2" s="16"/>
       <c r="DW2" s="16"/>
-      <c r="DX2" s="11"/>
-      <c r="DY2" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="DZ2" s="15"/>
+      <c r="DX2" s="16"/>
+      <c r="DY2" s="11"/>
+      <c r="DZ2" s="15" t="s">
+        <v>36</v>
+      </c>
       <c r="EA2" s="15"/>
       <c r="EB2" s="15"/>
       <c r="EC2" s="15"/>
       <c r="ED2" s="15"/>
       <c r="EE2" s="15"/>
       <c r="EF2" s="15"/>
-      <c r="EG2" s="16"/>
+      <c r="EG2" s="15"/>
       <c r="EH2" s="16"/>
       <c r="EI2" s="16"/>
       <c r="EJ2" s="16"/>
       <c r="EK2" s="16"/>
+      <c r="EL2" s="16"/>
     </row>
-    <row r="3" spans="1:141" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:142" x14ac:dyDescent="0.3">
       <c r="A3" s="5"/>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
@@ -1633,181 +1636,182 @@
       <c r="F3" s="5"/>
       <c r="G3" s="5"/>
       <c r="H3" s="5"/>
-      <c r="I3" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="J3" s="13"/>
-      <c r="K3" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="L3" s="12"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K3" s="13"/>
+      <c r="L3" s="12" t="s">
+        <v>14</v>
+      </c>
       <c r="M3" s="12"/>
       <c r="N3" s="12"/>
       <c r="O3" s="12"/>
       <c r="P3" s="12"/>
-      <c r="Q3" s="13"/>
-      <c r="R3" s="42" t="s">
-        <v>14</v>
-      </c>
-      <c r="S3" s="42"/>
-      <c r="T3" s="42"/>
-      <c r="U3" s="42"/>
-      <c r="V3" s="42"/>
-      <c r="W3" s="42"/>
-      <c r="X3" s="43"/>
-      <c r="Y3" s="12" t="s">
+      <c r="Q3" s="12"/>
+      <c r="R3" s="13"/>
+      <c r="S3" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="Z3" s="12"/>
+      <c r="T3" s="12"/>
+      <c r="U3" s="12"/>
+      <c r="V3" s="12"/>
+      <c r="W3" s="12"/>
+      <c r="X3" s="12"/>
+      <c r="Y3" s="13"/>
+      <c r="Z3" s="12" t="s">
+        <v>16</v>
+      </c>
       <c r="AA3" s="12"/>
       <c r="AB3" s="12"/>
       <c r="AC3" s="12"/>
       <c r="AD3" s="12"/>
-      <c r="AE3" s="13"/>
-      <c r="AF3" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="AG3" s="12"/>
+      <c r="AE3" s="12"/>
+      <c r="AF3" s="13"/>
+      <c r="AG3" s="12" t="s">
+        <v>17</v>
+      </c>
       <c r="AH3" s="12"/>
       <c r="AI3" s="12"/>
       <c r="AJ3" s="12"/>
       <c r="AK3" s="12"/>
-      <c r="AL3" s="13"/>
-      <c r="AM3" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="AN3" s="12"/>
+      <c r="AL3" s="12"/>
+      <c r="AM3" s="13"/>
+      <c r="AN3" s="9" t="s">
+        <v>19</v>
+      </c>
       <c r="AO3" s="12"/>
       <c r="AP3" s="12"/>
       <c r="AQ3" s="12"/>
       <c r="AR3" s="12"/>
-      <c r="AS3" s="13"/>
-      <c r="AT3" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="AU3" s="12"/>
+      <c r="AS3" s="12"/>
+      <c r="AT3" s="13"/>
+      <c r="AU3" s="12" t="s">
+        <v>20</v>
+      </c>
       <c r="AV3" s="12"/>
       <c r="AW3" s="12"/>
       <c r="AX3" s="12"/>
       <c r="AY3" s="12"/>
-      <c r="AZ3" s="13"/>
-      <c r="BA3" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="BB3" s="12"/>
+      <c r="AZ3" s="12"/>
+      <c r="BA3" s="13"/>
+      <c r="BB3" s="12" t="s">
+        <v>21</v>
+      </c>
       <c r="BC3" s="12"/>
       <c r="BD3" s="12"/>
       <c r="BE3" s="12"/>
       <c r="BF3" s="12"/>
-      <c r="BG3" s="13"/>
-      <c r="BH3" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="BI3" s="12"/>
+      <c r="BG3" s="12"/>
+      <c r="BH3" s="13"/>
+      <c r="BI3" s="12" t="s">
+        <v>22</v>
+      </c>
       <c r="BJ3" s="12"/>
       <c r="BK3" s="12"/>
       <c r="BL3" s="12"/>
       <c r="BM3" s="12"/>
-      <c r="BN3" s="13"/>
-      <c r="BO3" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="BP3" s="12"/>
+      <c r="BN3" s="12"/>
+      <c r="BO3" s="13"/>
+      <c r="BP3" s="9" t="s">
+        <v>24</v>
+      </c>
       <c r="BQ3" s="12"/>
       <c r="BR3" s="12"/>
       <c r="BS3" s="12"/>
       <c r="BT3" s="12"/>
-      <c r="BU3" s="13"/>
-      <c r="BV3" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="BW3" s="12"/>
+      <c r="BU3" s="12"/>
+      <c r="BV3" s="13"/>
+      <c r="BW3" s="12" t="s">
+        <v>25</v>
+      </c>
       <c r="BX3" s="12"/>
       <c r="BY3" s="12"/>
       <c r="BZ3" s="12"/>
       <c r="CA3" s="12"/>
-      <c r="CB3" s="13"/>
-      <c r="CC3" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="CD3" s="12"/>
+      <c r="CB3" s="12"/>
+      <c r="CC3" s="13"/>
+      <c r="CD3" s="12" t="s">
+        <v>26</v>
+      </c>
       <c r="CE3" s="12"/>
       <c r="CF3" s="12"/>
       <c r="CG3" s="12"/>
       <c r="CH3" s="12"/>
-      <c r="CI3" s="13"/>
-      <c r="CJ3" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="CK3" s="12"/>
+      <c r="CI3" s="12"/>
+      <c r="CJ3" s="13"/>
+      <c r="CK3" s="12" t="s">
+        <v>27</v>
+      </c>
       <c r="CL3" s="12"/>
       <c r="CM3" s="12"/>
       <c r="CN3" s="12"/>
       <c r="CO3" s="12"/>
-      <c r="CP3" s="13"/>
-      <c r="CQ3" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="CR3" s="9"/>
+      <c r="CP3" s="12"/>
+      <c r="CQ3" s="13"/>
+      <c r="CR3" s="9" t="s">
+        <v>29</v>
+      </c>
       <c r="CS3" s="9"/>
       <c r="CT3" s="9"/>
-      <c r="CU3" s="12"/>
+      <c r="CU3" s="9"/>
       <c r="CV3" s="12"/>
-      <c r="CW3" s="13"/>
-      <c r="CX3" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="CY3" s="12"/>
+      <c r="CW3" s="12"/>
+      <c r="CX3" s="13"/>
+      <c r="CY3" s="12" t="s">
+        <v>30</v>
+      </c>
       <c r="CZ3" s="12"/>
       <c r="DA3" s="12"/>
       <c r="DB3" s="12"/>
       <c r="DC3" s="12"/>
-      <c r="DD3" s="13"/>
-      <c r="DE3" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="DF3" s="12"/>
+      <c r="DD3" s="12"/>
+      <c r="DE3" s="13"/>
+      <c r="DF3" s="12" t="s">
+        <v>31</v>
+      </c>
       <c r="DG3" s="12"/>
       <c r="DH3" s="12"/>
       <c r="DI3" s="12"/>
       <c r="DJ3" s="12"/>
-      <c r="DK3" s="13"/>
-      <c r="DL3" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="DM3" s="12"/>
+      <c r="DK3" s="12"/>
+      <c r="DL3" s="13"/>
+      <c r="DM3" s="12" t="s">
+        <v>32</v>
+      </c>
       <c r="DN3" s="12"/>
       <c r="DO3" s="12"/>
       <c r="DP3" s="12"/>
       <c r="DQ3" s="12"/>
-      <c r="DR3" s="13"/>
-      <c r="DS3" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="DT3" s="9"/>
+      <c r="DR3" s="12"/>
+      <c r="DS3" s="13"/>
+      <c r="DT3" s="9" t="s">
+        <v>34</v>
+      </c>
       <c r="DU3" s="9"/>
       <c r="DV3" s="9"/>
       <c r="DW3" s="9"/>
       <c r="DX3" s="9"/>
-      <c r="DY3" s="13"/>
-      <c r="DZ3" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="EA3" s="12"/>
+      <c r="DY3" s="9"/>
+      <c r="DZ3" s="13"/>
+      <c r="EA3" s="12" t="s">
+        <v>35</v>
+      </c>
       <c r="EB3" s="12"/>
       <c r="EC3" s="12"/>
       <c r="ED3" s="12"/>
       <c r="EE3" s="12"/>
-      <c r="EF3" s="13"/>
-      <c r="EG3" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="EH3" s="9"/>
+      <c r="EF3" s="12"/>
+      <c r="EG3" s="13"/>
+      <c r="EH3" s="9" t="s">
+        <v>37</v>
+      </c>
       <c r="EI3" s="9"/>
       <c r="EJ3" s="9"/>
       <c r="EK3" s="9"/>
+      <c r="EL3" s="9"/>
     </row>
-    <row r="4" spans="1:141" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:142" x14ac:dyDescent="0.3">
       <c r="A4" s="5"/>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
@@ -1816,500 +1820,506 @@
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
       <c r="H4" s="5"/>
-      <c r="I4" s="8" t="s">
-        <v>8</v>
-      </c>
+      <c r="I4" s="5"/>
       <c r="J4" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="K4" s="10" t="s">
-        <v>11</v>
+      <c r="K4" s="8" t="s">
+        <v>10</v>
       </c>
       <c r="L4" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="M4" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="N4" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="M4" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="N4" s="10" t="s">
+      <c r="O4" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="P4" s="10" t="s">
         <v>12</v>
-      </c>
-      <c r="O4" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="P4" s="8" t="s">
-        <v>8</v>
       </c>
       <c r="Q4" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="R4" s="10" t="s">
-        <v>11</v>
+      <c r="R4" s="8" t="s">
+        <v>10</v>
       </c>
       <c r="S4" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="T4" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="U4" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="T4" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="U4" s="10" t="s">
+      <c r="V4" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="W4" s="10" t="s">
         <v>12</v>
-      </c>
-      <c r="V4" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="W4" s="8" t="s">
-        <v>8</v>
       </c>
       <c r="X4" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="Y4" s="10" t="s">
-        <v>11</v>
+      <c r="Y4" s="8" t="s">
+        <v>10</v>
       </c>
       <c r="Z4" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA4" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="AB4" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="AA4" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="AB4" s="10" t="s">
+      <c r="AC4" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="AD4" s="10" t="s">
         <v>12</v>
-      </c>
-      <c r="AC4" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="AD4" s="8" t="s">
-        <v>8</v>
       </c>
       <c r="AE4" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="AF4" s="10" t="s">
-        <v>11</v>
+      <c r="AF4" s="8" t="s">
+        <v>10</v>
       </c>
       <c r="AG4" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AH4" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="AI4" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="AH4" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="AI4" s="10" t="s">
+      <c r="AJ4" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="AK4" s="10" t="s">
         <v>12</v>
-      </c>
-      <c r="AJ4" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="AK4" s="8" t="s">
-        <v>8</v>
       </c>
       <c r="AL4" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="AM4" s="10" t="s">
-        <v>11</v>
+      <c r="AM4" s="8" t="s">
+        <v>10</v>
       </c>
       <c r="AN4" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AO4" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="AP4" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="AO4" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="AP4" s="10" t="s">
+      <c r="AQ4" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="AR4" s="10" t="s">
         <v>12</v>
-      </c>
-      <c r="AQ4" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="AR4" s="8" t="s">
-        <v>8</v>
       </c>
       <c r="AS4" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="AT4" s="10" t="s">
-        <v>11</v>
+      <c r="AT4" s="8" t="s">
+        <v>10</v>
       </c>
       <c r="AU4" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AV4" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="AW4" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="AV4" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="AW4" s="10" t="s">
+      <c r="AX4" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="AY4" s="10" t="s">
         <v>12</v>
-      </c>
-      <c r="AX4" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="AY4" s="8" t="s">
-        <v>8</v>
       </c>
       <c r="AZ4" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="BA4" s="10" t="s">
-        <v>11</v>
+      <c r="BA4" s="8" t="s">
+        <v>10</v>
       </c>
       <c r="BB4" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="BC4" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="BD4" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="BC4" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="BD4" s="10" t="s">
+      <c r="BE4" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="BF4" s="10" t="s">
         <v>12</v>
-      </c>
-      <c r="BE4" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="BF4" s="8" t="s">
-        <v>8</v>
       </c>
       <c r="BG4" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="BH4" s="10" t="s">
-        <v>11</v>
+      <c r="BH4" s="8" t="s">
+        <v>10</v>
       </c>
       <c r="BI4" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="BJ4" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="BK4" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="BJ4" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="BK4" s="10" t="s">
+      <c r="BL4" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="BM4" s="10" t="s">
         <v>12</v>
-      </c>
-      <c r="BL4" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="BM4" s="8" t="s">
-        <v>8</v>
       </c>
       <c r="BN4" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="BO4" s="10" t="s">
-        <v>11</v>
+      <c r="BO4" s="8" t="s">
+        <v>10</v>
       </c>
       <c r="BP4" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="BQ4" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="BR4" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="BQ4" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="BR4" s="10" t="s">
+      <c r="BS4" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="BT4" s="10" t="s">
         <v>12</v>
-      </c>
-      <c r="BS4" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="BT4" s="8" t="s">
-        <v>8</v>
       </c>
       <c r="BU4" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="BV4" s="10" t="s">
-        <v>11</v>
+      <c r="BV4" s="8" t="s">
+        <v>10</v>
       </c>
       <c r="BW4" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="BX4" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="BY4" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="BX4" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="BY4" s="10" t="s">
+      <c r="BZ4" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="CA4" s="10" t="s">
         <v>12</v>
-      </c>
-      <c r="BZ4" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="CA4" s="8" t="s">
-        <v>8</v>
       </c>
       <c r="CB4" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="CC4" s="10" t="s">
-        <v>11</v>
+      <c r="CC4" s="8" t="s">
+        <v>10</v>
       </c>
       <c r="CD4" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="CE4" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="CF4" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="CE4" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="CF4" s="10" t="s">
+      <c r="CG4" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="CH4" s="10" t="s">
         <v>12</v>
-      </c>
-      <c r="CG4" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="CH4" s="8" t="s">
-        <v>8</v>
       </c>
       <c r="CI4" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="CJ4" s="10" t="s">
-        <v>11</v>
+      <c r="CJ4" s="8" t="s">
+        <v>10</v>
       </c>
       <c r="CK4" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="CL4" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="CM4" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="CL4" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="CM4" s="10" t="s">
+      <c r="CN4" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="CO4" s="10" t="s">
         <v>12</v>
-      </c>
-      <c r="CN4" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="CO4" s="8" t="s">
-        <v>8</v>
       </c>
       <c r="CP4" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="CQ4" s="10" t="s">
-        <v>11</v>
+      <c r="CQ4" s="8" t="s">
+        <v>10</v>
       </c>
       <c r="CR4" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="CS4" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="CT4" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="CS4" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="CT4" s="10" t="s">
+      <c r="CU4" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="CV4" s="10" t="s">
         <v>12</v>
-      </c>
-      <c r="CU4" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="CV4" s="8" t="s">
-        <v>8</v>
       </c>
       <c r="CW4" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="CX4" s="10" t="s">
-        <v>11</v>
+      <c r="CX4" s="8" t="s">
+        <v>10</v>
       </c>
       <c r="CY4" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="CZ4" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="DA4" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="CZ4" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="DA4" s="10" t="s">
+      <c r="DB4" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="DC4" s="10" t="s">
         <v>12</v>
-      </c>
-      <c r="DB4" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="DC4" s="8" t="s">
-        <v>8</v>
       </c>
       <c r="DD4" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="DE4" s="10" t="s">
-        <v>11</v>
+      <c r="DE4" s="8" t="s">
+        <v>10</v>
       </c>
       <c r="DF4" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="DG4" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="DH4" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="DG4" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="DH4" s="10" t="s">
+      <c r="DI4" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="DJ4" s="10" t="s">
         <v>12</v>
-      </c>
-      <c r="DI4" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="DJ4" s="8" t="s">
-        <v>8</v>
       </c>
       <c r="DK4" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="DL4" s="10" t="s">
-        <v>11</v>
+      <c r="DL4" s="8" t="s">
+        <v>10</v>
       </c>
       <c r="DM4" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="DN4" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="DO4" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="DN4" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="DO4" s="10" t="s">
+      <c r="DP4" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="DQ4" s="10" t="s">
         <v>12</v>
-      </c>
-      <c r="DP4" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="DQ4" s="8" t="s">
-        <v>8</v>
       </c>
       <c r="DR4" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="DS4" s="10" t="s">
-        <v>11</v>
+      <c r="DS4" s="8" t="s">
+        <v>10</v>
       </c>
       <c r="DT4" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="DU4" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="DV4" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="DU4" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="DV4" s="10" t="s">
+      <c r="DW4" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="DX4" s="10" t="s">
         <v>12</v>
-      </c>
-      <c r="DW4" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="DX4" s="8" t="s">
-        <v>8</v>
       </c>
       <c r="DY4" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="DZ4" s="10" t="s">
-        <v>11</v>
+      <c r="DZ4" s="8" t="s">
+        <v>10</v>
       </c>
       <c r="EA4" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="EB4" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="EC4" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="EB4" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="EC4" s="10" t="s">
+      <c r="ED4" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="EE4" s="10" t="s">
         <v>12</v>
-      </c>
-      <c r="ED4" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="EE4" s="8" t="s">
-        <v>8</v>
       </c>
       <c r="EF4" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="EG4" s="10" t="s">
-        <v>11</v>
+      <c r="EG4" s="8" t="s">
+        <v>10</v>
       </c>
       <c r="EH4" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="EI4" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="EJ4" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="EI4" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="EJ4" s="10" t="s">
+      <c r="EK4" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="EL4" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="EK4" s="10" t="s">
-        <v>11</v>
-      </c>
     </row>
-    <row r="5" spans="1:141" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:142" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>1</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
-      <c r="I5" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="J5" s="6"/>
-      <c r="P5" s="6"/>
+      <c r="I5" s="1">
+        <v>0</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="K5" s="6"/>
       <c r="Q5" s="6"/>
-      <c r="W5" s="6"/>
+      <c r="R5" s="6"/>
       <c r="X5" s="6"/>
-      <c r="AD5" s="6"/>
+      <c r="Y5" s="6"/>
       <c r="AE5" s="6"/>
-      <c r="AK5" s="6"/>
+      <c r="AF5" s="6"/>
       <c r="AL5" s="6"/>
-      <c r="AR5" s="6"/>
+      <c r="AM5" s="6"/>
       <c r="AS5" s="6"/>
-      <c r="AY5" s="6"/>
+      <c r="AT5" s="6"/>
       <c r="AZ5" s="6"/>
-      <c r="BF5" s="6"/>
+      <c r="BA5" s="6"/>
       <c r="BG5" s="6"/>
-      <c r="BM5" s="6"/>
+      <c r="BH5" s="6"/>
       <c r="BN5" s="6"/>
-      <c r="BT5" s="6"/>
+      <c r="BO5" s="6"/>
       <c r="BU5" s="6"/>
-      <c r="CA5" s="6"/>
+      <c r="BV5" s="6"/>
       <c r="CB5" s="6"/>
-      <c r="CH5" s="6"/>
+      <c r="CC5" s="6"/>
       <c r="CI5" s="6"/>
-      <c r="CO5" s="6"/>
+      <c r="CJ5" s="6"/>
       <c r="CP5" s="6"/>
-      <c r="CV5" s="6"/>
+      <c r="CQ5" s="6"/>
       <c r="CW5" s="6"/>
-      <c r="DC5" s="6"/>
+      <c r="CX5" s="6"/>
       <c r="DD5" s="6"/>
-      <c r="DJ5" s="6"/>
+      <c r="DE5" s="6"/>
       <c r="DK5" s="6"/>
-      <c r="DQ5" s="6"/>
+      <c r="DL5" s="6"/>
       <c r="DR5" s="6"/>
-      <c r="DX5" s="6"/>
+      <c r="DS5" s="6"/>
       <c r="DY5" s="6"/>
-      <c r="EE5" s="6"/>
+      <c r="DZ5" s="6"/>
       <c r="EF5" s="6"/>
+      <c r="EG5" s="6"/>
     </row>
-    <row r="6" spans="1:141" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:142" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>3</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
-      <c r="I6" s="6"/>
+      <c r="I6" s="2">
+        <v>2</v>
+      </c>
       <c r="J6" s="6"/>
-      <c r="K6" s="21"/>
-      <c r="L6" s="22"/>
+      <c r="K6" s="6"/>
+      <c r="L6" s="21"/>
       <c r="M6" s="22"/>
       <c r="N6" s="22"/>
       <c r="O6" s="22"/>
       <c r="P6" s="22"/>
       <c r="Q6" s="22"/>
       <c r="R6" s="22"/>
-      <c r="S6" s="19"/>
+      <c r="S6" s="22"/>
       <c r="T6" s="19"/>
       <c r="U6" s="19"/>
       <c r="V6" s="19"/>
@@ -2431,300 +2441,315 @@
       <c r="EH6" s="19"/>
       <c r="EI6" s="19"/>
       <c r="EJ6" s="19"/>
-      <c r="EK6" s="20"/>
+      <c r="EK6" s="19"/>
+      <c r="EL6" s="20"/>
     </row>
-    <row r="7" spans="1:141" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:142" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>4</v>
       </c>
       <c r="B7" s="18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
-      <c r="I7" s="6"/>
+      <c r="I7" s="2">
+        <v>38</v>
+      </c>
       <c r="J7" s="6"/>
-      <c r="K7" s="25"/>
-      <c r="L7" s="23"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="25"/>
       <c r="M7" s="23"/>
       <c r="N7" s="23"/>
       <c r="O7" s="23"/>
       <c r="P7" s="23"/>
       <c r="Q7" s="23"/>
-      <c r="R7" s="24"/>
-      <c r="W7" s="6"/>
+      <c r="R7" s="23"/>
+      <c r="S7" s="24"/>
       <c r="X7" s="6"/>
-      <c r="AD7" s="6"/>
+      <c r="Y7" s="6"/>
       <c r="AE7" s="6"/>
-      <c r="AK7" s="6"/>
+      <c r="AF7" s="6"/>
       <c r="AL7" s="6"/>
-      <c r="AR7" s="6"/>
+      <c r="AM7" s="6"/>
       <c r="AS7" s="6"/>
-      <c r="AY7" s="6"/>
+      <c r="AT7" s="6"/>
       <c r="AZ7" s="6"/>
-      <c r="BF7" s="6"/>
+      <c r="BA7" s="6"/>
       <c r="BG7" s="6"/>
-      <c r="BM7" s="6"/>
+      <c r="BH7" s="6"/>
       <c r="BN7" s="6"/>
-      <c r="BT7" s="6"/>
+      <c r="BO7" s="6"/>
       <c r="BU7" s="6"/>
-      <c r="CA7" s="6"/>
+      <c r="BV7" s="6"/>
       <c r="CB7" s="6"/>
-      <c r="CH7" s="6"/>
+      <c r="CC7" s="6"/>
       <c r="CI7" s="6"/>
-      <c r="CO7" s="6"/>
+      <c r="CJ7" s="6"/>
       <c r="CP7" s="6"/>
-      <c r="CV7" s="6"/>
+      <c r="CQ7" s="6"/>
       <c r="CW7" s="6"/>
-      <c r="DC7" s="6"/>
+      <c r="CX7" s="6"/>
       <c r="DD7" s="6"/>
-      <c r="DJ7" s="6"/>
+      <c r="DE7" s="6"/>
       <c r="DK7" s="6"/>
-      <c r="DQ7" s="6"/>
+      <c r="DL7" s="6"/>
       <c r="DR7" s="6"/>
-      <c r="DX7" s="6"/>
+      <c r="DS7" s="6"/>
       <c r="DY7" s="6"/>
-      <c r="EE7" s="6"/>
+      <c r="DZ7" s="6"/>
       <c r="EF7" s="6"/>
+      <c r="EG7" s="6"/>
     </row>
-    <row r="8" spans="1:141" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:142" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>5</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H8" s="1">
         <v>1</v>
       </c>
-      <c r="I8" s="6"/>
+      <c r="I8" s="1">
+        <v>100</v>
+      </c>
       <c r="J8" s="6"/>
-      <c r="K8" s="26"/>
-      <c r="P8" s="6"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="26"/>
       <c r="Q8" s="6"/>
-      <c r="W8" s="6"/>
+      <c r="R8" s="6"/>
       <c r="X8" s="6"/>
-      <c r="AD8" s="6"/>
+      <c r="Y8" s="6"/>
       <c r="AE8" s="6"/>
-      <c r="AK8" s="6"/>
+      <c r="AF8" s="6"/>
       <c r="AL8" s="6"/>
-      <c r="AR8" s="6"/>
+      <c r="AM8" s="6"/>
       <c r="AS8" s="6"/>
-      <c r="AY8" s="6"/>
+      <c r="AT8" s="6"/>
       <c r="AZ8" s="6"/>
-      <c r="BF8" s="6"/>
+      <c r="BA8" s="6"/>
       <c r="BG8" s="6"/>
-      <c r="BM8" s="6"/>
+      <c r="BH8" s="6"/>
       <c r="BN8" s="6"/>
-      <c r="BT8" s="6"/>
+      <c r="BO8" s="6"/>
       <c r="BU8" s="6"/>
-      <c r="CA8" s="6"/>
+      <c r="BV8" s="6"/>
       <c r="CB8" s="6"/>
-      <c r="CH8" s="6"/>
+      <c r="CC8" s="6"/>
       <c r="CI8" s="6"/>
-      <c r="CO8" s="6"/>
+      <c r="CJ8" s="6"/>
       <c r="CP8" s="6"/>
-      <c r="CV8" s="6"/>
+      <c r="CQ8" s="6"/>
       <c r="CW8" s="6"/>
-      <c r="DC8" s="6"/>
+      <c r="CX8" s="6"/>
       <c r="DD8" s="6"/>
-      <c r="DJ8" s="6"/>
+      <c r="DE8" s="6"/>
       <c r="DK8" s="6"/>
-      <c r="DQ8" s="6"/>
+      <c r="DL8" s="6"/>
       <c r="DR8" s="6"/>
-      <c r="DX8" s="6"/>
+      <c r="DS8" s="6"/>
       <c r="DY8" s="6"/>
-      <c r="EE8" s="6"/>
+      <c r="DZ8" s="6"/>
       <c r="EF8" s="6"/>
+      <c r="EG8" s="6"/>
     </row>
-    <row r="9" spans="1:141" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:142" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>6</v>
       </c>
       <c r="B9" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G9" s="1" t="s">
         <v>55</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>54</v>
       </c>
       <c r="H9" s="1">
         <v>5</v>
       </c>
-      <c r="I9" s="6"/>
+      <c r="I9" s="1">
+        <v>25</v>
+      </c>
       <c r="J9" s="6"/>
-      <c r="L9" s="27"/>
-      <c r="M9" s="28"/>
+      <c r="K9" s="6"/>
+      <c r="M9" s="27"/>
       <c r="N9" s="28"/>
       <c r="O9" s="28"/>
       <c r="P9" s="28"/>
       <c r="Q9" s="28"/>
-      <c r="R9" s="29"/>
-      <c r="W9" s="6"/>
+      <c r="R9" s="28"/>
+      <c r="S9" s="29"/>
       <c r="X9" s="6"/>
-      <c r="AD9" s="6"/>
+      <c r="Y9" s="6"/>
       <c r="AE9" s="6"/>
-      <c r="AK9" s="6"/>
+      <c r="AF9" s="6"/>
       <c r="AL9" s="6"/>
-      <c r="AR9" s="6"/>
+      <c r="AM9" s="6"/>
       <c r="AS9" s="6"/>
-      <c r="AY9" s="6"/>
+      <c r="AT9" s="6"/>
       <c r="AZ9" s="6"/>
-      <c r="BF9" s="6"/>
+      <c r="BA9" s="6"/>
       <c r="BG9" s="6"/>
-      <c r="BM9" s="6"/>
+      <c r="BH9" s="6"/>
       <c r="BN9" s="6"/>
-      <c r="BT9" s="6"/>
+      <c r="BO9" s="6"/>
       <c r="BU9" s="6"/>
-      <c r="CA9" s="6"/>
+      <c r="BV9" s="6"/>
       <c r="CB9" s="6"/>
-      <c r="CH9" s="6"/>
+      <c r="CC9" s="6"/>
       <c r="CI9" s="6"/>
-      <c r="CO9" s="6"/>
+      <c r="CJ9" s="6"/>
       <c r="CP9" s="6"/>
-      <c r="CV9" s="6"/>
+      <c r="CQ9" s="6"/>
       <c r="CW9" s="6"/>
-      <c r="DC9" s="6"/>
+      <c r="CX9" s="6"/>
       <c r="DD9" s="6"/>
-      <c r="DJ9" s="6"/>
+      <c r="DE9" s="6"/>
       <c r="DK9" s="6"/>
-      <c r="DQ9" s="6"/>
+      <c r="DL9" s="6"/>
       <c r="DR9" s="6"/>
-      <c r="DX9" s="6"/>
+      <c r="DS9" s="6"/>
       <c r="DY9" s="6"/>
-      <c r="EE9" s="6"/>
+      <c r="DZ9" s="6"/>
       <c r="EF9" s="6"/>
+      <c r="EG9" s="6"/>
     </row>
-    <row r="10" spans="1:141" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:142" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>7</v>
       </c>
       <c r="B10" s="17" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G10" s="1"/>
       <c r="H10" s="1">
         <v>6</v>
       </c>
-      <c r="I10" s="6"/>
+      <c r="I10" s="1">
+        <v>0</v>
+      </c>
       <c r="J10" s="6"/>
-      <c r="P10" s="6"/>
+      <c r="K10" s="6"/>
       <c r="Q10" s="6"/>
-      <c r="R10" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="W10" s="6"/>
+      <c r="R10" s="6"/>
+      <c r="S10" s="3" t="s">
+        <v>42</v>
+      </c>
       <c r="X10" s="6"/>
-      <c r="AD10" s="6"/>
+      <c r="Y10" s="6"/>
       <c r="AE10" s="6"/>
-      <c r="AK10" s="6"/>
+      <c r="AF10" s="6"/>
       <c r="AL10" s="6"/>
-      <c r="AR10" s="6"/>
+      <c r="AM10" s="6"/>
       <c r="AS10" s="6"/>
-      <c r="AY10" s="6"/>
+      <c r="AT10" s="6"/>
       <c r="AZ10" s="6"/>
-      <c r="BF10" s="6"/>
+      <c r="BA10" s="6"/>
       <c r="BG10" s="6"/>
-      <c r="BM10" s="6"/>
+      <c r="BH10" s="6"/>
       <c r="BN10" s="6"/>
-      <c r="BT10" s="6"/>
+      <c r="BO10" s="6"/>
       <c r="BU10" s="6"/>
-      <c r="CA10" s="6"/>
+      <c r="BV10" s="6"/>
       <c r="CB10" s="6"/>
-      <c r="CH10" s="6"/>
+      <c r="CC10" s="6"/>
       <c r="CI10" s="6"/>
-      <c r="CO10" s="6"/>
+      <c r="CJ10" s="6"/>
       <c r="CP10" s="6"/>
-      <c r="CV10" s="6"/>
+      <c r="CQ10" s="6"/>
       <c r="CW10" s="6"/>
-      <c r="DC10" s="6"/>
+      <c r="CX10" s="6"/>
       <c r="DD10" s="6"/>
-      <c r="DJ10" s="6"/>
+      <c r="DE10" s="6"/>
       <c r="DK10" s="6"/>
-      <c r="DQ10" s="6"/>
+      <c r="DL10" s="6"/>
       <c r="DR10" s="6"/>
-      <c r="DX10" s="6"/>
+      <c r="DS10" s="6"/>
       <c r="DY10" s="6"/>
-      <c r="EE10" s="6"/>
+      <c r="DZ10" s="6"/>
       <c r="EF10" s="6"/>
+      <c r="EG10" s="6"/>
     </row>
-    <row r="11" spans="1:141" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:142" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>9</v>
       </c>
       <c r="B11" s="18" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
-      <c r="I11" s="6"/>
+      <c r="I11" s="2">
+        <v>0</v>
+      </c>
       <c r="J11" s="6"/>
-      <c r="P11" s="6"/>
+      <c r="K11" s="6"/>
       <c r="Q11" s="6"/>
-      <c r="S11" s="25"/>
-      <c r="T11" s="30"/>
+      <c r="R11" s="6"/>
+      <c r="T11" s="25"/>
       <c r="U11" s="30"/>
       <c r="V11" s="30"/>
       <c r="W11" s="30"/>
@@ -2737,7 +2762,7 @@
       <c r="AD11" s="30"/>
       <c r="AE11" s="30"/>
       <c r="AF11" s="30"/>
-      <c r="AG11" s="23"/>
+      <c r="AG11" s="30"/>
       <c r="AH11" s="23"/>
       <c r="AI11" s="23"/>
       <c r="AJ11" s="23"/>
@@ -2759,63 +2784,66 @@
       <c r="AZ11" s="23"/>
       <c r="BA11" s="23"/>
       <c r="BB11" s="23"/>
-      <c r="BC11" s="24"/>
-      <c r="BF11" s="6"/>
+      <c r="BC11" s="23"/>
+      <c r="BD11" s="24"/>
       <c r="BG11" s="6"/>
-      <c r="BM11" s="6"/>
+      <c r="BH11" s="6"/>
       <c r="BN11" s="6"/>
-      <c r="BT11" s="6"/>
+      <c r="BO11" s="6"/>
       <c r="BU11" s="6"/>
-      <c r="CA11" s="6"/>
+      <c r="BV11" s="6"/>
       <c r="CB11" s="6"/>
-      <c r="CH11" s="6"/>
+      <c r="CC11" s="6"/>
       <c r="CI11" s="6"/>
-      <c r="CO11" s="6"/>
+      <c r="CJ11" s="6"/>
       <c r="CP11" s="6"/>
-      <c r="CV11" s="6"/>
+      <c r="CQ11" s="6"/>
       <c r="CW11" s="6"/>
-      <c r="DC11" s="6"/>
+      <c r="CX11" s="6"/>
       <c r="DD11" s="6"/>
-      <c r="DJ11" s="6"/>
+      <c r="DE11" s="6"/>
       <c r="DK11" s="6"/>
-      <c r="DQ11" s="6"/>
+      <c r="DL11" s="6"/>
       <c r="DR11" s="6"/>
-      <c r="DX11" s="6"/>
+      <c r="DS11" s="6"/>
       <c r="DY11" s="6"/>
-      <c r="EE11" s="6"/>
+      <c r="DZ11" s="6"/>
       <c r="EF11" s="6"/>
+      <c r="EG11" s="6"/>
     </row>
-    <row r="12" spans="1:141" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:142" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" s="17" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H12" s="1">
         <v>7</v>
       </c>
-      <c r="I12" s="6"/>
+      <c r="I12" s="1">
+        <v>0</v>
+      </c>
       <c r="J12" s="6"/>
-      <c r="P12" s="6"/>
+      <c r="K12" s="6"/>
       <c r="Q12" s="6"/>
-      <c r="S12" s="27"/>
-      <c r="T12" s="28"/>
+      <c r="R12" s="6"/>
+      <c r="T12" s="27"/>
       <c r="U12" s="28"/>
       <c r="V12" s="28"/>
       <c r="W12" s="28"/>
@@ -2827,418 +2855,436 @@
       <c r="AC12" s="28"/>
       <c r="AD12" s="28"/>
       <c r="AE12" s="28"/>
-      <c r="AF12" s="29"/>
-      <c r="AK12" s="6"/>
+      <c r="AF12" s="28"/>
+      <c r="AG12" s="29"/>
       <c r="AL12" s="6"/>
-      <c r="AR12" s="6"/>
+      <c r="AM12" s="6"/>
       <c r="AS12" s="6"/>
-      <c r="AY12" s="6"/>
+      <c r="AT12" s="6"/>
       <c r="AZ12" s="6"/>
-      <c r="BF12" s="6"/>
+      <c r="BA12" s="6"/>
       <c r="BG12" s="6"/>
-      <c r="BM12" s="6"/>
+      <c r="BH12" s="6"/>
       <c r="BN12" s="6"/>
-      <c r="BT12" s="6"/>
+      <c r="BO12" s="6"/>
       <c r="BU12" s="6"/>
-      <c r="CA12" s="6"/>
+      <c r="BV12" s="6"/>
       <c r="CB12" s="6"/>
-      <c r="CH12" s="6"/>
+      <c r="CC12" s="6"/>
       <c r="CI12" s="6"/>
-      <c r="CO12" s="6"/>
+      <c r="CJ12" s="6"/>
       <c r="CP12" s="6"/>
-      <c r="CV12" s="6"/>
+      <c r="CQ12" s="6"/>
       <c r="CW12" s="6"/>
-      <c r="DC12" s="6"/>
+      <c r="CX12" s="6"/>
       <c r="DD12" s="6"/>
-      <c r="DJ12" s="6"/>
+      <c r="DE12" s="6"/>
       <c r="DK12" s="6"/>
-      <c r="DQ12" s="6"/>
+      <c r="DL12" s="6"/>
       <c r="DR12" s="6"/>
-      <c r="DX12" s="6"/>
+      <c r="DS12" s="6"/>
       <c r="DY12" s="6"/>
-      <c r="EE12" s="6"/>
+      <c r="DZ12" s="6"/>
       <c r="EF12" s="6"/>
+      <c r="EG12" s="6"/>
     </row>
-    <row r="13" spans="1:141" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:142" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G13" s="1" t="s">
         <v>71</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>70</v>
       </c>
       <c r="H13" s="1">
         <v>10</v>
       </c>
-      <c r="I13" s="6"/>
+      <c r="I13" s="1">
+        <v>0</v>
+      </c>
       <c r="J13" s="6"/>
-      <c r="P13" s="6"/>
+      <c r="K13" s="6"/>
       <c r="Q13" s="6"/>
-      <c r="W13" s="6"/>
+      <c r="R13" s="6"/>
       <c r="X13" s="6"/>
-      <c r="AD13" s="6"/>
+      <c r="Y13" s="6"/>
       <c r="AE13" s="6"/>
-      <c r="AG13" s="27"/>
-      <c r="AH13" s="28"/>
+      <c r="AF13" s="6"/>
+      <c r="AH13" s="27"/>
       <c r="AI13" s="28"/>
       <c r="AJ13" s="28"/>
       <c r="AK13" s="28"/>
       <c r="AL13" s="28"/>
-      <c r="AM13" s="29"/>
-      <c r="AR13" s="6"/>
+      <c r="AM13" s="28"/>
+      <c r="AN13" s="29"/>
       <c r="AS13" s="6"/>
-      <c r="AY13" s="6"/>
+      <c r="AT13" s="6"/>
       <c r="AZ13" s="6"/>
-      <c r="BF13" s="6"/>
+      <c r="BA13" s="6"/>
       <c r="BG13" s="6"/>
-      <c r="BM13" s="6"/>
+      <c r="BH13" s="6"/>
       <c r="BN13" s="6"/>
-      <c r="BT13" s="6"/>
+      <c r="BO13" s="6"/>
       <c r="BU13" s="6"/>
-      <c r="CA13" s="6"/>
+      <c r="BV13" s="6"/>
       <c r="CB13" s="6"/>
-      <c r="CH13" s="6"/>
+      <c r="CC13" s="6"/>
       <c r="CI13" s="6"/>
-      <c r="CO13" s="6"/>
+      <c r="CJ13" s="6"/>
       <c r="CP13" s="6"/>
-      <c r="CV13" s="6"/>
+      <c r="CQ13" s="6"/>
       <c r="CW13" s="6"/>
-      <c r="DC13" s="6"/>
+      <c r="CX13" s="6"/>
       <c r="DD13" s="6"/>
-      <c r="DJ13" s="6"/>
+      <c r="DE13" s="6"/>
       <c r="DK13" s="6"/>
-      <c r="DQ13" s="6"/>
+      <c r="DL13" s="6"/>
       <c r="DR13" s="6"/>
-      <c r="DX13" s="6"/>
+      <c r="DS13" s="6"/>
       <c r="DY13" s="6"/>
-      <c r="EE13" s="6"/>
+      <c r="DZ13" s="6"/>
       <c r="EF13" s="6"/>
+      <c r="EG13" s="6"/>
     </row>
-    <row r="14" spans="1:141" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:142" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14" s="17" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H14" s="1">
         <v>11</v>
       </c>
-      <c r="I14" s="6"/>
+      <c r="I14" s="1">
+        <v>0</v>
+      </c>
       <c r="J14" s="6"/>
-      <c r="P14" s="6"/>
+      <c r="K14" s="6"/>
       <c r="Q14" s="6"/>
-      <c r="W14" s="6"/>
+      <c r="R14" s="6"/>
       <c r="X14" s="6"/>
-      <c r="AD14" s="6"/>
+      <c r="Y14" s="6"/>
       <c r="AE14" s="6"/>
-      <c r="AK14" s="6"/>
+      <c r="AF14" s="6"/>
       <c r="AL14" s="6"/>
-      <c r="AN14" s="27"/>
-      <c r="AO14" s="28"/>
+      <c r="AM14" s="6"/>
+      <c r="AO14" s="27"/>
       <c r="AP14" s="28"/>
       <c r="AQ14" s="28"/>
       <c r="AR14" s="28"/>
       <c r="AS14" s="28"/>
-      <c r="AT14" s="29"/>
-      <c r="AY14" s="6"/>
+      <c r="AT14" s="28"/>
+      <c r="AU14" s="29"/>
       <c r="AZ14" s="6"/>
-      <c r="BF14" s="6"/>
+      <c r="BA14" s="6"/>
       <c r="BG14" s="6"/>
-      <c r="BM14" s="6"/>
+      <c r="BH14" s="6"/>
       <c r="BN14" s="6"/>
-      <c r="BT14" s="6"/>
+      <c r="BO14" s="6"/>
       <c r="BU14" s="6"/>
-      <c r="CA14" s="6"/>
+      <c r="BV14" s="6"/>
       <c r="CB14" s="6"/>
-      <c r="CH14" s="6"/>
+      <c r="CC14" s="6"/>
       <c r="CI14" s="6"/>
-      <c r="CO14" s="6"/>
+      <c r="CJ14" s="6"/>
       <c r="CP14" s="6"/>
-      <c r="CV14" s="6"/>
+      <c r="CQ14" s="6"/>
       <c r="CW14" s="6"/>
-      <c r="DC14" s="6"/>
+      <c r="CX14" s="6"/>
       <c r="DD14" s="6"/>
-      <c r="DJ14" s="6"/>
+      <c r="DE14" s="6"/>
       <c r="DK14" s="6"/>
-      <c r="DQ14" s="6"/>
+      <c r="DL14" s="6"/>
       <c r="DR14" s="6"/>
-      <c r="DX14" s="6"/>
+      <c r="DS14" s="6"/>
       <c r="DY14" s="6"/>
-      <c r="EE14" s="6"/>
+      <c r="DZ14" s="6"/>
       <c r="EF14" s="6"/>
+      <c r="EG14" s="6"/>
     </row>
-    <row r="15" spans="1:141" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:142" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15" s="17" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H15" s="1">
         <v>12</v>
       </c>
-      <c r="I15" s="6"/>
+      <c r="I15" s="1">
+        <v>0</v>
+      </c>
       <c r="J15" s="6"/>
-      <c r="P15" s="6"/>
+      <c r="K15" s="6"/>
       <c r="Q15" s="6"/>
-      <c r="W15" s="6"/>
+      <c r="R15" s="6"/>
       <c r="X15" s="6"/>
-      <c r="AD15" s="6"/>
+      <c r="Y15" s="6"/>
       <c r="AE15" s="6"/>
-      <c r="AK15" s="6"/>
+      <c r="AF15" s="6"/>
       <c r="AL15" s="6"/>
-      <c r="AR15" s="6"/>
+      <c r="AM15" s="6"/>
       <c r="AS15" s="6"/>
-      <c r="AU15" s="31"/>
-      <c r="AV15" s="32"/>
+      <c r="AT15" s="6"/>
+      <c r="AV15" s="31"/>
       <c r="AW15" s="32"/>
       <c r="AX15" s="32"/>
       <c r="AY15" s="32"/>
       <c r="AZ15" s="32"/>
-      <c r="BA15" s="33"/>
-      <c r="BF15" s="6"/>
+      <c r="BA15" s="32"/>
+      <c r="BB15" s="33"/>
       <c r="BG15" s="6"/>
-      <c r="BM15" s="6"/>
+      <c r="BH15" s="6"/>
       <c r="BN15" s="6"/>
-      <c r="BT15" s="6"/>
+      <c r="BO15" s="6"/>
       <c r="BU15" s="6"/>
-      <c r="CA15" s="6"/>
+      <c r="BV15" s="6"/>
       <c r="CB15" s="6"/>
-      <c r="CH15" s="6"/>
+      <c r="CC15" s="6"/>
       <c r="CI15" s="6"/>
-      <c r="CO15" s="6"/>
+      <c r="CJ15" s="6"/>
       <c r="CP15" s="6"/>
-      <c r="CV15" s="6"/>
+      <c r="CQ15" s="6"/>
       <c r="CW15" s="6"/>
-      <c r="DC15" s="6"/>
+      <c r="CX15" s="6"/>
       <c r="DD15" s="6"/>
-      <c r="DJ15" s="6"/>
+      <c r="DE15" s="6"/>
       <c r="DK15" s="6"/>
-      <c r="DQ15" s="6"/>
+      <c r="DL15" s="6"/>
       <c r="DR15" s="6"/>
-      <c r="DX15" s="6"/>
+      <c r="DS15" s="6"/>
       <c r="DY15" s="6"/>
-      <c r="EE15" s="6"/>
+      <c r="DZ15" s="6"/>
       <c r="EF15" s="6"/>
+      <c r="EG15" s="6"/>
     </row>
-    <row r="16" spans="1:141" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:142" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16" s="17" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H16" s="1">
         <v>12</v>
       </c>
-      <c r="I16" s="6"/>
+      <c r="I16" s="1">
+        <v>0</v>
+      </c>
       <c r="J16" s="6"/>
-      <c r="P16" s="6"/>
+      <c r="K16" s="6"/>
       <c r="Q16" s="6"/>
-      <c r="W16" s="6"/>
+      <c r="R16" s="6"/>
       <c r="X16" s="6"/>
-      <c r="AD16" s="6"/>
+      <c r="Y16" s="6"/>
       <c r="AE16" s="6"/>
-      <c r="AK16" s="6"/>
+      <c r="AF16" s="6"/>
       <c r="AL16" s="6"/>
-      <c r="AR16" s="6"/>
+      <c r="AM16" s="6"/>
       <c r="AS16" s="6"/>
-      <c r="AU16" s="27"/>
-      <c r="AV16" s="28"/>
+      <c r="AT16" s="6"/>
+      <c r="AV16" s="27"/>
       <c r="AW16" s="28"/>
       <c r="AX16" s="28"/>
       <c r="AY16" s="28"/>
       <c r="AZ16" s="28"/>
       <c r="BA16" s="28"/>
       <c r="BB16" s="28"/>
-      <c r="BC16" s="29"/>
-      <c r="BF16" s="6"/>
+      <c r="BC16" s="28"/>
+      <c r="BD16" s="29"/>
       <c r="BG16" s="6"/>
-      <c r="BM16" s="6"/>
+      <c r="BH16" s="6"/>
       <c r="BN16" s="6"/>
-      <c r="BT16" s="6"/>
+      <c r="BO16" s="6"/>
       <c r="BU16" s="6"/>
-      <c r="CA16" s="6"/>
+      <c r="BV16" s="6"/>
       <c r="CB16" s="6"/>
-      <c r="CH16" s="6"/>
+      <c r="CC16" s="6"/>
       <c r="CI16" s="6"/>
-      <c r="CO16" s="6"/>
+      <c r="CJ16" s="6"/>
       <c r="CP16" s="6"/>
-      <c r="CV16" s="6"/>
+      <c r="CQ16" s="6"/>
       <c r="CW16" s="6"/>
-      <c r="DC16" s="6"/>
+      <c r="CX16" s="6"/>
       <c r="DD16" s="6"/>
-      <c r="DJ16" s="6"/>
+      <c r="DE16" s="6"/>
       <c r="DK16" s="6"/>
-      <c r="DQ16" s="6"/>
+      <c r="DL16" s="6"/>
       <c r="DR16" s="6"/>
-      <c r="DX16" s="6"/>
+      <c r="DS16" s="6"/>
       <c r="DY16" s="6"/>
-      <c r="EE16" s="6"/>
+      <c r="DZ16" s="6"/>
       <c r="EF16" s="6"/>
+      <c r="EG16" s="6"/>
     </row>
-    <row r="17" spans="1:136" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:137" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17" s="17" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G17" s="1"/>
       <c r="H17" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="I17" s="6"/>
+        <v>89</v>
+      </c>
+      <c r="I17" s="1">
+        <v>0</v>
+      </c>
       <c r="J17" s="6"/>
-      <c r="P17" s="6"/>
+      <c r="K17" s="6"/>
       <c r="Q17" s="6"/>
-      <c r="W17" s="6"/>
+      <c r="R17" s="6"/>
       <c r="X17" s="6"/>
-      <c r="AD17" s="6"/>
+      <c r="Y17" s="6"/>
       <c r="AE17" s="6"/>
-      <c r="AK17" s="6"/>
+      <c r="AF17" s="6"/>
       <c r="AL17" s="6"/>
-      <c r="AR17" s="6"/>
+      <c r="AM17" s="6"/>
       <c r="AS17" s="6"/>
-      <c r="AY17" s="6"/>
+      <c r="AT17" s="6"/>
       <c r="AZ17" s="6"/>
-      <c r="BC17" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="BF17" s="6"/>
+      <c r="BA17" s="6"/>
+      <c r="BD17" s="3" t="s">
+        <v>42</v>
+      </c>
       <c r="BG17" s="6"/>
-      <c r="BM17" s="6"/>
+      <c r="BH17" s="6"/>
       <c r="BN17" s="6"/>
-      <c r="BT17" s="6"/>
+      <c r="BO17" s="6"/>
       <c r="BU17" s="6"/>
-      <c r="CA17" s="6"/>
+      <c r="BV17" s="6"/>
       <c r="CB17" s="6"/>
-      <c r="CH17" s="6"/>
+      <c r="CC17" s="6"/>
       <c r="CI17" s="6"/>
-      <c r="CO17" s="6"/>
+      <c r="CJ17" s="6"/>
       <c r="CP17" s="6"/>
-      <c r="CV17" s="6"/>
+      <c r="CQ17" s="6"/>
       <c r="CW17" s="6"/>
-      <c r="DC17" s="6"/>
+      <c r="CX17" s="6"/>
       <c r="DD17" s="6"/>
-      <c r="DJ17" s="6"/>
+      <c r="DE17" s="6"/>
       <c r="DK17" s="6"/>
-      <c r="DQ17" s="6"/>
+      <c r="DL17" s="6"/>
       <c r="DR17" s="6"/>
-      <c r="DX17" s="6"/>
+      <c r="DS17" s="6"/>
       <c r="DY17" s="6"/>
-      <c r="EE17" s="6"/>
+      <c r="DZ17" s="6"/>
       <c r="EF17" s="6"/>
+      <c r="EG17" s="6"/>
     </row>
-    <row r="18" spans="1:136" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:137" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <v>17</v>
       </c>
       <c r="B18" s="18" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
-      <c r="I18" s="6"/>
+      <c r="I18" s="2">
+        <v>0</v>
+      </c>
       <c r="J18" s="6"/>
-      <c r="P18" s="6"/>
+      <c r="K18" s="6"/>
       <c r="Q18" s="6"/>
-      <c r="W18" s="6"/>
+      <c r="R18" s="6"/>
       <c r="X18" s="6"/>
-      <c r="AD18" s="6"/>
+      <c r="Y18" s="6"/>
       <c r="AE18" s="6"/>
-      <c r="AK18" s="6"/>
+      <c r="AF18" s="6"/>
       <c r="AL18" s="6"/>
-      <c r="AR18" s="6"/>
+      <c r="AM18" s="6"/>
       <c r="AS18" s="6"/>
-      <c r="AY18" s="6"/>
+      <c r="AT18" s="6"/>
       <c r="AZ18" s="6"/>
-      <c r="BD18" s="25"/>
-      <c r="BE18" s="30"/>
+      <c r="BA18" s="6"/>
+      <c r="BE18" s="25"/>
       <c r="BF18" s="30"/>
       <c r="BG18" s="30"/>
       <c r="BH18" s="30"/>
@@ -3246,7 +3292,7 @@
       <c r="BJ18" s="30"/>
       <c r="BK18" s="30"/>
       <c r="BL18" s="30"/>
-      <c r="BM18" s="23"/>
+      <c r="BM18" s="30"/>
       <c r="BN18" s="23"/>
       <c r="BO18" s="23"/>
       <c r="BP18" s="23"/>
@@ -3270,193 +3316,202 @@
       <c r="CH18" s="23"/>
       <c r="CI18" s="23"/>
       <c r="CJ18" s="23"/>
-      <c r="CK18" s="24"/>
-      <c r="CO18" s="6"/>
+      <c r="CK18" s="23"/>
+      <c r="CL18" s="24"/>
       <c r="CP18" s="6"/>
-      <c r="CV18" s="6"/>
+      <c r="CQ18" s="6"/>
       <c r="CW18" s="6"/>
-      <c r="DC18" s="6"/>
+      <c r="CX18" s="6"/>
       <c r="DD18" s="6"/>
-      <c r="DJ18" s="6"/>
+      <c r="DE18" s="6"/>
       <c r="DK18" s="6"/>
-      <c r="DQ18" s="6"/>
+      <c r="DL18" s="6"/>
       <c r="DR18" s="6"/>
-      <c r="DX18" s="6"/>
+      <c r="DS18" s="6"/>
       <c r="DY18" s="6"/>
-      <c r="EE18" s="6"/>
+      <c r="DZ18" s="6"/>
       <c r="EF18" s="6"/>
+      <c r="EG18" s="6"/>
     </row>
-    <row r="19" spans="1:136" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:137" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>18</v>
       </c>
       <c r="B19" s="17" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="H19" s="1">
         <v>15</v>
       </c>
-      <c r="I19" s="6"/>
+      <c r="I19" s="1">
+        <v>0</v>
+      </c>
       <c r="J19" s="6"/>
-      <c r="P19" s="6"/>
+      <c r="K19" s="6"/>
       <c r="Q19" s="6"/>
-      <c r="W19" s="6"/>
+      <c r="R19" s="6"/>
       <c r="X19" s="6"/>
-      <c r="AD19" s="6"/>
+      <c r="Y19" s="6"/>
       <c r="AE19" s="6"/>
-      <c r="AK19" s="6"/>
+      <c r="AF19" s="6"/>
       <c r="AL19" s="6"/>
-      <c r="AR19" s="6"/>
+      <c r="AM19" s="6"/>
       <c r="AS19" s="6"/>
-      <c r="AY19" s="6"/>
+      <c r="AT19" s="6"/>
       <c r="AZ19" s="6"/>
-      <c r="BD19" s="27"/>
-      <c r="BE19" s="28"/>
+      <c r="BA19" s="6"/>
+      <c r="BE19" s="27"/>
       <c r="BF19" s="28"/>
       <c r="BG19" s="28"/>
       <c r="BH19" s="28"/>
       <c r="BI19" s="28"/>
       <c r="BJ19" s="28"/>
       <c r="BK19" s="28"/>
-      <c r="BL19" s="29"/>
-      <c r="BM19" s="6"/>
+      <c r="BL19" s="28"/>
+      <c r="BM19" s="29"/>
       <c r="BN19" s="6"/>
-      <c r="BT19" s="6"/>
+      <c r="BO19" s="6"/>
       <c r="BU19" s="6"/>
-      <c r="CA19" s="6"/>
+      <c r="BV19" s="6"/>
       <c r="CB19" s="6"/>
-      <c r="CH19" s="6"/>
+      <c r="CC19" s="6"/>
       <c r="CI19" s="6"/>
-      <c r="CO19" s="6"/>
+      <c r="CJ19" s="6"/>
       <c r="CP19" s="6"/>
-      <c r="CV19" s="6"/>
+      <c r="CQ19" s="6"/>
       <c r="CW19" s="6"/>
-      <c r="DC19" s="6"/>
+      <c r="CX19" s="6"/>
       <c r="DD19" s="6"/>
-      <c r="DJ19" s="6"/>
+      <c r="DE19" s="6"/>
       <c r="DK19" s="6"/>
-      <c r="DQ19" s="6"/>
+      <c r="DL19" s="6"/>
       <c r="DR19" s="6"/>
-      <c r="DX19" s="6"/>
+      <c r="DS19" s="6"/>
       <c r="DY19" s="6"/>
-      <c r="EE19" s="6"/>
+      <c r="DZ19" s="6"/>
       <c r="EF19" s="6"/>
+      <c r="EG19" s="6"/>
     </row>
-    <row r="20" spans="1:136" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:137" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>19</v>
       </c>
       <c r="B20" s="17" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="G20" s="1"/>
       <c r="H20" s="1">
         <v>18</v>
       </c>
-      <c r="I20" s="6"/>
+      <c r="I20" s="1">
+        <v>0</v>
+      </c>
       <c r="J20" s="6"/>
-      <c r="P20" s="6"/>
+      <c r="K20" s="6"/>
       <c r="Q20" s="6"/>
-      <c r="W20" s="6"/>
+      <c r="R20" s="6"/>
       <c r="X20" s="6"/>
-      <c r="AD20" s="6"/>
+      <c r="Y20" s="6"/>
       <c r="AE20" s="6"/>
-      <c r="AK20" s="6"/>
+      <c r="AF20" s="6"/>
       <c r="AL20" s="6"/>
-      <c r="AR20" s="6"/>
+      <c r="AM20" s="6"/>
       <c r="AS20" s="6"/>
-      <c r="AY20" s="6"/>
+      <c r="AT20" s="6"/>
       <c r="AZ20" s="6"/>
-      <c r="BF20" s="6"/>
+      <c r="BA20" s="6"/>
       <c r="BG20" s="6"/>
-      <c r="BM20" s="6"/>
+      <c r="BH20" s="6"/>
       <c r="BN20" s="6"/>
-      <c r="BO20" s="34"/>
-      <c r="BT20" s="6"/>
+      <c r="BO20" s="6"/>
+      <c r="BP20" s="34"/>
       <c r="BU20" s="6"/>
-      <c r="CA20" s="6"/>
+      <c r="BV20" s="6"/>
       <c r="CB20" s="6"/>
-      <c r="CH20" s="6"/>
+      <c r="CC20" s="6"/>
       <c r="CI20" s="6"/>
-      <c r="CO20" s="6"/>
+      <c r="CJ20" s="6"/>
       <c r="CP20" s="6"/>
-      <c r="CV20" s="6"/>
+      <c r="CQ20" s="6"/>
       <c r="CW20" s="6"/>
-      <c r="DC20" s="6"/>
+      <c r="CX20" s="6"/>
       <c r="DD20" s="6"/>
-      <c r="DJ20" s="6"/>
+      <c r="DE20" s="6"/>
       <c r="DK20" s="6"/>
-      <c r="DQ20" s="6"/>
+      <c r="DL20" s="6"/>
       <c r="DR20" s="6"/>
-      <c r="DX20" s="6"/>
+      <c r="DS20" s="6"/>
       <c r="DY20" s="6"/>
-      <c r="EE20" s="6"/>
+      <c r="DZ20" s="6"/>
       <c r="EF20" s="6"/>
+      <c r="EG20" s="6"/>
     </row>
-    <row r="21" spans="1:136" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:137" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <v>20</v>
       </c>
       <c r="B21" s="18" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G21" s="2"/>
       <c r="H21" s="2"/>
-      <c r="I21" s="6"/>
+      <c r="I21" s="2">
+        <v>0</v>
+      </c>
       <c r="J21" s="6"/>
-      <c r="P21" s="6"/>
+      <c r="K21" s="6"/>
       <c r="Q21" s="6"/>
-      <c r="W21" s="6"/>
+      <c r="R21" s="6"/>
       <c r="X21" s="6"/>
-      <c r="AD21" s="6"/>
+      <c r="Y21" s="6"/>
       <c r="AE21" s="6"/>
-      <c r="AK21" s="6"/>
+      <c r="AF21" s="6"/>
       <c r="AL21" s="6"/>
-      <c r="AR21" s="6"/>
+      <c r="AM21" s="6"/>
       <c r="AS21" s="6"/>
-      <c r="AY21" s="6"/>
+      <c r="AT21" s="6"/>
       <c r="AZ21" s="6"/>
-      <c r="BD21" s="31"/>
-      <c r="BE21" s="32"/>
+      <c r="BA21" s="6"/>
+      <c r="BE21" s="31"/>
       <c r="BF21" s="32"/>
       <c r="BG21" s="32"/>
       <c r="BH21" s="32"/>
@@ -3485,62 +3540,65 @@
       <c r="CE21" s="32"/>
       <c r="CF21" s="32"/>
       <c r="CG21" s="32"/>
-      <c r="CH21" s="28"/>
+      <c r="CH21" s="32"/>
       <c r="CI21" s="28"/>
       <c r="CJ21" s="28"/>
-      <c r="CK21" s="29"/>
-      <c r="CO21" s="6"/>
+      <c r="CK21" s="28"/>
+      <c r="CL21" s="29"/>
       <c r="CP21" s="6"/>
-      <c r="CV21" s="6"/>
+      <c r="CQ21" s="6"/>
       <c r="CW21" s="6"/>
-      <c r="DC21" s="6"/>
+      <c r="CX21" s="6"/>
       <c r="DD21" s="6"/>
-      <c r="DJ21" s="6"/>
+      <c r="DE21" s="6"/>
       <c r="DK21" s="6"/>
-      <c r="DQ21" s="6"/>
+      <c r="DL21" s="6"/>
       <c r="DR21" s="6"/>
-      <c r="DX21" s="6"/>
+      <c r="DS21" s="6"/>
       <c r="DY21" s="6"/>
-      <c r="EE21" s="6"/>
+      <c r="DZ21" s="6"/>
       <c r="EF21" s="6"/>
+      <c r="EG21" s="6"/>
     </row>
-    <row r="22" spans="1:136" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:137" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <v>21</v>
       </c>
       <c r="B22" s="18" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G22" s="2"/>
       <c r="H22" s="2"/>
-      <c r="I22" s="6"/>
+      <c r="I22" s="2">
+        <v>0</v>
+      </c>
       <c r="J22" s="6"/>
-      <c r="P22" s="6"/>
+      <c r="K22" s="6"/>
       <c r="Q22" s="6"/>
-      <c r="W22" s="6"/>
+      <c r="R22" s="6"/>
       <c r="X22" s="6"/>
-      <c r="AD22" s="6"/>
+      <c r="Y22" s="6"/>
       <c r="AE22" s="6"/>
-      <c r="AK22" s="6"/>
+      <c r="AF22" s="6"/>
       <c r="AL22" s="6"/>
-      <c r="AR22" s="6"/>
+      <c r="AM22" s="6"/>
       <c r="AS22" s="6"/>
-      <c r="AY22" s="6"/>
+      <c r="AT22" s="6"/>
       <c r="AZ22" s="6"/>
-      <c r="BD22" s="38"/>
-      <c r="BE22" s="39"/>
+      <c r="BA22" s="6"/>
+      <c r="BE22" s="38"/>
       <c r="BF22" s="39"/>
       <c r="BG22" s="39"/>
       <c r="BH22" s="39"/>
@@ -3558,7 +3616,7 @@
       <c r="BT22" s="39"/>
       <c r="BU22" s="39"/>
       <c r="BV22" s="39"/>
-      <c r="BW22" s="36"/>
+      <c r="BW22" s="39"/>
       <c r="BX22" s="36"/>
       <c r="BY22" s="36"/>
       <c r="BZ22" s="36"/>
@@ -3568,61 +3626,64 @@
       <c r="CD22" s="36"/>
       <c r="CE22" s="36"/>
       <c r="CF22" s="36"/>
-      <c r="CG22" s="37"/>
-      <c r="CH22" s="6"/>
+      <c r="CG22" s="36"/>
+      <c r="CH22" s="37"/>
       <c r="CI22" s="6"/>
-      <c r="CO22" s="6"/>
+      <c r="CJ22" s="6"/>
       <c r="CP22" s="6"/>
-      <c r="CV22" s="6"/>
+      <c r="CQ22" s="6"/>
       <c r="CW22" s="6"/>
-      <c r="DC22" s="6"/>
+      <c r="CX22" s="6"/>
       <c r="DD22" s="6"/>
-      <c r="DJ22" s="6"/>
+      <c r="DE22" s="6"/>
       <c r="DK22" s="6"/>
-      <c r="DQ22" s="6"/>
+      <c r="DL22" s="6"/>
       <c r="DR22" s="6"/>
-      <c r="DX22" s="6"/>
+      <c r="DS22" s="6"/>
       <c r="DY22" s="6"/>
-      <c r="EE22" s="6"/>
+      <c r="DZ22" s="6"/>
       <c r="EF22" s="6"/>
+      <c r="EG22" s="6"/>
     </row>
-    <row r="23" spans="1:136" outlineLevel="4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:137" outlineLevel="4" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
         <v>22</v>
       </c>
       <c r="B23" s="18" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="G23" s="2"/>
       <c r="H23" s="2"/>
-      <c r="I23" s="6"/>
+      <c r="I23" s="2">
+        <v>0</v>
+      </c>
       <c r="J23" s="6"/>
-      <c r="P23" s="6"/>
+      <c r="K23" s="6"/>
       <c r="Q23" s="6"/>
-      <c r="W23" s="6"/>
+      <c r="R23" s="6"/>
       <c r="X23" s="6"/>
-      <c r="AD23" s="6"/>
+      <c r="Y23" s="6"/>
       <c r="AE23" s="6"/>
-      <c r="AK23" s="6"/>
+      <c r="AF23" s="6"/>
       <c r="AL23" s="6"/>
-      <c r="AR23" s="6"/>
+      <c r="AM23" s="6"/>
       <c r="AS23" s="6"/>
-      <c r="AY23" s="6"/>
+      <c r="AT23" s="6"/>
       <c r="AZ23" s="6"/>
-      <c r="BD23" s="38"/>
-      <c r="BE23" s="39"/>
+      <c r="BA23" s="6"/>
+      <c r="BE23" s="38"/>
       <c r="BF23" s="39"/>
       <c r="BG23" s="39"/>
       <c r="BH23" s="39"/>
@@ -3635,71 +3696,74 @@
       <c r="BO23" s="39"/>
       <c r="BP23" s="39"/>
       <c r="BQ23" s="39"/>
-      <c r="BR23" s="36"/>
+      <c r="BR23" s="39"/>
       <c r="BS23" s="36"/>
       <c r="BT23" s="36"/>
       <c r="BU23" s="36"/>
-      <c r="BV23" s="37"/>
-      <c r="CA23" s="6"/>
+      <c r="BV23" s="36"/>
+      <c r="BW23" s="37"/>
       <c r="CB23" s="6"/>
-      <c r="CH23" s="6"/>
+      <c r="CC23" s="6"/>
       <c r="CI23" s="6"/>
-      <c r="CO23" s="6"/>
+      <c r="CJ23" s="6"/>
       <c r="CP23" s="6"/>
-      <c r="CV23" s="6"/>
+      <c r="CQ23" s="6"/>
       <c r="CW23" s="6"/>
-      <c r="DC23" s="6"/>
+      <c r="CX23" s="6"/>
       <c r="DD23" s="6"/>
-      <c r="DJ23" s="6"/>
+      <c r="DE23" s="6"/>
       <c r="DK23" s="6"/>
-      <c r="DQ23" s="6"/>
+      <c r="DL23" s="6"/>
       <c r="DR23" s="6"/>
-      <c r="DX23" s="6"/>
+      <c r="DS23" s="6"/>
       <c r="DY23" s="6"/>
-      <c r="EE23" s="6"/>
+      <c r="DZ23" s="6"/>
       <c r="EF23" s="6"/>
+      <c r="EG23" s="6"/>
     </row>
-    <row r="24" spans="1:136" outlineLevel="5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:137" outlineLevel="5" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>23</v>
       </c>
       <c r="B24" s="17" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H24" s="1">
         <v>15</v>
       </c>
-      <c r="I24" s="6"/>
+      <c r="I24" s="1">
+        <v>0</v>
+      </c>
       <c r="J24" s="6"/>
-      <c r="P24" s="6"/>
+      <c r="K24" s="6"/>
       <c r="Q24" s="6"/>
-      <c r="W24" s="6"/>
+      <c r="R24" s="6"/>
       <c r="X24" s="6"/>
-      <c r="AD24" s="6"/>
+      <c r="Y24" s="6"/>
       <c r="AE24" s="6"/>
-      <c r="AK24" s="6"/>
+      <c r="AF24" s="6"/>
       <c r="AL24" s="6"/>
-      <c r="AR24" s="6"/>
+      <c r="AM24" s="6"/>
       <c r="AS24" s="6"/>
-      <c r="AY24" s="6"/>
+      <c r="AT24" s="6"/>
       <c r="AZ24" s="6"/>
-      <c r="BD24" s="35"/>
-      <c r="BE24" s="36"/>
+      <c r="BA24" s="6"/>
+      <c r="BE24" s="35"/>
       <c r="BF24" s="36"/>
       <c r="BG24" s="36"/>
       <c r="BH24" s="36"/>
@@ -3711,138 +3775,144 @@
       <c r="BN24" s="36"/>
       <c r="BO24" s="36"/>
       <c r="BP24" s="36"/>
-      <c r="BQ24" s="37"/>
-      <c r="BT24" s="6"/>
+      <c r="BQ24" s="36"/>
+      <c r="BR24" s="37"/>
       <c r="BU24" s="6"/>
-      <c r="CA24" s="6"/>
+      <c r="BV24" s="6"/>
       <c r="CB24" s="6"/>
-      <c r="CH24" s="6"/>
+      <c r="CC24" s="6"/>
       <c r="CI24" s="6"/>
-      <c r="CO24" s="6"/>
+      <c r="CJ24" s="6"/>
       <c r="CP24" s="6"/>
-      <c r="CV24" s="6"/>
+      <c r="CQ24" s="6"/>
       <c r="CW24" s="6"/>
-      <c r="DC24" s="6"/>
+      <c r="CX24" s="6"/>
       <c r="DD24" s="6"/>
-      <c r="DJ24" s="6"/>
+      <c r="DE24" s="6"/>
       <c r="DK24" s="6"/>
-      <c r="DQ24" s="6"/>
+      <c r="DL24" s="6"/>
       <c r="DR24" s="6"/>
-      <c r="DX24" s="6"/>
+      <c r="DS24" s="6"/>
       <c r="DY24" s="6"/>
-      <c r="EE24" s="6"/>
+      <c r="DZ24" s="6"/>
       <c r="EF24" s="6"/>
+      <c r="EG24" s="6"/>
     </row>
-    <row r="25" spans="1:136" outlineLevel="5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:137" outlineLevel="5" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>24</v>
       </c>
       <c r="B25" s="17" t="s">
+        <v>118</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="G25" s="1" t="s">
         <v>117</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="G25" s="1" t="s">
-        <v>116</v>
       </c>
       <c r="H25" s="1">
         <v>23</v>
       </c>
-      <c r="I25" s="6"/>
+      <c r="I25" s="1">
+        <v>0</v>
+      </c>
       <c r="J25" s="6"/>
-      <c r="P25" s="6"/>
+      <c r="K25" s="6"/>
       <c r="Q25" s="6"/>
-      <c r="W25" s="6"/>
+      <c r="R25" s="6"/>
       <c r="X25" s="6"/>
-      <c r="AD25" s="6"/>
+      <c r="Y25" s="6"/>
       <c r="AE25" s="6"/>
-      <c r="AK25" s="6"/>
+      <c r="AF25" s="6"/>
       <c r="AL25" s="6"/>
-      <c r="AR25" s="6"/>
+      <c r="AM25" s="6"/>
       <c r="AS25" s="6"/>
-      <c r="AY25" s="6"/>
+      <c r="AT25" s="6"/>
       <c r="AZ25" s="6"/>
-      <c r="BF25" s="6"/>
+      <c r="BA25" s="6"/>
       <c r="BG25" s="6"/>
-      <c r="BM25" s="6"/>
+      <c r="BH25" s="6"/>
       <c r="BN25" s="6"/>
-      <c r="BR25" s="35"/>
-      <c r="BS25" s="36"/>
+      <c r="BO25" s="6"/>
+      <c r="BS25" s="35"/>
       <c r="BT25" s="36"/>
       <c r="BU25" s="36"/>
-      <c r="BV25" s="37"/>
-      <c r="CA25" s="6"/>
+      <c r="BV25" s="36"/>
+      <c r="BW25" s="37"/>
       <c r="CB25" s="6"/>
-      <c r="CH25" s="6"/>
+      <c r="CC25" s="6"/>
       <c r="CI25" s="6"/>
-      <c r="CO25" s="6"/>
+      <c r="CJ25" s="6"/>
       <c r="CP25" s="6"/>
-      <c r="CV25" s="6"/>
+      <c r="CQ25" s="6"/>
       <c r="CW25" s="6"/>
-      <c r="DC25" s="6"/>
+      <c r="CX25" s="6"/>
       <c r="DD25" s="6"/>
-      <c r="DJ25" s="6"/>
+      <c r="DE25" s="6"/>
       <c r="DK25" s="6"/>
-      <c r="DQ25" s="6"/>
+      <c r="DL25" s="6"/>
       <c r="DR25" s="6"/>
-      <c r="DX25" s="6"/>
+      <c r="DS25" s="6"/>
       <c r="DY25" s="6"/>
-      <c r="EE25" s="6"/>
+      <c r="DZ25" s="6"/>
       <c r="EF25" s="6"/>
+      <c r="EG25" s="6"/>
     </row>
-    <row r="26" spans="1:136" outlineLevel="4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:137" outlineLevel="4" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
         <v>25</v>
       </c>
       <c r="B26" s="18" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="G26" s="2"/>
       <c r="H26" s="2"/>
-      <c r="I26" s="6"/>
+      <c r="I26" s="2">
+        <v>0</v>
+      </c>
       <c r="J26" s="6"/>
-      <c r="P26" s="6"/>
+      <c r="K26" s="6"/>
       <c r="Q26" s="6"/>
-      <c r="W26" s="6"/>
+      <c r="R26" s="6"/>
       <c r="X26" s="6"/>
-      <c r="AD26" s="6"/>
+      <c r="Y26" s="6"/>
       <c r="AE26" s="6"/>
-      <c r="AK26" s="6"/>
+      <c r="AF26" s="6"/>
       <c r="AL26" s="6"/>
-      <c r="AR26" s="6"/>
+      <c r="AM26" s="6"/>
       <c r="AS26" s="6"/>
-      <c r="AY26" s="6"/>
+      <c r="AT26" s="6"/>
       <c r="AZ26" s="6"/>
-      <c r="BF26" s="6"/>
+      <c r="BA26" s="6"/>
       <c r="BG26" s="6"/>
-      <c r="BM26" s="6"/>
+      <c r="BH26" s="6"/>
       <c r="BN26" s="6"/>
-      <c r="BT26" s="6"/>
+      <c r="BO26" s="6"/>
       <c r="BU26" s="6"/>
-      <c r="BW26" s="38"/>
-      <c r="BX26" s="39"/>
+      <c r="BV26" s="6"/>
+      <c r="BX26" s="38"/>
       <c r="BY26" s="39"/>
       <c r="BZ26" s="39"/>
       <c r="CA26" s="39"/>
@@ -3850,199 +3920,208 @@
       <c r="CC26" s="39"/>
       <c r="CD26" s="39"/>
       <c r="CE26" s="39"/>
-      <c r="CF26" s="36"/>
-      <c r="CG26" s="37"/>
-      <c r="CH26" s="6"/>
+      <c r="CF26" s="39"/>
+      <c r="CG26" s="36"/>
+      <c r="CH26" s="37"/>
       <c r="CI26" s="6"/>
-      <c r="CO26" s="6"/>
+      <c r="CJ26" s="6"/>
       <c r="CP26" s="6"/>
-      <c r="CV26" s="6"/>
+      <c r="CQ26" s="6"/>
       <c r="CW26" s="6"/>
-      <c r="DC26" s="6"/>
+      <c r="CX26" s="6"/>
       <c r="DD26" s="6"/>
-      <c r="DJ26" s="6"/>
+      <c r="DE26" s="6"/>
       <c r="DK26" s="6"/>
-      <c r="DQ26" s="6"/>
+      <c r="DL26" s="6"/>
       <c r="DR26" s="6"/>
-      <c r="DX26" s="6"/>
+      <c r="DS26" s="6"/>
       <c r="DY26" s="6"/>
-      <c r="EE26" s="6"/>
+      <c r="DZ26" s="6"/>
       <c r="EF26" s="6"/>
+      <c r="EG26" s="6"/>
     </row>
-    <row r="27" spans="1:136" outlineLevel="5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:137" outlineLevel="5" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>26</v>
       </c>
       <c r="B27" s="17" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H27" s="1">
         <v>24</v>
       </c>
-      <c r="I27" s="6"/>
+      <c r="I27" s="1">
+        <v>0</v>
+      </c>
       <c r="J27" s="6"/>
-      <c r="P27" s="6"/>
+      <c r="K27" s="6"/>
       <c r="Q27" s="6"/>
-      <c r="W27" s="6"/>
+      <c r="R27" s="6"/>
       <c r="X27" s="6"/>
-      <c r="AD27" s="6"/>
+      <c r="Y27" s="6"/>
       <c r="AE27" s="6"/>
-      <c r="AK27" s="6"/>
+      <c r="AF27" s="6"/>
       <c r="AL27" s="6"/>
-      <c r="AR27" s="6"/>
+      <c r="AM27" s="6"/>
       <c r="AS27" s="6"/>
-      <c r="AY27" s="6"/>
+      <c r="AT27" s="6"/>
       <c r="AZ27" s="6"/>
-      <c r="BF27" s="6"/>
+      <c r="BA27" s="6"/>
       <c r="BG27" s="6"/>
-      <c r="BM27" s="6"/>
+      <c r="BH27" s="6"/>
       <c r="BN27" s="6"/>
-      <c r="BT27" s="6"/>
+      <c r="BO27" s="6"/>
       <c r="BU27" s="6"/>
-      <c r="BW27" s="35"/>
-      <c r="BX27" s="36"/>
+      <c r="BV27" s="6"/>
+      <c r="BX27" s="35"/>
       <c r="BY27" s="36"/>
       <c r="BZ27" s="36"/>
       <c r="CA27" s="36"/>
       <c r="CB27" s="36"/>
       <c r="CC27" s="36"/>
       <c r="CD27" s="36"/>
-      <c r="CE27" s="37"/>
-      <c r="CH27" s="6"/>
+      <c r="CE27" s="36"/>
+      <c r="CF27" s="37"/>
       <c r="CI27" s="6"/>
-      <c r="CO27" s="6"/>
+      <c r="CJ27" s="6"/>
       <c r="CP27" s="6"/>
-      <c r="CV27" s="6"/>
+      <c r="CQ27" s="6"/>
       <c r="CW27" s="6"/>
-      <c r="DC27" s="6"/>
+      <c r="CX27" s="6"/>
       <c r="DD27" s="6"/>
-      <c r="DJ27" s="6"/>
+      <c r="DE27" s="6"/>
       <c r="DK27" s="6"/>
-      <c r="DQ27" s="6"/>
+      <c r="DL27" s="6"/>
       <c r="DR27" s="6"/>
-      <c r="DX27" s="6"/>
+      <c r="DS27" s="6"/>
       <c r="DY27" s="6"/>
-      <c r="EE27" s="6"/>
+      <c r="DZ27" s="6"/>
       <c r="EF27" s="6"/>
+      <c r="EG27" s="6"/>
     </row>
-    <row r="28" spans="1:136" outlineLevel="5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:137" outlineLevel="5" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>27</v>
       </c>
       <c r="B28" s="17" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H28" s="1">
         <v>26</v>
       </c>
-      <c r="I28" s="6"/>
+      <c r="I28" s="1">
+        <v>0</v>
+      </c>
       <c r="J28" s="6"/>
-      <c r="P28" s="6"/>
+      <c r="K28" s="6"/>
       <c r="Q28" s="6"/>
-      <c r="W28" s="6"/>
+      <c r="R28" s="6"/>
       <c r="X28" s="6"/>
-      <c r="AD28" s="6"/>
+      <c r="Y28" s="6"/>
       <c r="AE28" s="6"/>
-      <c r="AK28" s="6"/>
+      <c r="AF28" s="6"/>
       <c r="AL28" s="6"/>
-      <c r="AR28" s="6"/>
+      <c r="AM28" s="6"/>
       <c r="AS28" s="6"/>
-      <c r="AY28" s="6"/>
+      <c r="AT28" s="6"/>
       <c r="AZ28" s="6"/>
-      <c r="BF28" s="6"/>
+      <c r="BA28" s="6"/>
       <c r="BG28" s="6"/>
-      <c r="BM28" s="6"/>
+      <c r="BH28" s="6"/>
       <c r="BN28" s="6"/>
-      <c r="BT28" s="6"/>
+      <c r="BO28" s="6"/>
       <c r="BU28" s="6"/>
-      <c r="CA28" s="6"/>
+      <c r="BV28" s="6"/>
       <c r="CB28" s="6"/>
-      <c r="CF28" s="38"/>
-      <c r="CG28" s="40"/>
-      <c r="CH28" s="6"/>
+      <c r="CC28" s="6"/>
+      <c r="CG28" s="38"/>
+      <c r="CH28" s="40"/>
       <c r="CI28" s="6"/>
-      <c r="CO28" s="6"/>
+      <c r="CJ28" s="6"/>
       <c r="CP28" s="6"/>
-      <c r="CV28" s="6"/>
+      <c r="CQ28" s="6"/>
       <c r="CW28" s="6"/>
-      <c r="DC28" s="6"/>
+      <c r="CX28" s="6"/>
       <c r="DD28" s="6"/>
-      <c r="DJ28" s="6"/>
+      <c r="DE28" s="6"/>
       <c r="DK28" s="6"/>
-      <c r="DQ28" s="6"/>
+      <c r="DL28" s="6"/>
       <c r="DR28" s="6"/>
-      <c r="DX28" s="6"/>
+      <c r="DS28" s="6"/>
       <c r="DY28" s="6"/>
-      <c r="EE28" s="6"/>
+      <c r="DZ28" s="6"/>
       <c r="EF28" s="6"/>
+      <c r="EG28" s="6"/>
     </row>
-    <row r="29" spans="1:136" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:137" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
         <v>28</v>
       </c>
       <c r="B29" s="18" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G29" s="2"/>
       <c r="H29" s="2"/>
-      <c r="I29" s="6"/>
+      <c r="I29" s="2">
+        <v>0</v>
+      </c>
       <c r="J29" s="6"/>
-      <c r="P29" s="6"/>
+      <c r="K29" s="6"/>
       <c r="Q29" s="6"/>
-      <c r="W29" s="6"/>
+      <c r="R29" s="6"/>
       <c r="X29" s="6"/>
-      <c r="AD29" s="6"/>
+      <c r="Y29" s="6"/>
       <c r="AE29" s="6"/>
-      <c r="AK29" s="6"/>
+      <c r="AF29" s="6"/>
       <c r="AL29" s="6"/>
-      <c r="AR29" s="6"/>
+      <c r="AM29" s="6"/>
       <c r="AS29" s="6"/>
-      <c r="AY29" s="6"/>
+      <c r="AT29" s="6"/>
       <c r="AZ29" s="6"/>
-      <c r="BD29" s="38"/>
-      <c r="BE29" s="39"/>
+      <c r="BA29" s="6"/>
+      <c r="BE29" s="38"/>
       <c r="BF29" s="39"/>
       <c r="BG29" s="39"/>
       <c r="BH29" s="39"/>
@@ -4054,7 +4133,7 @@
       <c r="BN29" s="39"/>
       <c r="BO29" s="39"/>
       <c r="BP29" s="39"/>
-      <c r="BQ29" s="36"/>
+      <c r="BQ29" s="39"/>
       <c r="BR29" s="36"/>
       <c r="BS29" s="36"/>
       <c r="BT29" s="36"/>
@@ -4074,59 +4153,62 @@
       <c r="CH29" s="36"/>
       <c r="CI29" s="36"/>
       <c r="CJ29" s="36"/>
-      <c r="CK29" s="37"/>
-      <c r="CO29" s="6"/>
+      <c r="CK29" s="36"/>
+      <c r="CL29" s="37"/>
       <c r="CP29" s="6"/>
-      <c r="CV29" s="6"/>
+      <c r="CQ29" s="6"/>
       <c r="CW29" s="6"/>
-      <c r="DC29" s="6"/>
+      <c r="CX29" s="6"/>
       <c r="DD29" s="6"/>
-      <c r="DJ29" s="6"/>
+      <c r="DE29" s="6"/>
       <c r="DK29" s="6"/>
-      <c r="DQ29" s="6"/>
+      <c r="DL29" s="6"/>
       <c r="DR29" s="6"/>
-      <c r="DX29" s="6"/>
+      <c r="DS29" s="6"/>
       <c r="DY29" s="6"/>
-      <c r="EE29" s="6"/>
+      <c r="DZ29" s="6"/>
       <c r="EF29" s="6"/>
+      <c r="EG29" s="6"/>
     </row>
-    <row r="30" spans="1:136" outlineLevel="4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:137" outlineLevel="4" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
         <v>29</v>
       </c>
       <c r="B30" s="18" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="G30" s="2"/>
       <c r="H30" s="2"/>
-      <c r="I30" s="6"/>
+      <c r="I30" s="2">
+        <v>0</v>
+      </c>
       <c r="J30" s="6"/>
-      <c r="P30" s="6"/>
+      <c r="K30" s="6"/>
       <c r="Q30" s="6"/>
-      <c r="W30" s="6"/>
+      <c r="R30" s="6"/>
       <c r="X30" s="6"/>
-      <c r="AD30" s="6"/>
+      <c r="Y30" s="6"/>
       <c r="AE30" s="6"/>
-      <c r="AK30" s="6"/>
+      <c r="AF30" s="6"/>
       <c r="AL30" s="6"/>
-      <c r="AR30" s="6"/>
+      <c r="AM30" s="6"/>
       <c r="AS30" s="6"/>
-      <c r="AY30" s="6"/>
+      <c r="AT30" s="6"/>
       <c r="AZ30" s="6"/>
-      <c r="BD30" s="38"/>
-      <c r="BE30" s="39"/>
+      <c r="BA30" s="6"/>
+      <c r="BE30" s="38"/>
       <c r="BF30" s="39"/>
       <c r="BG30" s="39"/>
       <c r="BH30" s="39"/>
@@ -4137,69 +4219,72 @@
       <c r="BM30" s="39"/>
       <c r="BN30" s="39"/>
       <c r="BO30" s="39"/>
-      <c r="BP30" s="37"/>
-      <c r="BT30" s="6"/>
+      <c r="BP30" s="39"/>
+      <c r="BQ30" s="37"/>
       <c r="BU30" s="6"/>
-      <c r="CA30" s="6"/>
+      <c r="BV30" s="6"/>
       <c r="CB30" s="6"/>
-      <c r="CH30" s="6"/>
+      <c r="CC30" s="6"/>
       <c r="CI30" s="6"/>
-      <c r="CO30" s="6"/>
+      <c r="CJ30" s="6"/>
       <c r="CP30" s="6"/>
-      <c r="CV30" s="6"/>
+      <c r="CQ30" s="6"/>
       <c r="CW30" s="6"/>
-      <c r="DC30" s="6"/>
+      <c r="CX30" s="6"/>
       <c r="DD30" s="6"/>
-      <c r="DJ30" s="6"/>
+      <c r="DE30" s="6"/>
       <c r="DK30" s="6"/>
-      <c r="DQ30" s="6"/>
+      <c r="DL30" s="6"/>
       <c r="DR30" s="6"/>
-      <c r="DX30" s="6"/>
+      <c r="DS30" s="6"/>
       <c r="DY30" s="6"/>
-      <c r="EE30" s="6"/>
+      <c r="DZ30" s="6"/>
       <c r="EF30" s="6"/>
+      <c r="EG30" s="6"/>
     </row>
-    <row r="31" spans="1:136" outlineLevel="5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:137" outlineLevel="5" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>30</v>
       </c>
       <c r="B31" s="17" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="H31" s="1">
         <v>15</v>
       </c>
-      <c r="I31" s="6"/>
+      <c r="I31" s="1">
+        <v>0</v>
+      </c>
       <c r="J31" s="6"/>
-      <c r="P31" s="6"/>
+      <c r="K31" s="6"/>
       <c r="Q31" s="6"/>
-      <c r="W31" s="6"/>
+      <c r="R31" s="6"/>
       <c r="X31" s="6"/>
-      <c r="AD31" s="6"/>
+      <c r="Y31" s="6"/>
       <c r="AE31" s="6"/>
-      <c r="AK31" s="6"/>
+      <c r="AF31" s="6"/>
       <c r="AL31" s="6"/>
-      <c r="AR31" s="6"/>
+      <c r="AM31" s="6"/>
       <c r="AS31" s="6"/>
-      <c r="AY31" s="6"/>
+      <c r="AT31" s="6"/>
       <c r="AZ31" s="6"/>
-      <c r="BD31" s="35"/>
-      <c r="BE31" s="36"/>
+      <c r="BA31" s="6"/>
+      <c r="BE31" s="35"/>
       <c r="BF31" s="36"/>
       <c r="BG31" s="36"/>
       <c r="BH31" s="36"/>
@@ -4209,134 +4294,140 @@
       <c r="BL31" s="36"/>
       <c r="BM31" s="36"/>
       <c r="BN31" s="36"/>
-      <c r="BO31" s="37"/>
-      <c r="BT31" s="6"/>
+      <c r="BO31" s="36"/>
+      <c r="BP31" s="37"/>
       <c r="BU31" s="6"/>
-      <c r="CA31" s="6"/>
+      <c r="BV31" s="6"/>
       <c r="CB31" s="6"/>
-      <c r="CH31" s="6"/>
+      <c r="CC31" s="6"/>
       <c r="CI31" s="6"/>
-      <c r="CO31" s="6"/>
+      <c r="CJ31" s="6"/>
       <c r="CP31" s="6"/>
-      <c r="CV31" s="6"/>
+      <c r="CQ31" s="6"/>
       <c r="CW31" s="6"/>
-      <c r="DC31" s="6"/>
+      <c r="CX31" s="6"/>
       <c r="DD31" s="6"/>
-      <c r="DJ31" s="6"/>
+      <c r="DE31" s="6"/>
       <c r="DK31" s="6"/>
-      <c r="DQ31" s="6"/>
+      <c r="DL31" s="6"/>
       <c r="DR31" s="6"/>
-      <c r="DX31" s="6"/>
+      <c r="DS31" s="6"/>
       <c r="DY31" s="6"/>
-      <c r="EE31" s="6"/>
+      <c r="DZ31" s="6"/>
       <c r="EF31" s="6"/>
+      <c r="EG31" s="6"/>
     </row>
-    <row r="32" spans="1:136" outlineLevel="5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:137" outlineLevel="5" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>31</v>
       </c>
       <c r="B32" s="17" t="s">
+        <v>140</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G32" s="1" t="s">
         <v>139</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="F32" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="G32" s="1" t="s">
-        <v>138</v>
       </c>
       <c r="H32" s="1">
         <v>30</v>
       </c>
-      <c r="I32" s="6"/>
+      <c r="I32" s="1">
+        <v>0</v>
+      </c>
       <c r="J32" s="6"/>
-      <c r="P32" s="6"/>
+      <c r="K32" s="6"/>
       <c r="Q32" s="6"/>
-      <c r="W32" s="6"/>
+      <c r="R32" s="6"/>
       <c r="X32" s="6"/>
-      <c r="AD32" s="6"/>
+      <c r="Y32" s="6"/>
       <c r="AE32" s="6"/>
-      <c r="AK32" s="6"/>
+      <c r="AF32" s="6"/>
       <c r="AL32" s="6"/>
-      <c r="AR32" s="6"/>
+      <c r="AM32" s="6"/>
       <c r="AS32" s="6"/>
-      <c r="AY32" s="6"/>
+      <c r="AT32" s="6"/>
       <c r="AZ32" s="6"/>
-      <c r="BF32" s="6"/>
+      <c r="BA32" s="6"/>
       <c r="BG32" s="6"/>
-      <c r="BM32" s="6"/>
+      <c r="BH32" s="6"/>
       <c r="BN32" s="6"/>
-      <c r="BP32" s="41"/>
-      <c r="BT32" s="6"/>
+      <c r="BO32" s="6"/>
+      <c r="BQ32" s="41"/>
       <c r="BU32" s="6"/>
-      <c r="CA32" s="6"/>
+      <c r="BV32" s="6"/>
       <c r="CB32" s="6"/>
-      <c r="CH32" s="6"/>
+      <c r="CC32" s="6"/>
       <c r="CI32" s="6"/>
-      <c r="CO32" s="6"/>
+      <c r="CJ32" s="6"/>
       <c r="CP32" s="6"/>
-      <c r="CV32" s="6"/>
+      <c r="CQ32" s="6"/>
       <c r="CW32" s="6"/>
-      <c r="DC32" s="6"/>
+      <c r="CX32" s="6"/>
       <c r="DD32" s="6"/>
-      <c r="DJ32" s="6"/>
+      <c r="DE32" s="6"/>
       <c r="DK32" s="6"/>
-      <c r="DQ32" s="6"/>
+      <c r="DL32" s="6"/>
       <c r="DR32" s="6"/>
-      <c r="DX32" s="6"/>
+      <c r="DS32" s="6"/>
       <c r="DY32" s="6"/>
-      <c r="EE32" s="6"/>
+      <c r="DZ32" s="6"/>
       <c r="EF32" s="6"/>
+      <c r="EG32" s="6"/>
     </row>
-    <row r="33" spans="1:141" outlineLevel="4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:142" outlineLevel="4" x14ac:dyDescent="0.3">
       <c r="A33" s="2">
         <v>32</v>
       </c>
       <c r="B33" s="18" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="G33" s="2"/>
       <c r="H33" s="2"/>
-      <c r="I33" s="6"/>
+      <c r="I33" s="2">
+        <v>0</v>
+      </c>
       <c r="J33" s="6"/>
-      <c r="P33" s="6"/>
+      <c r="K33" s="6"/>
       <c r="Q33" s="6"/>
-      <c r="W33" s="6"/>
+      <c r="R33" s="6"/>
       <c r="X33" s="6"/>
-      <c r="AD33" s="6"/>
+      <c r="Y33" s="6"/>
       <c r="AE33" s="6"/>
-      <c r="AK33" s="6"/>
+      <c r="AF33" s="6"/>
       <c r="AL33" s="6"/>
-      <c r="AR33" s="6"/>
+      <c r="AM33" s="6"/>
       <c r="AS33" s="6"/>
-      <c r="AY33" s="6"/>
+      <c r="AT33" s="6"/>
       <c r="AZ33" s="6"/>
-      <c r="BF33" s="6"/>
+      <c r="BA33" s="6"/>
       <c r="BG33" s="6"/>
-      <c r="BM33" s="6"/>
+      <c r="BH33" s="6"/>
       <c r="BN33" s="6"/>
-      <c r="BQ33" s="38"/>
-      <c r="BR33" s="39"/>
+      <c r="BO33" s="6"/>
+      <c r="BR33" s="38"/>
       <c r="BS33" s="39"/>
       <c r="BT33" s="39"/>
       <c r="BU33" s="39"/>
@@ -4351,71 +4442,74 @@
       <c r="CD33" s="39"/>
       <c r="CE33" s="39"/>
       <c r="CF33" s="39"/>
-      <c r="CG33" s="36"/>
+      <c r="CG33" s="39"/>
       <c r="CH33" s="36"/>
       <c r="CI33" s="36"/>
       <c r="CJ33" s="36"/>
-      <c r="CK33" s="37"/>
-      <c r="CO33" s="6"/>
+      <c r="CK33" s="36"/>
+      <c r="CL33" s="37"/>
       <c r="CP33" s="6"/>
-      <c r="CV33" s="6"/>
+      <c r="CQ33" s="6"/>
       <c r="CW33" s="6"/>
-      <c r="DC33" s="6"/>
+      <c r="CX33" s="6"/>
       <c r="DD33" s="6"/>
-      <c r="DJ33" s="6"/>
+      <c r="DE33" s="6"/>
       <c r="DK33" s="6"/>
-      <c r="DQ33" s="6"/>
+      <c r="DL33" s="6"/>
       <c r="DR33" s="6"/>
-      <c r="DX33" s="6"/>
+      <c r="DS33" s="6"/>
       <c r="DY33" s="6"/>
-      <c r="EE33" s="6"/>
+      <c r="DZ33" s="6"/>
       <c r="EF33" s="6"/>
+      <c r="EG33" s="6"/>
     </row>
-    <row r="34" spans="1:141" outlineLevel="5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:142" outlineLevel="5" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>33</v>
       </c>
       <c r="B34" s="17" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="H34" s="1">
         <v>31</v>
       </c>
-      <c r="I34" s="6"/>
+      <c r="I34" s="1">
+        <v>0</v>
+      </c>
       <c r="J34" s="6"/>
-      <c r="P34" s="6"/>
+      <c r="K34" s="6"/>
       <c r="Q34" s="6"/>
-      <c r="W34" s="6"/>
+      <c r="R34" s="6"/>
       <c r="X34" s="6"/>
-      <c r="AD34" s="6"/>
+      <c r="Y34" s="6"/>
       <c r="AE34" s="6"/>
-      <c r="AK34" s="6"/>
+      <c r="AF34" s="6"/>
       <c r="AL34" s="6"/>
-      <c r="AR34" s="6"/>
+      <c r="AM34" s="6"/>
       <c r="AS34" s="6"/>
-      <c r="AY34" s="6"/>
+      <c r="AT34" s="6"/>
       <c r="AZ34" s="6"/>
-      <c r="BF34" s="6"/>
+      <c r="BA34" s="6"/>
       <c r="BG34" s="6"/>
-      <c r="BM34" s="6"/>
+      <c r="BH34" s="6"/>
       <c r="BN34" s="6"/>
-      <c r="BQ34" s="35"/>
-      <c r="BR34" s="36"/>
+      <c r="BO34" s="6"/>
+      <c r="BR34" s="35"/>
       <c r="BS34" s="36"/>
       <c r="BT34" s="36"/>
       <c r="BU34" s="36"/>
@@ -4429,209 +4523,218 @@
       <c r="CC34" s="36"/>
       <c r="CD34" s="36"/>
       <c r="CE34" s="36"/>
-      <c r="CF34" s="37"/>
-      <c r="CH34" s="6"/>
+      <c r="CF34" s="36"/>
+      <c r="CG34" s="37"/>
       <c r="CI34" s="6"/>
-      <c r="CO34" s="6"/>
+      <c r="CJ34" s="6"/>
       <c r="CP34" s="6"/>
-      <c r="CV34" s="6"/>
+      <c r="CQ34" s="6"/>
       <c r="CW34" s="6"/>
-      <c r="DC34" s="6"/>
+      <c r="CX34" s="6"/>
       <c r="DD34" s="6"/>
-      <c r="DJ34" s="6"/>
+      <c r="DE34" s="6"/>
       <c r="DK34" s="6"/>
-      <c r="DQ34" s="6"/>
+      <c r="DL34" s="6"/>
       <c r="DR34" s="6"/>
-      <c r="DX34" s="6"/>
+      <c r="DS34" s="6"/>
       <c r="DY34" s="6"/>
-      <c r="EE34" s="6"/>
+      <c r="DZ34" s="6"/>
       <c r="EF34" s="6"/>
+      <c r="EG34" s="6"/>
     </row>
-    <row r="35" spans="1:141" outlineLevel="5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:142" outlineLevel="5" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>34</v>
       </c>
       <c r="B35" s="17" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="H35" s="1">
         <v>33</v>
       </c>
-      <c r="I35" s="6"/>
+      <c r="I35" s="1">
+        <v>0</v>
+      </c>
       <c r="J35" s="6"/>
-      <c r="P35" s="6"/>
+      <c r="K35" s="6"/>
       <c r="Q35" s="6"/>
-      <c r="W35" s="6"/>
+      <c r="R35" s="6"/>
       <c r="X35" s="6"/>
-      <c r="AD35" s="6"/>
+      <c r="Y35" s="6"/>
       <c r="AE35" s="6"/>
-      <c r="AK35" s="6"/>
+      <c r="AF35" s="6"/>
       <c r="AL35" s="6"/>
-      <c r="AR35" s="6"/>
+      <c r="AM35" s="6"/>
       <c r="AS35" s="6"/>
-      <c r="AY35" s="6"/>
+      <c r="AT35" s="6"/>
       <c r="AZ35" s="6"/>
-      <c r="BF35" s="6"/>
+      <c r="BA35" s="6"/>
       <c r="BG35" s="6"/>
-      <c r="BM35" s="6"/>
+      <c r="BH35" s="6"/>
       <c r="BN35" s="6"/>
-      <c r="BT35" s="6"/>
+      <c r="BO35" s="6"/>
       <c r="BU35" s="6"/>
-      <c r="CA35" s="6"/>
+      <c r="BV35" s="6"/>
       <c r="CB35" s="6"/>
-      <c r="CG35" s="35"/>
-      <c r="CH35" s="36"/>
+      <c r="CC35" s="6"/>
+      <c r="CH35" s="35"/>
       <c r="CI35" s="36"/>
       <c r="CJ35" s="36"/>
-      <c r="CK35" s="37"/>
-      <c r="CO35" s="6"/>
+      <c r="CK35" s="36"/>
+      <c r="CL35" s="37"/>
       <c r="CP35" s="6"/>
-      <c r="CV35" s="6"/>
+      <c r="CQ35" s="6"/>
       <c r="CW35" s="6"/>
-      <c r="DC35" s="6"/>
+      <c r="CX35" s="6"/>
       <c r="DD35" s="6"/>
-      <c r="DJ35" s="6"/>
+      <c r="DE35" s="6"/>
       <c r="DK35" s="6"/>
-      <c r="DQ35" s="6"/>
+      <c r="DL35" s="6"/>
       <c r="DR35" s="6"/>
-      <c r="DX35" s="6"/>
+      <c r="DS35" s="6"/>
       <c r="DY35" s="6"/>
-      <c r="EE35" s="6"/>
+      <c r="DZ35" s="6"/>
       <c r="EF35" s="6"/>
+      <c r="EG35" s="6"/>
     </row>
-    <row r="36" spans="1:141" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:142" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>35</v>
       </c>
       <c r="B36" s="17" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G36" s="1"/>
       <c r="H36" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="I36" s="6"/>
+        <v>149</v>
+      </c>
+      <c r="I36" s="1">
+        <v>0</v>
+      </c>
       <c r="J36" s="6"/>
-      <c r="P36" s="6"/>
+      <c r="K36" s="6"/>
       <c r="Q36" s="6"/>
-      <c r="W36" s="6"/>
+      <c r="R36" s="6"/>
       <c r="X36" s="6"/>
-      <c r="AD36" s="6"/>
+      <c r="Y36" s="6"/>
       <c r="AE36" s="6"/>
-      <c r="AK36" s="6"/>
+      <c r="AF36" s="6"/>
       <c r="AL36" s="6"/>
-      <c r="AR36" s="6"/>
+      <c r="AM36" s="6"/>
       <c r="AS36" s="6"/>
-      <c r="AY36" s="6"/>
+      <c r="AT36" s="6"/>
       <c r="AZ36" s="6"/>
-      <c r="BF36" s="6"/>
+      <c r="BA36" s="6"/>
       <c r="BG36" s="6"/>
-      <c r="BM36" s="6"/>
+      <c r="BH36" s="6"/>
       <c r="BN36" s="6"/>
-      <c r="BT36" s="6"/>
+      <c r="BO36" s="6"/>
       <c r="BU36" s="6"/>
-      <c r="CA36" s="6"/>
+      <c r="BV36" s="6"/>
       <c r="CB36" s="6"/>
-      <c r="CH36" s="6"/>
+      <c r="CC36" s="6"/>
       <c r="CI36" s="6"/>
-      <c r="CK36" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="CO36" s="6"/>
+      <c r="CJ36" s="6"/>
+      <c r="CL36" s="3" t="s">
+        <v>42</v>
+      </c>
       <c r="CP36" s="6"/>
-      <c r="CV36" s="6"/>
+      <c r="CQ36" s="6"/>
       <c r="CW36" s="6"/>
-      <c r="DC36" s="6"/>
+      <c r="CX36" s="6"/>
       <c r="DD36" s="6"/>
-      <c r="DJ36" s="6"/>
+      <c r="DE36" s="6"/>
       <c r="DK36" s="6"/>
-      <c r="DQ36" s="6"/>
+      <c r="DL36" s="6"/>
       <c r="DR36" s="6"/>
-      <c r="DX36" s="6"/>
+      <c r="DS36" s="6"/>
       <c r="DY36" s="6"/>
-      <c r="EE36" s="6"/>
+      <c r="DZ36" s="6"/>
       <c r="EF36" s="6"/>
+      <c r="EG36" s="6"/>
     </row>
-    <row r="37" spans="1:141" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:142" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A37" s="2">
         <v>37</v>
       </c>
       <c r="B37" s="18" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="G37" s="2"/>
       <c r="H37" s="2"/>
-      <c r="I37" s="6"/>
+      <c r="I37" s="2">
+        <v>0</v>
+      </c>
       <c r="J37" s="6"/>
-      <c r="P37" s="6"/>
+      <c r="K37" s="6"/>
       <c r="Q37" s="6"/>
-      <c r="W37" s="6"/>
+      <c r="R37" s="6"/>
       <c r="X37" s="6"/>
-      <c r="AD37" s="6"/>
+      <c r="Y37" s="6"/>
       <c r="AE37" s="6"/>
-      <c r="AK37" s="6"/>
+      <c r="AF37" s="6"/>
       <c r="AL37" s="6"/>
-      <c r="AR37" s="6"/>
+      <c r="AM37" s="6"/>
       <c r="AS37" s="6"/>
-      <c r="AY37" s="6"/>
+      <c r="AT37" s="6"/>
       <c r="AZ37" s="6"/>
-      <c r="BF37" s="6"/>
+      <c r="BA37" s="6"/>
       <c r="BG37" s="6"/>
-      <c r="BM37" s="6"/>
+      <c r="BH37" s="6"/>
       <c r="BN37" s="6"/>
-      <c r="BT37" s="6"/>
+      <c r="BO37" s="6"/>
       <c r="BU37" s="6"/>
-      <c r="CA37" s="6"/>
+      <c r="BV37" s="6"/>
       <c r="CB37" s="6"/>
-      <c r="CH37" s="6"/>
+      <c r="CC37" s="6"/>
       <c r="CI37" s="6"/>
-      <c r="CL37" s="25"/>
-      <c r="CM37" s="30"/>
+      <c r="CJ37" s="6"/>
+      <c r="CM37" s="25"/>
       <c r="CN37" s="30"/>
       <c r="CO37" s="30"/>
       <c r="CP37" s="30"/>
       <c r="CQ37" s="30"/>
       <c r="CR37" s="30"/>
-      <c r="CS37" s="23"/>
+      <c r="CS37" s="30"/>
       <c r="CT37" s="23"/>
       <c r="CU37" s="23"/>
       <c r="CV37" s="23"/>
@@ -4665,345 +4768,360 @@
       <c r="DX37" s="23"/>
       <c r="DY37" s="23"/>
       <c r="DZ37" s="23"/>
-      <c r="EA37" s="24"/>
-      <c r="EE37" s="6"/>
+      <c r="EA37" s="23"/>
+      <c r="EB37" s="24"/>
       <c r="EF37" s="6"/>
+      <c r="EG37" s="6"/>
     </row>
-    <row r="38" spans="1:141" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:142" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>38</v>
       </c>
       <c r="B38" s="17" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="H38" s="1">
         <v>35</v>
       </c>
-      <c r="I38" s="6"/>
+      <c r="I38" s="1">
+        <v>0</v>
+      </c>
       <c r="J38" s="6"/>
-      <c r="P38" s="6"/>
+      <c r="K38" s="6"/>
       <c r="Q38" s="6"/>
-      <c r="W38" s="6"/>
+      <c r="R38" s="6"/>
       <c r="X38" s="6"/>
-      <c r="AD38" s="6"/>
+      <c r="Y38" s="6"/>
       <c r="AE38" s="6"/>
-      <c r="AK38" s="6"/>
+      <c r="AF38" s="6"/>
       <c r="AL38" s="6"/>
-      <c r="AR38" s="6"/>
+      <c r="AM38" s="6"/>
       <c r="AS38" s="6"/>
-      <c r="AY38" s="6"/>
+      <c r="AT38" s="6"/>
       <c r="AZ38" s="6"/>
-      <c r="BF38" s="6"/>
+      <c r="BA38" s="6"/>
       <c r="BG38" s="6"/>
-      <c r="BM38" s="6"/>
+      <c r="BH38" s="6"/>
       <c r="BN38" s="6"/>
-      <c r="BT38" s="6"/>
+      <c r="BO38" s="6"/>
       <c r="BU38" s="6"/>
-      <c r="CA38" s="6"/>
+      <c r="BV38" s="6"/>
       <c r="CB38" s="6"/>
-      <c r="CH38" s="6"/>
+      <c r="CC38" s="6"/>
       <c r="CI38" s="6"/>
-      <c r="CL38" s="31"/>
-      <c r="CM38" s="32"/>
+      <c r="CJ38" s="6"/>
+      <c r="CM38" s="31"/>
       <c r="CN38" s="32"/>
       <c r="CO38" s="32"/>
       <c r="CP38" s="32"/>
       <c r="CQ38" s="32"/>
-      <c r="CR38" s="33"/>
-      <c r="CV38" s="6"/>
+      <c r="CR38" s="32"/>
+      <c r="CS38" s="33"/>
       <c r="CW38" s="6"/>
-      <c r="DC38" s="6"/>
+      <c r="CX38" s="6"/>
       <c r="DD38" s="6"/>
-      <c r="DJ38" s="6"/>
+      <c r="DE38" s="6"/>
       <c r="DK38" s="6"/>
-      <c r="DQ38" s="6"/>
+      <c r="DL38" s="6"/>
       <c r="DR38" s="6"/>
-      <c r="DX38" s="6"/>
+      <c r="DS38" s="6"/>
       <c r="DY38" s="6"/>
-      <c r="EE38" s="6"/>
+      <c r="DZ38" s="6"/>
       <c r="EF38" s="6"/>
+      <c r="EG38" s="6"/>
     </row>
-    <row r="39" spans="1:141" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:142" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>39</v>
       </c>
       <c r="B39" s="17" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="H39" s="1">
         <v>35</v>
       </c>
-      <c r="I39" s="6"/>
+      <c r="I39" s="1">
+        <v>0</v>
+      </c>
       <c r="J39" s="6"/>
-      <c r="P39" s="6"/>
+      <c r="K39" s="6"/>
       <c r="Q39" s="6"/>
-      <c r="W39" s="6"/>
+      <c r="R39" s="6"/>
       <c r="X39" s="6"/>
-      <c r="AD39" s="6"/>
+      <c r="Y39" s="6"/>
       <c r="AE39" s="6"/>
-      <c r="AK39" s="6"/>
+      <c r="AF39" s="6"/>
       <c r="AL39" s="6"/>
-      <c r="AR39" s="6"/>
+      <c r="AM39" s="6"/>
       <c r="AS39" s="6"/>
-      <c r="AY39" s="6"/>
+      <c r="AT39" s="6"/>
       <c r="AZ39" s="6"/>
-      <c r="BF39" s="6"/>
+      <c r="BA39" s="6"/>
       <c r="BG39" s="6"/>
-      <c r="BM39" s="6"/>
+      <c r="BH39" s="6"/>
       <c r="BN39" s="6"/>
-      <c r="BT39" s="6"/>
+      <c r="BO39" s="6"/>
       <c r="BU39" s="6"/>
-      <c r="CA39" s="6"/>
+      <c r="BV39" s="6"/>
       <c r="CB39" s="6"/>
-      <c r="CH39" s="6"/>
+      <c r="CC39" s="6"/>
       <c r="CI39" s="6"/>
-      <c r="CL39" s="27"/>
-      <c r="CM39" s="28"/>
+      <c r="CJ39" s="6"/>
+      <c r="CM39" s="27"/>
       <c r="CN39" s="28"/>
       <c r="CO39" s="28"/>
       <c r="CP39" s="28"/>
       <c r="CQ39" s="28"/>
-      <c r="CR39" s="29"/>
-      <c r="CV39" s="6"/>
+      <c r="CR39" s="28"/>
+      <c r="CS39" s="29"/>
       <c r="CW39" s="6"/>
-      <c r="DC39" s="6"/>
+      <c r="CX39" s="6"/>
       <c r="DD39" s="6"/>
-      <c r="DJ39" s="6"/>
+      <c r="DE39" s="6"/>
       <c r="DK39" s="6"/>
-      <c r="DQ39" s="6"/>
+      <c r="DL39" s="6"/>
       <c r="DR39" s="6"/>
-      <c r="DX39" s="6"/>
+      <c r="DS39" s="6"/>
       <c r="DY39" s="6"/>
-      <c r="EE39" s="6"/>
+      <c r="DZ39" s="6"/>
       <c r="EF39" s="6"/>
+      <c r="EG39" s="6"/>
     </row>
-    <row r="40" spans="1:141" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:142" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>40</v>
       </c>
       <c r="B40" s="17" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="I40" s="6"/>
+        <v>167</v>
+      </c>
+      <c r="I40" s="1">
+        <v>0</v>
+      </c>
       <c r="J40" s="6"/>
-      <c r="P40" s="6"/>
+      <c r="K40" s="6"/>
       <c r="Q40" s="6"/>
-      <c r="W40" s="6"/>
+      <c r="R40" s="6"/>
       <c r="X40" s="6"/>
-      <c r="AD40" s="6"/>
+      <c r="Y40" s="6"/>
       <c r="AE40" s="6"/>
-      <c r="AK40" s="6"/>
+      <c r="AF40" s="6"/>
       <c r="AL40" s="6"/>
-      <c r="AR40" s="6"/>
+      <c r="AM40" s="6"/>
       <c r="AS40" s="6"/>
-      <c r="AY40" s="6"/>
+      <c r="AT40" s="6"/>
       <c r="AZ40" s="6"/>
-      <c r="BF40" s="6"/>
+      <c r="BA40" s="6"/>
       <c r="BG40" s="6"/>
-      <c r="BM40" s="6"/>
+      <c r="BH40" s="6"/>
       <c r="BN40" s="6"/>
-      <c r="BT40" s="6"/>
+      <c r="BO40" s="6"/>
       <c r="BU40" s="6"/>
-      <c r="CA40" s="6"/>
+      <c r="BV40" s="6"/>
       <c r="CB40" s="6"/>
-      <c r="CH40" s="6"/>
+      <c r="CC40" s="6"/>
       <c r="CI40" s="6"/>
-      <c r="CO40" s="6"/>
+      <c r="CJ40" s="6"/>
       <c r="CP40" s="6"/>
-      <c r="CS40" s="27"/>
-      <c r="CT40" s="28"/>
+      <c r="CQ40" s="6"/>
+      <c r="CT40" s="27"/>
       <c r="CU40" s="28"/>
       <c r="CV40" s="28"/>
       <c r="CW40" s="28"/>
       <c r="CX40" s="28"/>
       <c r="CY40" s="28"/>
       <c r="CZ40" s="28"/>
-      <c r="DA40" s="29"/>
-      <c r="DC40" s="6"/>
+      <c r="DA40" s="28"/>
+      <c r="DB40" s="29"/>
       <c r="DD40" s="6"/>
-      <c r="DJ40" s="6"/>
+      <c r="DE40" s="6"/>
       <c r="DK40" s="6"/>
-      <c r="DQ40" s="6"/>
+      <c r="DL40" s="6"/>
       <c r="DR40" s="6"/>
-      <c r="DX40" s="6"/>
+      <c r="DS40" s="6"/>
       <c r="DY40" s="6"/>
-      <c r="EE40" s="6"/>
+      <c r="DZ40" s="6"/>
       <c r="EF40" s="6"/>
+      <c r="EG40" s="6"/>
     </row>
-    <row r="41" spans="1:141" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:142" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>41</v>
       </c>
       <c r="B41" s="17" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="H41" s="1">
         <v>40</v>
       </c>
-      <c r="I41" s="6"/>
+      <c r="I41" s="1">
+        <v>0</v>
+      </c>
       <c r="J41" s="6"/>
-      <c r="P41" s="6"/>
+      <c r="K41" s="6"/>
       <c r="Q41" s="6"/>
-      <c r="W41" s="6"/>
+      <c r="R41" s="6"/>
       <c r="X41" s="6"/>
-      <c r="AD41" s="6"/>
+      <c r="Y41" s="6"/>
       <c r="AE41" s="6"/>
-      <c r="AK41" s="6"/>
+      <c r="AF41" s="6"/>
       <c r="AL41" s="6"/>
-      <c r="AR41" s="6"/>
+      <c r="AM41" s="6"/>
       <c r="AS41" s="6"/>
-      <c r="AY41" s="6"/>
+      <c r="AT41" s="6"/>
       <c r="AZ41" s="6"/>
-      <c r="BF41" s="6"/>
+      <c r="BA41" s="6"/>
       <c r="BG41" s="6"/>
-      <c r="BM41" s="6"/>
+      <c r="BH41" s="6"/>
       <c r="BN41" s="6"/>
-      <c r="BT41" s="6"/>
+      <c r="BO41" s="6"/>
       <c r="BU41" s="6"/>
-      <c r="CA41" s="6"/>
+      <c r="BV41" s="6"/>
       <c r="CB41" s="6"/>
-      <c r="CH41" s="6"/>
+      <c r="CC41" s="6"/>
       <c r="CI41" s="6"/>
-      <c r="CO41" s="6"/>
+      <c r="CJ41" s="6"/>
       <c r="CP41" s="6"/>
-      <c r="CV41" s="6"/>
+      <c r="CQ41" s="6"/>
       <c r="CW41" s="6"/>
-      <c r="DB41" s="27"/>
-      <c r="DC41" s="28"/>
+      <c r="CX41" s="6"/>
+      <c r="DC41" s="27"/>
       <c r="DD41" s="28"/>
       <c r="DE41" s="28"/>
       <c r="DF41" s="28"/>
       <c r="DG41" s="28"/>
-      <c r="DH41" s="29"/>
-      <c r="DJ41" s="6"/>
+      <c r="DH41" s="28"/>
+      <c r="DI41" s="29"/>
       <c r="DK41" s="6"/>
-      <c r="DQ41" s="6"/>
+      <c r="DL41" s="6"/>
       <c r="DR41" s="6"/>
-      <c r="DX41" s="6"/>
+      <c r="DS41" s="6"/>
       <c r="DY41" s="6"/>
-      <c r="EE41" s="6"/>
+      <c r="DZ41" s="6"/>
       <c r="EF41" s="6"/>
+      <c r="EG41" s="6"/>
     </row>
-    <row r="42" spans="1:141" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:142" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>42</v>
       </c>
       <c r="B42" s="17" t="s">
+        <v>173</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="G42" s="1" t="s">
         <v>172</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="E42" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="F42" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="G42" s="1" t="s">
-        <v>171</v>
       </c>
       <c r="H42" s="1">
         <v>41</v>
       </c>
-      <c r="I42" s="6"/>
+      <c r="I42" s="1">
+        <v>0</v>
+      </c>
       <c r="J42" s="6"/>
-      <c r="P42" s="6"/>
+      <c r="K42" s="6"/>
       <c r="Q42" s="6"/>
-      <c r="W42" s="6"/>
+      <c r="R42" s="6"/>
       <c r="X42" s="6"/>
-      <c r="AD42" s="6"/>
+      <c r="Y42" s="6"/>
       <c r="AE42" s="6"/>
-      <c r="AK42" s="6"/>
+      <c r="AF42" s="6"/>
       <c r="AL42" s="6"/>
-      <c r="AR42" s="6"/>
+      <c r="AM42" s="6"/>
       <c r="AS42" s="6"/>
-      <c r="AY42" s="6"/>
+      <c r="AT42" s="6"/>
       <c r="AZ42" s="6"/>
-      <c r="BF42" s="6"/>
+      <c r="BA42" s="6"/>
       <c r="BG42" s="6"/>
-      <c r="BM42" s="6"/>
+      <c r="BH42" s="6"/>
       <c r="BN42" s="6"/>
-      <c r="BT42" s="6"/>
+      <c r="BO42" s="6"/>
       <c r="BU42" s="6"/>
-      <c r="CA42" s="6"/>
+      <c r="BV42" s="6"/>
       <c r="CB42" s="6"/>
-      <c r="CH42" s="6"/>
+      <c r="CC42" s="6"/>
       <c r="CI42" s="6"/>
-      <c r="CO42" s="6"/>
+      <c r="CJ42" s="6"/>
       <c r="CP42" s="6"/>
-      <c r="CV42" s="6"/>
+      <c r="CQ42" s="6"/>
       <c r="CW42" s="6"/>
-      <c r="DC42" s="6"/>
+      <c r="CX42" s="6"/>
       <c r="DD42" s="6"/>
-      <c r="DI42" s="27"/>
-      <c r="DJ42" s="28"/>
+      <c r="DE42" s="6"/>
+      <c r="DJ42" s="27"/>
       <c r="DK42" s="28"/>
       <c r="DL42" s="28"/>
       <c r="DM42" s="28"/>
@@ -5012,709 +5130,741 @@
       <c r="DP42" s="28"/>
       <c r="DQ42" s="28"/>
       <c r="DR42" s="28"/>
-      <c r="DS42" s="29"/>
-      <c r="DX42" s="6"/>
+      <c r="DS42" s="28"/>
+      <c r="DT42" s="29"/>
       <c r="DY42" s="6"/>
-      <c r="EE42" s="6"/>
+      <c r="DZ42" s="6"/>
       <c r="EF42" s="6"/>
+      <c r="EG42" s="6"/>
     </row>
-    <row r="43" spans="1:141" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:142" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A43" s="2">
         <v>43</v>
       </c>
       <c r="B43" s="18" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="H43" s="2"/>
-      <c r="I43" s="6"/>
+      <c r="I43" s="2">
+        <v>0</v>
+      </c>
       <c r="J43" s="6"/>
-      <c r="P43" s="6"/>
+      <c r="K43" s="6"/>
       <c r="Q43" s="6"/>
-      <c r="W43" s="6"/>
+      <c r="R43" s="6"/>
       <c r="X43" s="6"/>
-      <c r="AD43" s="6"/>
+      <c r="Y43" s="6"/>
       <c r="AE43" s="6"/>
-      <c r="AK43" s="6"/>
+      <c r="AF43" s="6"/>
       <c r="AL43" s="6"/>
-      <c r="AR43" s="6"/>
+      <c r="AM43" s="6"/>
       <c r="AS43" s="6"/>
-      <c r="AY43" s="6"/>
+      <c r="AT43" s="6"/>
       <c r="AZ43" s="6"/>
-      <c r="BF43" s="6"/>
+      <c r="BA43" s="6"/>
       <c r="BG43" s="6"/>
-      <c r="BM43" s="6"/>
+      <c r="BH43" s="6"/>
       <c r="BN43" s="6"/>
-      <c r="BT43" s="6"/>
+      <c r="BO43" s="6"/>
       <c r="BU43" s="6"/>
-      <c r="CA43" s="6"/>
+      <c r="BV43" s="6"/>
       <c r="CB43" s="6"/>
-      <c r="CH43" s="6"/>
+      <c r="CC43" s="6"/>
       <c r="CI43" s="6"/>
-      <c r="CO43" s="6"/>
+      <c r="CJ43" s="6"/>
       <c r="CP43" s="6"/>
-      <c r="CV43" s="6"/>
+      <c r="CQ43" s="6"/>
       <c r="CW43" s="6"/>
-      <c r="DC43" s="6"/>
+      <c r="CX43" s="6"/>
       <c r="DD43" s="6"/>
-      <c r="DJ43" s="6"/>
+      <c r="DE43" s="6"/>
       <c r="DK43" s="6"/>
-      <c r="DQ43" s="6"/>
+      <c r="DL43" s="6"/>
       <c r="DR43" s="6"/>
-      <c r="DT43" s="31"/>
-      <c r="DU43" s="32"/>
+      <c r="DS43" s="6"/>
+      <c r="DU43" s="31"/>
       <c r="DV43" s="32"/>
-      <c r="DW43" s="28"/>
+      <c r="DW43" s="32"/>
       <c r="DX43" s="28"/>
       <c r="DY43" s="28"/>
       <c r="DZ43" s="28"/>
-      <c r="EA43" s="29"/>
-      <c r="EE43" s="6"/>
+      <c r="EA43" s="28"/>
+      <c r="EB43" s="29"/>
       <c r="EF43" s="6"/>
+      <c r="EG43" s="6"/>
     </row>
-    <row r="44" spans="1:141" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:142" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>44</v>
       </c>
       <c r="B44" s="17" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="I44" s="6"/>
+        <v>184</v>
+      </c>
+      <c r="I44" s="1">
+        <v>0</v>
+      </c>
       <c r="J44" s="6"/>
-      <c r="P44" s="6"/>
+      <c r="K44" s="6"/>
       <c r="Q44" s="6"/>
-      <c r="W44" s="6"/>
+      <c r="R44" s="6"/>
       <c r="X44" s="6"/>
-      <c r="AD44" s="6"/>
+      <c r="Y44" s="6"/>
       <c r="AE44" s="6"/>
-      <c r="AK44" s="6"/>
+      <c r="AF44" s="6"/>
       <c r="AL44" s="6"/>
-      <c r="AR44" s="6"/>
+      <c r="AM44" s="6"/>
       <c r="AS44" s="6"/>
-      <c r="AY44" s="6"/>
+      <c r="AT44" s="6"/>
       <c r="AZ44" s="6"/>
-      <c r="BF44" s="6"/>
+      <c r="BA44" s="6"/>
       <c r="BG44" s="6"/>
-      <c r="BM44" s="6"/>
+      <c r="BH44" s="6"/>
       <c r="BN44" s="6"/>
-      <c r="BT44" s="6"/>
+      <c r="BO44" s="6"/>
       <c r="BU44" s="6"/>
-      <c r="CA44" s="6"/>
+      <c r="BV44" s="6"/>
       <c r="CB44" s="6"/>
-      <c r="CH44" s="6"/>
+      <c r="CC44" s="6"/>
       <c r="CI44" s="6"/>
-      <c r="CO44" s="6"/>
+      <c r="CJ44" s="6"/>
       <c r="CP44" s="6"/>
-      <c r="CV44" s="6"/>
+      <c r="CQ44" s="6"/>
       <c r="CW44" s="6"/>
-      <c r="DC44" s="6"/>
+      <c r="CX44" s="6"/>
       <c r="DD44" s="6"/>
-      <c r="DJ44" s="6"/>
+      <c r="DE44" s="6"/>
       <c r="DK44" s="6"/>
-      <c r="DQ44" s="6"/>
+      <c r="DL44" s="6"/>
       <c r="DR44" s="6"/>
-      <c r="DT44" s="38"/>
-      <c r="DU44" s="39"/>
-      <c r="DV44" s="37"/>
-      <c r="DX44" s="6"/>
+      <c r="DS44" s="6"/>
+      <c r="DU44" s="38"/>
+      <c r="DV44" s="39"/>
+      <c r="DW44" s="37"/>
       <c r="DY44" s="6"/>
-      <c r="EE44" s="6"/>
+      <c r="DZ44" s="6"/>
       <c r="EF44" s="6"/>
+      <c r="EG44" s="6"/>
     </row>
-    <row r="45" spans="1:141" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:142" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>45</v>
       </c>
       <c r="B45" s="17" t="s">
+        <v>185</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="H45" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="C45" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="E45" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="F45" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="G45" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="H45" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="I45" s="6"/>
+      <c r="I45" s="1">
+        <v>0</v>
+      </c>
       <c r="J45" s="6"/>
-      <c r="P45" s="6"/>
+      <c r="K45" s="6"/>
       <c r="Q45" s="6"/>
-      <c r="W45" s="6"/>
+      <c r="R45" s="6"/>
       <c r="X45" s="6"/>
-      <c r="AD45" s="6"/>
+      <c r="Y45" s="6"/>
       <c r="AE45" s="6"/>
-      <c r="AK45" s="6"/>
+      <c r="AF45" s="6"/>
       <c r="AL45" s="6"/>
-      <c r="AR45" s="6"/>
+      <c r="AM45" s="6"/>
       <c r="AS45" s="6"/>
-      <c r="AY45" s="6"/>
+      <c r="AT45" s="6"/>
       <c r="AZ45" s="6"/>
-      <c r="BF45" s="6"/>
+      <c r="BA45" s="6"/>
       <c r="BG45" s="6"/>
-      <c r="BM45" s="6"/>
+      <c r="BH45" s="6"/>
       <c r="BN45" s="6"/>
-      <c r="BT45" s="6"/>
+      <c r="BO45" s="6"/>
       <c r="BU45" s="6"/>
-      <c r="CA45" s="6"/>
+      <c r="BV45" s="6"/>
       <c r="CB45" s="6"/>
-      <c r="CH45" s="6"/>
+      <c r="CC45" s="6"/>
       <c r="CI45" s="6"/>
-      <c r="CO45" s="6"/>
+      <c r="CJ45" s="6"/>
       <c r="CP45" s="6"/>
-      <c r="CV45" s="6"/>
+      <c r="CQ45" s="6"/>
       <c r="CW45" s="6"/>
-      <c r="DC45" s="6"/>
+      <c r="CX45" s="6"/>
       <c r="DD45" s="6"/>
-      <c r="DJ45" s="6"/>
+      <c r="DE45" s="6"/>
       <c r="DK45" s="6"/>
-      <c r="DQ45" s="6"/>
+      <c r="DL45" s="6"/>
       <c r="DR45" s="6"/>
-      <c r="DT45" s="35"/>
-      <c r="DU45" s="37"/>
-      <c r="DX45" s="6"/>
+      <c r="DS45" s="6"/>
+      <c r="DU45" s="35"/>
+      <c r="DV45" s="37"/>
       <c r="DY45" s="6"/>
-      <c r="EE45" s="6"/>
+      <c r="DZ45" s="6"/>
       <c r="EF45" s="6"/>
+      <c r="EG45" s="6"/>
     </row>
-    <row r="46" spans="1:141" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:142" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>46</v>
       </c>
       <c r="B46" s="17" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="I46" s="6"/>
+        <v>191</v>
+      </c>
+      <c r="I46" s="1">
+        <v>0</v>
+      </c>
       <c r="J46" s="6"/>
-      <c r="P46" s="6"/>
+      <c r="K46" s="6"/>
       <c r="Q46" s="6"/>
-      <c r="W46" s="6"/>
+      <c r="R46" s="6"/>
       <c r="X46" s="6"/>
-      <c r="AD46" s="6"/>
+      <c r="Y46" s="6"/>
       <c r="AE46" s="6"/>
-      <c r="AK46" s="6"/>
+      <c r="AF46" s="6"/>
       <c r="AL46" s="6"/>
-      <c r="AR46" s="6"/>
+      <c r="AM46" s="6"/>
       <c r="AS46" s="6"/>
-      <c r="AY46" s="6"/>
+      <c r="AT46" s="6"/>
       <c r="AZ46" s="6"/>
-      <c r="BF46" s="6"/>
+      <c r="BA46" s="6"/>
       <c r="BG46" s="6"/>
-      <c r="BM46" s="6"/>
+      <c r="BH46" s="6"/>
       <c r="BN46" s="6"/>
-      <c r="BT46" s="6"/>
+      <c r="BO46" s="6"/>
       <c r="BU46" s="6"/>
-      <c r="CA46" s="6"/>
+      <c r="BV46" s="6"/>
       <c r="CB46" s="6"/>
-      <c r="CH46" s="6"/>
+      <c r="CC46" s="6"/>
       <c r="CI46" s="6"/>
-      <c r="CO46" s="6"/>
+      <c r="CJ46" s="6"/>
       <c r="CP46" s="6"/>
-      <c r="CV46" s="6"/>
+      <c r="CQ46" s="6"/>
       <c r="CW46" s="6"/>
-      <c r="DC46" s="6"/>
+      <c r="CX46" s="6"/>
       <c r="DD46" s="6"/>
-      <c r="DJ46" s="6"/>
+      <c r="DE46" s="6"/>
       <c r="DK46" s="6"/>
-      <c r="DQ46" s="6"/>
+      <c r="DL46" s="6"/>
       <c r="DR46" s="6"/>
-      <c r="DW46" s="35"/>
-      <c r="DX46" s="36"/>
+      <c r="DS46" s="6"/>
+      <c r="DX46" s="35"/>
       <c r="DY46" s="36"/>
       <c r="DZ46" s="36"/>
-      <c r="EA46" s="37"/>
-      <c r="EE46" s="6"/>
+      <c r="EA46" s="36"/>
+      <c r="EB46" s="37"/>
       <c r="EF46" s="6"/>
+      <c r="EG46" s="6"/>
     </row>
-    <row r="47" spans="1:141" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:142" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>47</v>
       </c>
       <c r="B47" s="17" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G47" s="1"/>
       <c r="H47" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="I47" s="6"/>
+        <v>194</v>
+      </c>
+      <c r="I47" s="1">
+        <v>0</v>
+      </c>
       <c r="J47" s="6"/>
-      <c r="P47" s="6"/>
+      <c r="K47" s="6"/>
       <c r="Q47" s="6"/>
-      <c r="W47" s="6"/>
+      <c r="R47" s="6"/>
       <c r="X47" s="6"/>
-      <c r="AD47" s="6"/>
+      <c r="Y47" s="6"/>
       <c r="AE47" s="6"/>
-      <c r="AK47" s="6"/>
+      <c r="AF47" s="6"/>
       <c r="AL47" s="6"/>
-      <c r="AR47" s="6"/>
+      <c r="AM47" s="6"/>
       <c r="AS47" s="6"/>
-      <c r="AY47" s="6"/>
+      <c r="AT47" s="6"/>
       <c r="AZ47" s="6"/>
-      <c r="BF47" s="6"/>
+      <c r="BA47" s="6"/>
       <c r="BG47" s="6"/>
-      <c r="BM47" s="6"/>
+      <c r="BH47" s="6"/>
       <c r="BN47" s="6"/>
-      <c r="BT47" s="6"/>
+      <c r="BO47" s="6"/>
       <c r="BU47" s="6"/>
-      <c r="CA47" s="6"/>
+      <c r="BV47" s="6"/>
       <c r="CB47" s="6"/>
-      <c r="CH47" s="6"/>
+      <c r="CC47" s="6"/>
       <c r="CI47" s="6"/>
-      <c r="CO47" s="6"/>
+      <c r="CJ47" s="6"/>
       <c r="CP47" s="6"/>
-      <c r="CV47" s="6"/>
+      <c r="CQ47" s="6"/>
       <c r="CW47" s="6"/>
-      <c r="DC47" s="6"/>
+      <c r="CX47" s="6"/>
       <c r="DD47" s="6"/>
-      <c r="DJ47" s="6"/>
+      <c r="DE47" s="6"/>
       <c r="DK47" s="6"/>
-      <c r="DQ47" s="6"/>
+      <c r="DL47" s="6"/>
       <c r="DR47" s="6"/>
-      <c r="DX47" s="6"/>
+      <c r="DS47" s="6"/>
       <c r="DY47" s="6"/>
-      <c r="EA47" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="EE47" s="6"/>
+      <c r="DZ47" s="6"/>
+      <c r="EB47" s="3" t="s">
+        <v>42</v>
+      </c>
       <c r="EF47" s="6"/>
+      <c r="EG47" s="6"/>
     </row>
-    <row r="48" spans="1:141" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:142" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A48" s="2">
         <v>49</v>
       </c>
       <c r="B48" s="18" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="G48" s="2"/>
       <c r="H48" s="2"/>
-      <c r="I48" s="6"/>
+      <c r="I48" s="2">
+        <v>0</v>
+      </c>
       <c r="J48" s="6"/>
-      <c r="P48" s="6"/>
+      <c r="K48" s="6"/>
       <c r="Q48" s="6"/>
-      <c r="W48" s="6"/>
+      <c r="R48" s="6"/>
       <c r="X48" s="6"/>
-      <c r="AD48" s="6"/>
+      <c r="Y48" s="6"/>
       <c r="AE48" s="6"/>
-      <c r="AK48" s="6"/>
+      <c r="AF48" s="6"/>
       <c r="AL48" s="6"/>
-      <c r="AR48" s="6"/>
+      <c r="AM48" s="6"/>
       <c r="AS48" s="6"/>
-      <c r="AY48" s="6"/>
+      <c r="AT48" s="6"/>
       <c r="AZ48" s="6"/>
-      <c r="BF48" s="6"/>
+      <c r="BA48" s="6"/>
       <c r="BG48" s="6"/>
-      <c r="BM48" s="6"/>
+      <c r="BH48" s="6"/>
       <c r="BN48" s="6"/>
-      <c r="BT48" s="6"/>
+      <c r="BO48" s="6"/>
       <c r="BU48" s="6"/>
-      <c r="CA48" s="6"/>
+      <c r="BV48" s="6"/>
       <c r="CB48" s="6"/>
-      <c r="CH48" s="6"/>
+      <c r="CC48" s="6"/>
       <c r="CI48" s="6"/>
-      <c r="CO48" s="6"/>
+      <c r="CJ48" s="6"/>
       <c r="CP48" s="6"/>
-      <c r="CV48" s="6"/>
+      <c r="CQ48" s="6"/>
       <c r="CW48" s="6"/>
-      <c r="DC48" s="6"/>
+      <c r="CX48" s="6"/>
       <c r="DD48" s="6"/>
-      <c r="DJ48" s="6"/>
+      <c r="DE48" s="6"/>
       <c r="DK48" s="6"/>
-      <c r="DQ48" s="6"/>
+      <c r="DL48" s="6"/>
       <c r="DR48" s="6"/>
-      <c r="DX48" s="6"/>
+      <c r="DS48" s="6"/>
       <c r="DY48" s="6"/>
-      <c r="EB48" s="25"/>
-      <c r="EC48" s="30"/>
+      <c r="DZ48" s="6"/>
+      <c r="EC48" s="25"/>
       <c r="ED48" s="30"/>
-      <c r="EE48" s="23"/>
+      <c r="EE48" s="30"/>
       <c r="EF48" s="23"/>
       <c r="EG48" s="23"/>
       <c r="EH48" s="23"/>
       <c r="EI48" s="23"/>
       <c r="EJ48" s="23"/>
-      <c r="EK48" s="24"/>
+      <c r="EK48" s="23"/>
+      <c r="EL48" s="24"/>
     </row>
-    <row r="49" spans="1:141" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:142" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>50</v>
       </c>
       <c r="B49" s="17" t="s">
+        <v>198</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="D49" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="C49" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="D49" s="1" t="s">
-        <v>196</v>
-      </c>
       <c r="E49" s="1" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H49" s="1">
         <v>47</v>
       </c>
-      <c r="I49" s="6"/>
+      <c r="I49" s="1">
+        <v>0</v>
+      </c>
       <c r="J49" s="6"/>
-      <c r="P49" s="6"/>
+      <c r="K49" s="6"/>
       <c r="Q49" s="6"/>
-      <c r="W49" s="6"/>
+      <c r="R49" s="6"/>
       <c r="X49" s="6"/>
-      <c r="AD49" s="6"/>
+      <c r="Y49" s="6"/>
       <c r="AE49" s="6"/>
-      <c r="AK49" s="6"/>
+      <c r="AF49" s="6"/>
       <c r="AL49" s="6"/>
-      <c r="AR49" s="6"/>
+      <c r="AM49" s="6"/>
       <c r="AS49" s="6"/>
-      <c r="AY49" s="6"/>
+      <c r="AT49" s="6"/>
       <c r="AZ49" s="6"/>
-      <c r="BF49" s="6"/>
+      <c r="BA49" s="6"/>
       <c r="BG49" s="6"/>
-      <c r="BM49" s="6"/>
+      <c r="BH49" s="6"/>
       <c r="BN49" s="6"/>
-      <c r="BT49" s="6"/>
+      <c r="BO49" s="6"/>
       <c r="BU49" s="6"/>
-      <c r="CA49" s="6"/>
+      <c r="BV49" s="6"/>
       <c r="CB49" s="6"/>
-      <c r="CH49" s="6"/>
+      <c r="CC49" s="6"/>
       <c r="CI49" s="6"/>
-      <c r="CO49" s="6"/>
+      <c r="CJ49" s="6"/>
       <c r="CP49" s="6"/>
-      <c r="CV49" s="6"/>
+      <c r="CQ49" s="6"/>
       <c r="CW49" s="6"/>
-      <c r="DC49" s="6"/>
+      <c r="CX49" s="6"/>
       <c r="DD49" s="6"/>
-      <c r="DJ49" s="6"/>
+      <c r="DE49" s="6"/>
       <c r="DK49" s="6"/>
-      <c r="DQ49" s="6"/>
+      <c r="DL49" s="6"/>
       <c r="DR49" s="6"/>
-      <c r="DX49" s="6"/>
+      <c r="DS49" s="6"/>
       <c r="DY49" s="6"/>
-      <c r="EB49" s="27"/>
-      <c r="EC49" s="28"/>
-      <c r="ED49" s="29"/>
-      <c r="EE49" s="6"/>
+      <c r="DZ49" s="6"/>
+      <c r="EC49" s="27"/>
+      <c r="ED49" s="28"/>
+      <c r="EE49" s="29"/>
       <c r="EF49" s="6"/>
+      <c r="EG49" s="6"/>
     </row>
-    <row r="50" spans="1:141" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:142" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>51</v>
       </c>
       <c r="B50" s="17" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H50" s="1">
         <v>50</v>
       </c>
-      <c r="I50" s="6"/>
+      <c r="I50" s="1">
+        <v>0</v>
+      </c>
       <c r="J50" s="6"/>
-      <c r="P50" s="6"/>
+      <c r="K50" s="6"/>
       <c r="Q50" s="6"/>
-      <c r="W50" s="6"/>
+      <c r="R50" s="6"/>
       <c r="X50" s="6"/>
-      <c r="AD50" s="6"/>
+      <c r="Y50" s="6"/>
       <c r="AE50" s="6"/>
-      <c r="AK50" s="6"/>
+      <c r="AF50" s="6"/>
       <c r="AL50" s="6"/>
-      <c r="AR50" s="6"/>
+      <c r="AM50" s="6"/>
       <c r="AS50" s="6"/>
-      <c r="AY50" s="6"/>
+      <c r="AT50" s="6"/>
       <c r="AZ50" s="6"/>
-      <c r="BF50" s="6"/>
+      <c r="BA50" s="6"/>
       <c r="BG50" s="6"/>
-      <c r="BM50" s="6"/>
+      <c r="BH50" s="6"/>
       <c r="BN50" s="6"/>
-      <c r="BT50" s="6"/>
+      <c r="BO50" s="6"/>
       <c r="BU50" s="6"/>
-      <c r="CA50" s="6"/>
+      <c r="BV50" s="6"/>
       <c r="CB50" s="6"/>
-      <c r="CH50" s="6"/>
+      <c r="CC50" s="6"/>
       <c r="CI50" s="6"/>
-      <c r="CO50" s="6"/>
+      <c r="CJ50" s="6"/>
       <c r="CP50" s="6"/>
-      <c r="CV50" s="6"/>
+      <c r="CQ50" s="6"/>
       <c r="CW50" s="6"/>
-      <c r="DC50" s="6"/>
+      <c r="CX50" s="6"/>
       <c r="DD50" s="6"/>
-      <c r="DJ50" s="6"/>
+      <c r="DE50" s="6"/>
       <c r="DK50" s="6"/>
-      <c r="DQ50" s="6"/>
+      <c r="DL50" s="6"/>
       <c r="DR50" s="6"/>
-      <c r="DX50" s="6"/>
+      <c r="DS50" s="6"/>
       <c r="DY50" s="6"/>
-      <c r="EE50" s="6"/>
+      <c r="DZ50" s="6"/>
       <c r="EF50" s="6"/>
-      <c r="EG50" s="27"/>
-      <c r="EH50" s="28"/>
+      <c r="EG50" s="6"/>
+      <c r="EH50" s="27"/>
       <c r="EI50" s="28"/>
       <c r="EJ50" s="28"/>
-      <c r="EK50" s="29"/>
+      <c r="EK50" s="28"/>
+      <c r="EL50" s="29"/>
     </row>
-    <row r="51" spans="1:141" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:142" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>52</v>
       </c>
       <c r="B51" s="17" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G51" s="1"/>
       <c r="H51" s="1">
         <v>50</v>
       </c>
-      <c r="I51" s="6"/>
+      <c r="I51" s="1">
+        <v>0</v>
+      </c>
       <c r="J51" s="6"/>
-      <c r="P51" s="6"/>
+      <c r="K51" s="6"/>
       <c r="Q51" s="6"/>
-      <c r="W51" s="6"/>
+      <c r="R51" s="6"/>
       <c r="X51" s="6"/>
-      <c r="AD51" s="6"/>
+      <c r="Y51" s="6"/>
       <c r="AE51" s="6"/>
-      <c r="AK51" s="6"/>
+      <c r="AF51" s="6"/>
       <c r="AL51" s="6"/>
-      <c r="AR51" s="6"/>
+      <c r="AM51" s="6"/>
       <c r="AS51" s="6"/>
-      <c r="AY51" s="6"/>
+      <c r="AT51" s="6"/>
       <c r="AZ51" s="6"/>
-      <c r="BF51" s="6"/>
+      <c r="BA51" s="6"/>
       <c r="BG51" s="6"/>
-      <c r="BM51" s="6"/>
+      <c r="BH51" s="6"/>
       <c r="BN51" s="6"/>
-      <c r="BT51" s="6"/>
+      <c r="BO51" s="6"/>
       <c r="BU51" s="6"/>
-      <c r="CA51" s="6"/>
+      <c r="BV51" s="6"/>
       <c r="CB51" s="6"/>
-      <c r="CH51" s="6"/>
+      <c r="CC51" s="6"/>
       <c r="CI51" s="6"/>
-      <c r="CO51" s="6"/>
+      <c r="CJ51" s="6"/>
       <c r="CP51" s="6"/>
-      <c r="CV51" s="6"/>
+      <c r="CQ51" s="6"/>
       <c r="CW51" s="6"/>
-      <c r="DC51" s="6"/>
+      <c r="CX51" s="6"/>
       <c r="DD51" s="6"/>
-      <c r="DJ51" s="6"/>
+      <c r="DE51" s="6"/>
       <c r="DK51" s="6"/>
-      <c r="DQ51" s="6"/>
+      <c r="DL51" s="6"/>
       <c r="DR51" s="6"/>
-      <c r="DX51" s="6"/>
+      <c r="DS51" s="6"/>
       <c r="DY51" s="6"/>
-      <c r="ED51" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="EE51" s="6"/>
+      <c r="DZ51" s="6"/>
+      <c r="EE51" s="3" t="s">
+        <v>42</v>
+      </c>
       <c r="EF51" s="6"/>
+      <c r="EG51" s="6"/>
     </row>
-    <row r="52" spans="1:141" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:142" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>53</v>
       </c>
       <c r="B52" s="17" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G52" s="1"/>
       <c r="H52" s="1">
         <v>50</v>
       </c>
-      <c r="I52" s="6"/>
+      <c r="I52" s="1">
+        <v>0</v>
+      </c>
       <c r="J52" s="6"/>
-      <c r="P52" s="6"/>
+      <c r="K52" s="6"/>
       <c r="Q52" s="6"/>
-      <c r="W52" s="6"/>
+      <c r="R52" s="6"/>
       <c r="X52" s="6"/>
-      <c r="AD52" s="6"/>
+      <c r="Y52" s="6"/>
       <c r="AE52" s="6"/>
-      <c r="AK52" s="6"/>
+      <c r="AF52" s="6"/>
       <c r="AL52" s="6"/>
-      <c r="AR52" s="6"/>
+      <c r="AM52" s="6"/>
       <c r="AS52" s="6"/>
-      <c r="AY52" s="6"/>
+      <c r="AT52" s="6"/>
       <c r="AZ52" s="6"/>
-      <c r="BF52" s="6"/>
+      <c r="BA52" s="6"/>
       <c r="BG52" s="6"/>
-      <c r="BM52" s="6"/>
+      <c r="BH52" s="6"/>
       <c r="BN52" s="6"/>
-      <c r="BT52" s="6"/>
+      <c r="BO52" s="6"/>
       <c r="BU52" s="6"/>
-      <c r="CA52" s="6"/>
+      <c r="BV52" s="6"/>
       <c r="CB52" s="6"/>
-      <c r="CH52" s="6"/>
+      <c r="CC52" s="6"/>
       <c r="CI52" s="6"/>
-      <c r="CO52" s="6"/>
+      <c r="CJ52" s="6"/>
       <c r="CP52" s="6"/>
-      <c r="CV52" s="6"/>
+      <c r="CQ52" s="6"/>
       <c r="CW52" s="6"/>
-      <c r="DC52" s="6"/>
+      <c r="CX52" s="6"/>
       <c r="DD52" s="6"/>
-      <c r="DJ52" s="6"/>
+      <c r="DE52" s="6"/>
       <c r="DK52" s="6"/>
-      <c r="DQ52" s="6"/>
+      <c r="DL52" s="6"/>
       <c r="DR52" s="6"/>
-      <c r="DX52" s="6"/>
+      <c r="DS52" s="6"/>
       <c r="DY52" s="6"/>
-      <c r="ED52" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="EE52" s="6"/>
+      <c r="DZ52" s="6"/>
+      <c r="EE52" s="3" t="s">
+        <v>42</v>
+      </c>
       <c r="EF52" s="6"/>
+      <c r="EG52" s="6"/>
     </row>
   </sheetData>
-  <mergeCells count="34">
-    <mergeCell ref="DE3:DK3"/>
-    <mergeCell ref="DL3:DR3"/>
-    <mergeCell ref="CU2:DX2"/>
-    <mergeCell ref="DS3:DY3"/>
-    <mergeCell ref="DZ3:EF3"/>
-    <mergeCell ref="DY2:EK2"/>
-    <mergeCell ref="EG3:EK3"/>
-    <mergeCell ref="BV3:CB3"/>
-    <mergeCell ref="CC3:CI3"/>
-    <mergeCell ref="CJ3:CP3"/>
-    <mergeCell ref="BP2:CT2"/>
-    <mergeCell ref="CQ3:CW3"/>
-    <mergeCell ref="CX3:DD3"/>
-    <mergeCell ref="AF3:AL3"/>
-    <mergeCell ref="I2:AM2"/>
-    <mergeCell ref="AM3:AS3"/>
-    <mergeCell ref="AT3:AZ3"/>
-    <mergeCell ref="BA3:BG3"/>
-    <mergeCell ref="BH3:BN3"/>
-    <mergeCell ref="AN2:BO2"/>
-    <mergeCell ref="BO3:BU3"/>
+  <mergeCells count="35">
+    <mergeCell ref="CY3:DE3"/>
+    <mergeCell ref="DF3:DL3"/>
+    <mergeCell ref="DM3:DS3"/>
+    <mergeCell ref="CV2:DY2"/>
+    <mergeCell ref="DT3:DZ3"/>
+    <mergeCell ref="EA3:EG3"/>
+    <mergeCell ref="DZ2:EL2"/>
+    <mergeCell ref="EH3:EL3"/>
+    <mergeCell ref="BI3:BO3"/>
+    <mergeCell ref="AO2:BP2"/>
+    <mergeCell ref="BP3:BV3"/>
+    <mergeCell ref="BW3:CC3"/>
+    <mergeCell ref="CD3:CJ3"/>
+    <mergeCell ref="CK3:CQ3"/>
+    <mergeCell ref="BQ2:CU2"/>
+    <mergeCell ref="CR3:CX3"/>
+    <mergeCell ref="Z3:AF3"/>
+    <mergeCell ref="AG3:AM3"/>
+    <mergeCell ref="J2:AN2"/>
+    <mergeCell ref="AN3:AT3"/>
+    <mergeCell ref="AU3:BA3"/>
+    <mergeCell ref="BB3:BH3"/>
     <mergeCell ref="G1:G4"/>
     <mergeCell ref="H1:H4"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="K3:Q3"/>
-    <mergeCell ref="R3:X3"/>
-    <mergeCell ref="Y3:AE3"/>
-    <mergeCell ref="I1:EK1"/>
+    <mergeCell ref="I1:I4"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="L3:R3"/>
+    <mergeCell ref="S3:Y3"/>
+    <mergeCell ref="J1:EL1"/>
     <mergeCell ref="A1:A4"/>
     <mergeCell ref="B1:B4"/>
     <mergeCell ref="C1:C4"/>

--- a/Samples_and_Images/Sample_output.xlsx
+++ b/Samples_and_Images/Sample_output.xlsx
@@ -1,19 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\popov\Dropbox\_Прожитое\My_projects\Gantt\Samples_and_Images\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\popov\Downloads\Export-MS-Project-to-MS-Excel-master\Samples_and_Images\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FF8CC046-D936-4E9E-9F79-EC762EEA8B4B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2675CE23-DB54-43D1-8328-C64A584543A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{356298DC-5E9F-45FC-96A8-3931A92DB39D}"/>
+    <workbookView xWindow="2016" yWindow="3396" windowWidth="17280" windowHeight="8964" xr2:uid="{2C67F185-1A57-45BF-A84E-2EF1C13F51A2}"/>
   </bookViews>
   <sheets>
-    <sheet name="Лист1" sheetId="1" r:id="rId1"/>
+    <sheet name="Gantt" sheetId="1" r:id="rId1"/>
+    <sheet name="Calendars" sheetId="3" r:id="rId2"/>
+    <sheet name="Resources" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,33 +36,33 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="542" uniqueCount="248">
   <si>
     <t>№</t>
   </si>
   <si>
-    <t>Уникальный идентификатор</t>
-  </si>
-  <si>
-    <t>Название</t>
-  </si>
-  <si>
-    <t>Начало</t>
-  </si>
-  <si>
-    <t>Окончание</t>
-  </si>
-  <si>
-    <t>Длительность</t>
-  </si>
-  <si>
-    <t>Названия ресурсов</t>
-  </si>
-  <si>
-    <t>Предшественники</t>
-  </si>
-  <si>
-    <t>% завершения</t>
+    <t>Unique ID</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Start</t>
+  </si>
+  <si>
+    <t>Finish</t>
+  </si>
+  <si>
+    <t>Duration</t>
+  </si>
+  <si>
+    <t>Resource Names</t>
+  </si>
+  <si>
+    <t>Predecessors</t>
+  </si>
+  <si>
+    <t>% Complete</t>
   </si>
   <si>
     <t>С</t>
@@ -144,10 +146,13 @@
     <t>02-май-22</t>
   </si>
   <si>
+    <t>09-май-22</t>
+  </si>
+  <si>
     <t>Май 2022</t>
   </si>
   <si>
-    <t>09-май-22</t>
+    <t>16-май-22</t>
   </si>
   <si>
     <t>1</t>
@@ -156,10 +161,10 @@
     <t xml:space="preserve"> Project's start</t>
   </si>
   <si>
-    <t>Сб 01.01.22</t>
-  </si>
-  <si>
-    <t>0 дней</t>
+    <t>Sat 01.01.22</t>
+  </si>
+  <si>
+    <t>0 days</t>
   </si>
   <si>
     <t>◊</t>
@@ -171,13 +176,13 @@
     <t xml:space="preserve"> Software system development project</t>
   </si>
   <si>
-    <t>Пн 03.01.22</t>
-  </si>
-  <si>
-    <t>Пт 13.05.22</t>
-  </si>
-  <si>
-    <t>95 дней?</t>
+    <t>Mon 03.01.22</t>
+  </si>
+  <si>
+    <t>Tue 17.05.22</t>
+  </si>
+  <si>
+    <t>94,75 days?</t>
   </si>
   <si>
     <t>2.1</t>
@@ -186,10 +191,10 @@
     <t xml:space="preserve">  Initiating</t>
   </si>
   <si>
-    <t>Пн 10.01.22</t>
-  </si>
-  <si>
-    <t>6 дней</t>
+    <t>Wed 12.01.22</t>
+  </si>
+  <si>
+    <t>5,75 days</t>
   </si>
   <si>
     <t>2.1.1</t>
@@ -198,7 +203,7 @@
     <t xml:space="preserve">   Kick-off meeting</t>
   </si>
   <si>
-    <t>1 день</t>
+    <t>1 day</t>
   </si>
   <si>
     <t>Customer;Contractor</t>
@@ -210,10 +215,10 @@
     <t xml:space="preserve">   Contract's negotiations</t>
   </si>
   <si>
-    <t>Вт 04.01.22</t>
-  </si>
-  <si>
-    <t>5 дней</t>
+    <t>Tue 04.01.22</t>
+  </si>
+  <si>
+    <t>5 days</t>
   </si>
   <si>
     <t>2.1.3</t>
@@ -228,13 +233,10 @@
     <t xml:space="preserve">  Planning and analysis</t>
   </si>
   <si>
-    <t>Вт 11.01.22</t>
-  </si>
-  <si>
-    <t>Ср 16.02.22</t>
-  </si>
-  <si>
-    <t>27 дней</t>
+    <t>Fri 18.02.22</t>
+  </si>
+  <si>
+    <t>27 days</t>
   </si>
   <si>
     <t>2.2.1</t>
@@ -243,10 +245,10 @@
     <t xml:space="preserve">   Business-processes' examination</t>
   </si>
   <si>
-    <t>Пн 24.01.22</t>
-  </si>
-  <si>
-    <t>10 дней</t>
+    <t>Wed 26.01.22</t>
+  </si>
+  <si>
+    <t>10 days</t>
   </si>
   <si>
     <t>Contractor</t>
@@ -258,10 +260,7 @@
     <t xml:space="preserve">   Creating a report</t>
   </si>
   <si>
-    <t>Вт 25.01.22</t>
-  </si>
-  <si>
-    <t>Пн 31.01.22</t>
+    <t>Wed 02.02.22</t>
   </si>
   <si>
     <t>2.2.3</t>
@@ -270,10 +269,7 @@
     <t xml:space="preserve">   Report Delivery</t>
   </si>
   <si>
-    <t>Вт 01.02.22</t>
-  </si>
-  <si>
-    <t>Пн 07.02.22</t>
+    <t>Wed 09.02.22</t>
   </si>
   <si>
     <t>2.2.4</t>
@@ -282,10 +278,7 @@
     <t xml:space="preserve">   Detailed shedule delivery</t>
   </si>
   <si>
-    <t>Вт 08.02.22</t>
-  </si>
-  <si>
-    <t>Пн 14.02.22</t>
+    <t>Wed 16.02.22</t>
   </si>
   <si>
     <t>2.2.5</t>
@@ -294,7 +287,7 @@
     <t xml:space="preserve">   Project charter delivery</t>
   </si>
   <si>
-    <t>7 дней</t>
+    <t>7 days</t>
   </si>
   <si>
     <t>2.2.6</t>
@@ -312,13 +305,10 @@
     <t xml:space="preserve">  Development</t>
   </si>
   <si>
-    <t>Чт 17.02.22</t>
-  </si>
-  <si>
-    <t>Вт 22.03.22</t>
-  </si>
-  <si>
-    <t>24 дней?</t>
+    <t>Thu 24.03.22</t>
+  </si>
+  <si>
+    <t>24 days?</t>
   </si>
   <si>
     <t>2.3.1</t>
@@ -327,7 +317,7 @@
     <t xml:space="preserve">   Infrastructure preparation</t>
   </si>
   <si>
-    <t>Пт 25.02.22</t>
+    <t>Tue 01.03.22</t>
   </si>
   <si>
     <t>Customer</t>
@@ -339,10 +329,10 @@
     <t xml:space="preserve">   Infrastructure ready</t>
   </si>
   <si>
-    <t>Пн 28.02.22</t>
-  </si>
-  <si>
-    <t>1 день?</t>
+    <t>Wed 02.03.22</t>
+  </si>
+  <si>
+    <t>1 day?</t>
   </si>
   <si>
     <t>2.3.3</t>
@@ -351,7 +341,7 @@
     <t xml:space="preserve">   Coding and initial testing</t>
   </si>
   <si>
-    <t>24 дней</t>
+    <t>24 days</t>
   </si>
   <si>
     <t>2.3.3.1</t>
@@ -360,10 +350,10 @@
     <t xml:space="preserve">    Subsystem 1</t>
   </si>
   <si>
-    <t>Пт 18.03.22</t>
-  </si>
-  <si>
-    <t>22 дней</t>
+    <t>Tue 22.03.22</t>
+  </si>
+  <si>
+    <t>22 days</t>
   </si>
   <si>
     <t>2.3.3.1.1</t>
@@ -372,10 +362,10 @@
     <t xml:space="preserve">     Module 1</t>
   </si>
   <si>
-    <t>Пн 07.03.22</t>
-  </si>
-  <si>
-    <t>13 дней</t>
+    <t>Wed 09.03.22</t>
+  </si>
+  <si>
+    <t>13 days</t>
   </si>
   <si>
     <t>2.3.3.1.1.1</t>
@@ -384,7 +374,7 @@
     <t xml:space="preserve">      Coding </t>
   </si>
   <si>
-    <t>Ср 02.03.22</t>
+    <t>Fri 04.03.22</t>
   </si>
   <si>
     <t>Developer 1</t>
@@ -396,10 +386,7 @@
     <t xml:space="preserve">      Testing</t>
   </si>
   <si>
-    <t>Чт 03.03.22</t>
-  </si>
-  <si>
-    <t>3 дней</t>
+    <t>3 days</t>
   </si>
   <si>
     <t>2.3.3.1.2</t>
@@ -408,10 +395,7 @@
     <t xml:space="preserve">     Module 2</t>
   </si>
   <si>
-    <t>Вт 08.03.22</t>
-  </si>
-  <si>
-    <t>9 дней</t>
+    <t>9 days</t>
   </si>
   <si>
     <t>2.3.3.1.2.1</t>
@@ -420,16 +404,13 @@
     <t xml:space="preserve">      Coding</t>
   </si>
   <si>
-    <t>Ср 16.03.22</t>
+    <t>Fri 18.03.22</t>
   </si>
   <si>
     <t>2.3.3.1.2.2</t>
   </si>
   <si>
-    <t>Чт 17.03.22</t>
-  </si>
-  <si>
-    <t>2 дней</t>
+    <t>2 days</t>
   </si>
   <si>
     <t>2.3.3.2</t>
@@ -444,13 +425,13 @@
     <t xml:space="preserve">     Module 3</t>
   </si>
   <si>
-    <t>Вт 01.03.22</t>
+    <t>Thu 03.03.22</t>
   </si>
   <si>
     <t>2.3.3.2.1.1</t>
   </si>
   <si>
-    <t>8 дней</t>
+    <t>8 days</t>
   </si>
   <si>
     <t>Developer 2</t>
@@ -465,13 +446,16 @@
     <t xml:space="preserve">     Module 4</t>
   </si>
   <si>
-    <t>15 дней</t>
+    <t>15 days</t>
   </si>
   <si>
     <t>2.3.3.2.2.1</t>
   </si>
   <si>
-    <t>12 дней</t>
+    <t>Mon 21.03.22</t>
+  </si>
+  <si>
+    <t>12 days</t>
   </si>
   <si>
     <t>2.3.3.2.2.2</t>
@@ -492,13 +476,10 @@
     <t xml:space="preserve">  Acceptance testing</t>
   </si>
   <si>
-    <t>Ср 23.03.22</t>
-  </si>
-  <si>
-    <t>Вт 03.05.22</t>
-  </si>
-  <si>
-    <t>30 дней</t>
+    <t>Thu 05.05.22</t>
+  </si>
+  <si>
+    <t>30 days</t>
   </si>
   <si>
     <t>2.4.1</t>
@@ -507,10 +488,10 @@
     <t xml:space="preserve">   Modules' testing</t>
   </si>
   <si>
-    <t>Вт 29.03.22</t>
-  </si>
-  <si>
-    <t>Analyst 1;Developer 1;Developer 2</t>
+    <t>Thu 31.03.22</t>
+  </si>
+  <si>
+    <t>Analyst 1 (diff. Calendar);Developer 1;Developer 2</t>
   </si>
   <si>
     <t>2.4.2</t>
@@ -528,13 +509,10 @@
     <t xml:space="preserve">   Integration testing</t>
   </si>
   <si>
-    <t>Ср 30.03.22</t>
-  </si>
-  <si>
-    <t>Чт 07.04.22</t>
-  </si>
-  <si>
-    <t>Analyst 1</t>
+    <t>Mon 11.04.22</t>
+  </si>
+  <si>
+    <t>Analyst 1 (diff. Calendar)</t>
   </si>
   <si>
     <t>38;39</t>
@@ -546,13 +524,10 @@
     <t xml:space="preserve">   Error correction</t>
   </si>
   <si>
-    <t>Пт 08.04.22</t>
-  </si>
-  <si>
-    <t>Чт 14.04.22</t>
-  </si>
-  <si>
-    <t>Analyst 1;Analyst2;Developer 1;Developer 2</t>
+    <t>Mon 18.04.22</t>
+  </si>
+  <si>
+    <t>Analyst 1 (diff. Calendar);Analyst2;Developer 1;Developer 2</t>
   </si>
   <si>
     <t>2.4.5</t>
@@ -561,10 +536,7 @@
     <t xml:space="preserve">   New requirments' implementation</t>
   </si>
   <si>
-    <t>Пт 15.04.22</t>
-  </si>
-  <si>
-    <t>Пн 25.04.22</t>
+    <t>Wed 27.04.22</t>
   </si>
   <si>
     <t>2.4.6</t>
@@ -573,10 +545,10 @@
     <t xml:space="preserve">   Testing - second iteration</t>
   </si>
   <si>
-    <t>Вт 26.04.22</t>
-  </si>
-  <si>
-    <t>Analyst 1;Analyst2;Contractor;Customer;Developer 1;Developer 2</t>
+    <t>6 days</t>
+  </si>
+  <si>
+    <t>Analyst 1 (diff. Calendar);Analyst2;Contractor;Customer;Developer 1;Developer 2</t>
   </si>
   <si>
     <t>2.4.6.1</t>
@@ -585,7 +557,7 @@
     <t xml:space="preserve">    Modules' testing</t>
   </si>
   <si>
-    <t>Чт 28.04.22</t>
+    <t>Mon 02.05.22</t>
   </si>
   <si>
     <t>38;39;40;41;42</t>
@@ -597,7 +569,7 @@
     <t xml:space="preserve">    Perfomance testing</t>
   </si>
   <si>
-    <t>Ср 27.04.22</t>
+    <t>Fri 29.04.22</t>
   </si>
   <si>
     <t>2.4.6.3</t>
@@ -606,9 +578,6 @@
     <t xml:space="preserve">    Integration testing</t>
   </si>
   <si>
-    <t>Пт 29.04.22</t>
-  </si>
-  <si>
     <t>44;45</t>
   </si>
   <si>
@@ -627,16 +596,13 @@
     <t xml:space="preserve">  Work closing</t>
   </si>
   <si>
-    <t>Ср 04.05.22</t>
-  </si>
-  <si>
     <t>2.5.1</t>
   </si>
   <si>
     <t xml:space="preserve">   Certificate of completion's signment</t>
   </si>
   <si>
-    <t>Пт 06.05.22</t>
+    <t>Tue 10.05.22</t>
   </si>
   <si>
     <t>2.5.2</t>
@@ -645,9 +611,6 @@
     <t xml:space="preserve">   Billing and paymemts</t>
   </si>
   <si>
-    <t>Пн 09.05.22</t>
-  </si>
-  <si>
     <t>2.5.3</t>
   </si>
   <si>
@@ -658,6 +621,165 @@
   </si>
   <si>
     <t xml:space="preserve">   Contract closed</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Code</t>
+  </si>
+  <si>
+    <t>Initials</t>
+  </si>
+  <si>
+    <t>Group</t>
+  </si>
+  <si>
+    <t>Base Calendar</t>
+  </si>
+  <si>
+    <t>Booking Type</t>
+  </si>
+  <si>
+    <t>Email Address</t>
+  </si>
+  <si>
+    <t>Standard Rate</t>
+  </si>
+  <si>
+    <t>Overtime Rate</t>
+  </si>
+  <si>
+    <t>Peak</t>
+  </si>
+  <si>
+    <t>Max Units</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Cost</t>
+  </si>
+  <si>
+    <t>Cost Per Use</t>
+  </si>
+  <si>
+    <t>Overtime Cost</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>Standard</t>
+  </si>
+  <si>
+    <t>Committed</t>
+  </si>
+  <si>
+    <t>55,00 ₽/h</t>
+  </si>
+  <si>
+    <t>56,00 ₽/h</t>
+  </si>
+  <si>
+    <t>Work</t>
+  </si>
+  <si>
+    <t>9 680,00 ₽</t>
+  </si>
+  <si>
+    <t>0,00 ₽</t>
+  </si>
+  <si>
+    <t>66,00 ₽/h</t>
+  </si>
+  <si>
+    <t>67,00 ₽/h</t>
+  </si>
+  <si>
+    <t>27 456,00 ₽</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>77,00 ₽/h</t>
+  </si>
+  <si>
+    <t>78,00 ₽/h</t>
+  </si>
+  <si>
+    <t>29 568,00 ₽</t>
+  </si>
+  <si>
+    <t>88,00 ₽/h</t>
+  </si>
+  <si>
+    <t>89,00 ₽/h</t>
+  </si>
+  <si>
+    <t>40 128,00 ₽</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>99,00 ₽/h</t>
+  </si>
+  <si>
+    <t>102,00 ₽/h</t>
+  </si>
+  <si>
+    <t>28 512,00 ₽</t>
+  </si>
+  <si>
+    <t>Analyst2</t>
+  </si>
+  <si>
+    <t>100,00 ₽/h</t>
+  </si>
+  <si>
+    <t>105,00 ₽/h</t>
+  </si>
+  <si>
+    <t>20 000,00 ₽</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Working?</t>
+  </si>
+  <si>
+    <t>Shift1.Start</t>
+  </si>
+  <si>
+    <t>Shift1.Finish</t>
+  </si>
+  <si>
+    <t>Shift2.Start</t>
+  </si>
+  <si>
+    <t>Shift2.Finish</t>
+  </si>
+  <si>
+    <t>Shift3.Start</t>
+  </si>
+  <si>
+    <t>Shift3.Finish</t>
+  </si>
+  <si>
+    <t>Shift4.Start</t>
+  </si>
+  <si>
+    <t>Shift4.Finish</t>
+  </si>
+  <si>
+    <t>Shift5.Start</t>
+  </si>
+  <si>
+    <t>Shift5.Finish</t>
   </si>
 </sst>
 </file>
@@ -734,7 +856,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -884,24 +1006,11 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="dashed">
-        <color indexed="64"/>
-      </left>
-      <right style="dashed">
-        <color indexed="64"/>
-      </right>
-      <top style="dashed">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -959,20 +1068,21 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -988,9 +1098,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Стандартная">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1028,7 +1138,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Стандартная">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1134,7 +1244,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Стандартная">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1283,33 +1393,34 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{537FF155-616F-4B8F-B587-D7B966C3ADAF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{852E5339-D9ED-439A-A0C0-0B309EA30E75}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:EL52"/>
+  <dimension ref="A1:EP52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="3" ySplit="4" topLeftCell="D5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="A14" sqref="A14"/>
+      <selection pane="bottomRight" activeCell="EI50" sqref="EI50:EP50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="42.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.77734375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="59.21875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.77734375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="142" width="1.77734375" customWidth="1"/>
+    <col min="4" max="4" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="73.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="10" max="146" width="1.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:142" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:146" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1472,8 +1583,12 @@
       <c r="EJ1" s="14"/>
       <c r="EK1" s="14"/>
       <c r="EL1" s="14"/>
-    </row>
-    <row r="2" spans="1:142" x14ac:dyDescent="0.3">
+      <c r="EM1" s="14"/>
+      <c r="EN1" s="14"/>
+      <c r="EO1" s="14"/>
+      <c r="EP1" s="14"/>
+    </row>
+    <row r="2" spans="1:146" x14ac:dyDescent="0.3">
       <c r="A2" s="5"/>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
@@ -1612,7 +1727,7 @@
       <c r="DX2" s="16"/>
       <c r="DY2" s="11"/>
       <c r="DZ2" s="15" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="EA2" s="15"/>
       <c r="EB2" s="15"/>
@@ -1621,13 +1736,17 @@
       <c r="EE2" s="15"/>
       <c r="EF2" s="15"/>
       <c r="EG2" s="15"/>
-      <c r="EH2" s="16"/>
-      <c r="EI2" s="16"/>
-      <c r="EJ2" s="16"/>
-      <c r="EK2" s="16"/>
-      <c r="EL2" s="16"/>
-    </row>
-    <row r="3" spans="1:142" x14ac:dyDescent="0.3">
+      <c r="EH2" s="15"/>
+      <c r="EI2" s="15"/>
+      <c r="EJ2" s="15"/>
+      <c r="EK2" s="15"/>
+      <c r="EL2" s="15"/>
+      <c r="EM2" s="15"/>
+      <c r="EN2" s="15"/>
+      <c r="EO2" s="16"/>
+      <c r="EP2" s="16"/>
+    </row>
+    <row r="3" spans="1:146" x14ac:dyDescent="0.3">
       <c r="A3" s="5"/>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
@@ -1803,15 +1922,21 @@
       <c r="EE3" s="12"/>
       <c r="EF3" s="12"/>
       <c r="EG3" s="13"/>
-      <c r="EH3" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="EI3" s="9"/>
-      <c r="EJ3" s="9"/>
-      <c r="EK3" s="9"/>
-      <c r="EL3" s="9"/>
-    </row>
-    <row r="4" spans="1:142" x14ac:dyDescent="0.3">
+      <c r="EH3" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="EI3" s="12"/>
+      <c r="EJ3" s="12"/>
+      <c r="EK3" s="12"/>
+      <c r="EL3" s="12"/>
+      <c r="EM3" s="12"/>
+      <c r="EN3" s="13"/>
+      <c r="EO3" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="EP3" s="9"/>
+    </row>
+    <row r="4" spans="1:146" x14ac:dyDescent="0.3">
       <c r="A4" s="5"/>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
@@ -1833,10 +1958,10 @@
       <c r="M4" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="N4" s="10" t="s">
+      <c r="N4" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="O4" s="10" t="s">
+      <c r="O4" s="8" t="s">
         <v>13</v>
       </c>
       <c r="P4" s="10" t="s">
@@ -2220,25 +2345,37 @@
       <c r="EL4" s="10" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="5" spans="1:142" x14ac:dyDescent="0.3">
+      <c r="EM4" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="EN4" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="EO4" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="EP4" s="10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:146" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>1</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
@@ -2246,9 +2383,11 @@
         <v>0</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K5" s="6"/>
+      <c r="N5" s="6"/>
+      <c r="O5" s="6"/>
       <c r="Q5" s="6"/>
       <c r="R5" s="6"/>
       <c r="X5" s="6"/>
@@ -2285,25 +2424,27 @@
       <c r="DZ5" s="6"/>
       <c r="EF5" s="6"/>
       <c r="EG5" s="6"/>
-    </row>
-    <row r="6" spans="1:142" x14ac:dyDescent="0.3">
+      <c r="EM5" s="6"/>
+      <c r="EN5" s="6"/>
+    </row>
+    <row r="6" spans="1:146" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>3</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
@@ -2320,8 +2461,8 @@
       <c r="Q6" s="22"/>
       <c r="R6" s="22"/>
       <c r="S6" s="22"/>
-      <c r="T6" s="19"/>
-      <c r="U6" s="19"/>
+      <c r="T6" s="22"/>
+      <c r="U6" s="22"/>
       <c r="V6" s="19"/>
       <c r="W6" s="19"/>
       <c r="X6" s="19"/>
@@ -2442,26 +2583,30 @@
       <c r="EI6" s="19"/>
       <c r="EJ6" s="19"/>
       <c r="EK6" s="19"/>
-      <c r="EL6" s="20"/>
-    </row>
-    <row r="7" spans="1:142" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="EL6" s="19"/>
+      <c r="EM6" s="19"/>
+      <c r="EN6" s="19"/>
+      <c r="EO6" s="19"/>
+      <c r="EP6" s="20"/>
+    </row>
+    <row r="7" spans="1:146" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>4</v>
       </c>
       <c r="B7" s="18" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
@@ -2477,7 +2622,9 @@
       <c r="P7" s="23"/>
       <c r="Q7" s="23"/>
       <c r="R7" s="23"/>
-      <c r="S7" s="24"/>
+      <c r="S7" s="23"/>
+      <c r="T7" s="23"/>
+      <c r="U7" s="24"/>
       <c r="X7" s="6"/>
       <c r="Y7" s="6"/>
       <c r="AE7" s="6"/>
@@ -2512,28 +2659,30 @@
       <c r="DZ7" s="6"/>
       <c r="EF7" s="6"/>
       <c r="EG7" s="6"/>
-    </row>
-    <row r="8" spans="1:142" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="EM7" s="6"/>
+      <c r="EN7" s="6"/>
+    </row>
+    <row r="8" spans="1:146" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>5</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H8" s="1">
         <v>1</v>
@@ -2544,6 +2693,8 @@
       <c r="J8" s="6"/>
       <c r="K8" s="6"/>
       <c r="L8" s="26"/>
+      <c r="N8" s="6"/>
+      <c r="O8" s="6"/>
       <c r="Q8" s="6"/>
       <c r="R8" s="6"/>
       <c r="X8" s="6"/>
@@ -2580,28 +2731,30 @@
       <c r="DZ8" s="6"/>
       <c r="EF8" s="6"/>
       <c r="EG8" s="6"/>
-    </row>
-    <row r="9" spans="1:142" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="EM8" s="6"/>
+      <c r="EN8" s="6"/>
+    </row>
+    <row r="9" spans="1:146" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>6</v>
       </c>
       <c r="B9" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="G9" s="1" t="s">
         <v>56</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>55</v>
       </c>
       <c r="H9" s="1">
         <v>5</v>
@@ -2617,7 +2770,9 @@
       <c r="P9" s="28"/>
       <c r="Q9" s="28"/>
       <c r="R9" s="28"/>
-      <c r="S9" s="29"/>
+      <c r="S9" s="28"/>
+      <c r="T9" s="28"/>
+      <c r="U9" s="29"/>
       <c r="X9" s="6"/>
       <c r="Y9" s="6"/>
       <c r="AE9" s="6"/>
@@ -2652,25 +2807,27 @@
       <c r="DZ9" s="6"/>
       <c r="EF9" s="6"/>
       <c r="EG9" s="6"/>
-    </row>
-    <row r="10" spans="1:142" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="EM9" s="6"/>
+      <c r="EN9" s="6"/>
+    </row>
+    <row r="10" spans="1:146" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>7</v>
       </c>
       <c r="B10" s="17" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G10" s="1"/>
       <c r="H10" s="1">
@@ -2681,10 +2838,12 @@
       </c>
       <c r="J10" s="6"/>
       <c r="K10" s="6"/>
+      <c r="N10" s="6"/>
+      <c r="O10" s="6"/>
       <c r="Q10" s="6"/>
       <c r="R10" s="6"/>
-      <c r="S10" s="3" t="s">
-        <v>42</v>
+      <c r="U10" s="3" t="s">
+        <v>43</v>
       </c>
       <c r="X10" s="6"/>
       <c r="Y10" s="6"/>
@@ -2720,19 +2879,21 @@
       <c r="DZ10" s="6"/>
       <c r="EF10" s="6"/>
       <c r="EG10" s="6"/>
-    </row>
-    <row r="11" spans="1:142" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="EM10" s="6"/>
+      <c r="EN10" s="6"/>
+    </row>
+    <row r="11" spans="1:146" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>9</v>
       </c>
       <c r="B11" s="18" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>65</v>
@@ -2747,10 +2908,11 @@
       </c>
       <c r="J11" s="6"/>
       <c r="K11" s="6"/>
+      <c r="N11" s="6"/>
+      <c r="O11" s="6"/>
       <c r="Q11" s="6"/>
       <c r="R11" s="6"/>
-      <c r="T11" s="25"/>
-      <c r="U11" s="30"/>
+      <c r="U11" s="25"/>
       <c r="V11" s="30"/>
       <c r="W11" s="30"/>
       <c r="X11" s="30"/>
@@ -2763,8 +2925,8 @@
       <c r="AE11" s="30"/>
       <c r="AF11" s="30"/>
       <c r="AG11" s="30"/>
-      <c r="AH11" s="23"/>
-      <c r="AI11" s="23"/>
+      <c r="AH11" s="30"/>
+      <c r="AI11" s="30"/>
       <c r="AJ11" s="23"/>
       <c r="AK11" s="23"/>
       <c r="AL11" s="23"/>
@@ -2785,7 +2947,9 @@
       <c r="BA11" s="23"/>
       <c r="BB11" s="23"/>
       <c r="BC11" s="23"/>
-      <c r="BD11" s="24"/>
+      <c r="BD11" s="23"/>
+      <c r="BE11" s="23"/>
+      <c r="BF11" s="24"/>
       <c r="BG11" s="6"/>
       <c r="BH11" s="6"/>
       <c r="BN11" s="6"/>
@@ -2810,8 +2974,10 @@
       <c r="DZ11" s="6"/>
       <c r="EF11" s="6"/>
       <c r="EG11" s="6"/>
-    </row>
-    <row r="12" spans="1:142" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="EM11" s="6"/>
+      <c r="EN11" s="6"/>
+    </row>
+    <row r="12" spans="1:146" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -2822,7 +2988,7 @@
         <v>68</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>69</v>
@@ -2841,10 +3007,11 @@
       </c>
       <c r="J12" s="6"/>
       <c r="K12" s="6"/>
+      <c r="N12" s="6"/>
+      <c r="O12" s="6"/>
       <c r="Q12" s="6"/>
       <c r="R12" s="6"/>
-      <c r="T12" s="27"/>
-      <c r="U12" s="28"/>
+      <c r="U12" s="27"/>
       <c r="V12" s="28"/>
       <c r="W12" s="28"/>
       <c r="X12" s="28"/>
@@ -2856,7 +3023,9 @@
       <c r="AD12" s="28"/>
       <c r="AE12" s="28"/>
       <c r="AF12" s="28"/>
-      <c r="AG12" s="29"/>
+      <c r="AG12" s="28"/>
+      <c r="AH12" s="28"/>
+      <c r="AI12" s="31"/>
       <c r="AL12" s="6"/>
       <c r="AM12" s="6"/>
       <c r="AS12" s="6"/>
@@ -2887,8 +3056,10 @@
       <c r="DZ12" s="6"/>
       <c r="EF12" s="6"/>
       <c r="EG12" s="6"/>
-    </row>
-    <row r="13" spans="1:142" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="EM12" s="6"/>
+      <c r="EN12" s="6"/>
+    </row>
+    <row r="13" spans="1:146" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -2899,13 +3070,13 @@
         <v>73</v>
       </c>
       <c r="D13" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E13" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="E13" s="1" t="s">
-        <v>75</v>
-      </c>
       <c r="F13" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>71</v>
@@ -2918,19 +3089,22 @@
       </c>
       <c r="J13" s="6"/>
       <c r="K13" s="6"/>
+      <c r="N13" s="6"/>
+      <c r="O13" s="6"/>
       <c r="Q13" s="6"/>
       <c r="R13" s="6"/>
       <c r="X13" s="6"/>
       <c r="Y13" s="6"/>
       <c r="AE13" s="6"/>
       <c r="AF13" s="6"/>
-      <c r="AH13" s="27"/>
-      <c r="AI13" s="28"/>
+      <c r="AI13" s="27"/>
       <c r="AJ13" s="28"/>
       <c r="AK13" s="28"/>
       <c r="AL13" s="28"/>
       <c r="AM13" s="28"/>
-      <c r="AN13" s="29"/>
+      <c r="AN13" s="28"/>
+      <c r="AO13" s="28"/>
+      <c r="AP13" s="31"/>
       <c r="AS13" s="6"/>
       <c r="AT13" s="6"/>
       <c r="AZ13" s="6"/>
@@ -2959,25 +3133,27 @@
       <c r="DZ13" s="6"/>
       <c r="EF13" s="6"/>
       <c r="EG13" s="6"/>
-    </row>
-    <row r="14" spans="1:142" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="EM13" s="6"/>
+      <c r="EN13" s="6"/>
+    </row>
+    <row r="14" spans="1:146" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="D14" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E14" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="D14" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>79</v>
-      </c>
       <c r="F14" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G14" s="1" t="s">
         <v>71</v>
@@ -2990,6 +3166,8 @@
       </c>
       <c r="J14" s="6"/>
       <c r="K14" s="6"/>
+      <c r="N14" s="6"/>
+      <c r="O14" s="6"/>
       <c r="Q14" s="6"/>
       <c r="R14" s="6"/>
       <c r="X14" s="6"/>
@@ -2998,13 +3176,14 @@
       <c r="AF14" s="6"/>
       <c r="AL14" s="6"/>
       <c r="AM14" s="6"/>
-      <c r="AO14" s="27"/>
-      <c r="AP14" s="28"/>
+      <c r="AP14" s="27"/>
       <c r="AQ14" s="28"/>
       <c r="AR14" s="28"/>
       <c r="AS14" s="28"/>
       <c r="AT14" s="28"/>
-      <c r="AU14" s="29"/>
+      <c r="AU14" s="28"/>
+      <c r="AV14" s="28"/>
+      <c r="AW14" s="31"/>
       <c r="AZ14" s="6"/>
       <c r="BA14" s="6"/>
       <c r="BG14" s="6"/>
@@ -3031,25 +3210,27 @@
       <c r="DZ14" s="6"/>
       <c r="EF14" s="6"/>
       <c r="EG14" s="6"/>
-    </row>
-    <row r="15" spans="1:142" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="EM14" s="6"/>
+      <c r="EN14" s="6"/>
+    </row>
+    <row r="15" spans="1:146" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E15" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="C15" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>83</v>
-      </c>
       <c r="F15" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G15" s="1" t="s">
         <v>71</v>
@@ -3062,6 +3243,8 @@
       </c>
       <c r="J15" s="6"/>
       <c r="K15" s="6"/>
+      <c r="N15" s="6"/>
+      <c r="O15" s="6"/>
       <c r="Q15" s="6"/>
       <c r="R15" s="6"/>
       <c r="X15" s="6"/>
@@ -3072,13 +3255,14 @@
       <c r="AM15" s="6"/>
       <c r="AS15" s="6"/>
       <c r="AT15" s="6"/>
-      <c r="AV15" s="31"/>
       <c r="AW15" s="32"/>
-      <c r="AX15" s="32"/>
-      <c r="AY15" s="32"/>
-      <c r="AZ15" s="32"/>
-      <c r="BA15" s="32"/>
+      <c r="AX15" s="33"/>
+      <c r="AY15" s="33"/>
+      <c r="AZ15" s="33"/>
+      <c r="BA15" s="33"/>
       <c r="BB15" s="33"/>
+      <c r="BC15" s="33"/>
+      <c r="BD15" s="31"/>
       <c r="BG15" s="6"/>
       <c r="BH15" s="6"/>
       <c r="BN15" s="6"/>
@@ -3103,25 +3287,27 @@
       <c r="DZ15" s="6"/>
       <c r="EF15" s="6"/>
       <c r="EG15" s="6"/>
-    </row>
-    <row r="16" spans="1:142" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="EM15" s="6"/>
+      <c r="EN15" s="6"/>
+    </row>
+    <row r="16" spans="1:146" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16" s="17" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>65</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="G16" s="1" t="s">
         <v>71</v>
@@ -3134,6 +3320,8 @@
       </c>
       <c r="J16" s="6"/>
       <c r="K16" s="6"/>
+      <c r="N16" s="6"/>
+      <c r="O16" s="6"/>
       <c r="Q16" s="6"/>
       <c r="R16" s="6"/>
       <c r="X16" s="6"/>
@@ -3144,15 +3332,16 @@
       <c r="AM16" s="6"/>
       <c r="AS16" s="6"/>
       <c r="AT16" s="6"/>
-      <c r="AV16" s="27"/>
-      <c r="AW16" s="28"/>
+      <c r="AW16" s="27"/>
       <c r="AX16" s="28"/>
       <c r="AY16" s="28"/>
       <c r="AZ16" s="28"/>
       <c r="BA16" s="28"/>
       <c r="BB16" s="28"/>
       <c r="BC16" s="28"/>
-      <c r="BD16" s="29"/>
+      <c r="BD16" s="28"/>
+      <c r="BE16" s="28"/>
+      <c r="BF16" s="29"/>
       <c r="BG16" s="6"/>
       <c r="BH16" s="6"/>
       <c r="BN16" s="6"/>
@@ -3177,16 +3366,18 @@
       <c r="DZ16" s="6"/>
       <c r="EF16" s="6"/>
       <c r="EG16" s="6"/>
-    </row>
-    <row r="17" spans="1:137" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="EM16" s="6"/>
+      <c r="EN16" s="6"/>
+    </row>
+    <row r="17" spans="1:144" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17" s="17" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>65</v>
@@ -3195,17 +3386,19 @@
         <v>65</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G17" s="1"/>
       <c r="H17" s="1" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="I17" s="1">
         <v>0</v>
       </c>
       <c r="J17" s="6"/>
       <c r="K17" s="6"/>
+      <c r="N17" s="6"/>
+      <c r="O17" s="6"/>
       <c r="Q17" s="6"/>
       <c r="R17" s="6"/>
       <c r="X17" s="6"/>
@@ -3218,8 +3411,8 @@
       <c r="AT17" s="6"/>
       <c r="AZ17" s="6"/>
       <c r="BA17" s="6"/>
-      <c r="BD17" s="3" t="s">
-        <v>42</v>
+      <c r="BF17" s="3" t="s">
+        <v>43</v>
       </c>
       <c r="BG17" s="6"/>
       <c r="BH17" s="6"/>
@@ -3245,25 +3438,27 @@
       <c r="DZ17" s="6"/>
       <c r="EF17" s="6"/>
       <c r="EG17" s="6"/>
-    </row>
-    <row r="18" spans="1:137" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="EM17" s="6"/>
+      <c r="EN17" s="6"/>
+    </row>
+    <row r="18" spans="1:144" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <v>17</v>
       </c>
       <c r="B18" s="18" t="s">
+        <v>87</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="F18" s="2" t="s">
         <v>90</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>94</v>
       </c>
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
@@ -3272,6 +3467,8 @@
       </c>
       <c r="J18" s="6"/>
       <c r="K18" s="6"/>
+      <c r="N18" s="6"/>
+      <c r="O18" s="6"/>
       <c r="Q18" s="6"/>
       <c r="R18" s="6"/>
       <c r="X18" s="6"/>
@@ -3284,8 +3481,7 @@
       <c r="AT18" s="6"/>
       <c r="AZ18" s="6"/>
       <c r="BA18" s="6"/>
-      <c r="BE18" s="25"/>
-      <c r="BF18" s="30"/>
+      <c r="BF18" s="25"/>
       <c r="BG18" s="30"/>
       <c r="BH18" s="30"/>
       <c r="BI18" s="30"/>
@@ -3293,10 +3489,10 @@
       <c r="BK18" s="30"/>
       <c r="BL18" s="30"/>
       <c r="BM18" s="30"/>
-      <c r="BN18" s="23"/>
-      <c r="BO18" s="23"/>
-      <c r="BP18" s="23"/>
-      <c r="BQ18" s="23"/>
+      <c r="BN18" s="30"/>
+      <c r="BO18" s="30"/>
+      <c r="BP18" s="30"/>
+      <c r="BQ18" s="30"/>
       <c r="BR18" s="23"/>
       <c r="BS18" s="23"/>
       <c r="BT18" s="23"/>
@@ -3317,7 +3513,9 @@
       <c r="CI18" s="23"/>
       <c r="CJ18" s="23"/>
       <c r="CK18" s="23"/>
-      <c r="CL18" s="24"/>
+      <c r="CL18" s="23"/>
+      <c r="CM18" s="23"/>
+      <c r="CN18" s="24"/>
       <c r="CP18" s="6"/>
       <c r="CQ18" s="6"/>
       <c r="CW18" s="6"/>
@@ -3332,28 +3530,30 @@
       <c r="DZ18" s="6"/>
       <c r="EF18" s="6"/>
       <c r="EG18" s="6"/>
-    </row>
-    <row r="19" spans="1:137" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="EM18" s="6"/>
+      <c r="EN18" s="6"/>
+    </row>
+    <row r="19" spans="1:144" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>18</v>
       </c>
       <c r="B19" s="17" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>92</v>
+        <v>65</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="H19" s="1">
         <v>15</v>
@@ -3363,6 +3563,8 @@
       </c>
       <c r="J19" s="6"/>
       <c r="K19" s="6"/>
+      <c r="N19" s="6"/>
+      <c r="O19" s="6"/>
       <c r="Q19" s="6"/>
       <c r="R19" s="6"/>
       <c r="X19" s="6"/>
@@ -3375,17 +3577,18 @@
       <c r="AT19" s="6"/>
       <c r="AZ19" s="6"/>
       <c r="BA19" s="6"/>
-      <c r="BE19" s="27"/>
-      <c r="BF19" s="28"/>
+      <c r="BF19" s="27"/>
       <c r="BG19" s="28"/>
       <c r="BH19" s="28"/>
       <c r="BI19" s="28"/>
       <c r="BJ19" s="28"/>
       <c r="BK19" s="28"/>
       <c r="BL19" s="28"/>
-      <c r="BM19" s="29"/>
-      <c r="BN19" s="6"/>
-      <c r="BO19" s="6"/>
+      <c r="BM19" s="28"/>
+      <c r="BN19" s="28"/>
+      <c r="BO19" s="28"/>
+      <c r="BP19" s="28"/>
+      <c r="BQ19" s="31"/>
       <c r="BU19" s="6"/>
       <c r="BV19" s="6"/>
       <c r="CB19" s="6"/>
@@ -3406,25 +3609,27 @@
       <c r="DZ19" s="6"/>
       <c r="EF19" s="6"/>
       <c r="EG19" s="6"/>
-    </row>
-    <row r="20" spans="1:137" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="EM19" s="6"/>
+      <c r="EN19" s="6"/>
+    </row>
+    <row r="20" spans="1:144" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>19</v>
       </c>
       <c r="B20" s="17" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="G20" s="1"/>
       <c r="H20" s="1">
@@ -3435,6 +3640,8 @@
       </c>
       <c r="J20" s="6"/>
       <c r="K20" s="6"/>
+      <c r="N20" s="6"/>
+      <c r="O20" s="6"/>
       <c r="Q20" s="6"/>
       <c r="R20" s="6"/>
       <c r="X20" s="6"/>
@@ -3451,7 +3658,8 @@
       <c r="BH20" s="6"/>
       <c r="BN20" s="6"/>
       <c r="BO20" s="6"/>
-      <c r="BP20" s="34"/>
+      <c r="BQ20" s="32"/>
+      <c r="BR20" s="31"/>
       <c r="BU20" s="6"/>
       <c r="BV20" s="6"/>
       <c r="CB20" s="6"/>
@@ -3472,25 +3680,27 @@
       <c r="DZ20" s="6"/>
       <c r="EF20" s="6"/>
       <c r="EG20" s="6"/>
-    </row>
-    <row r="21" spans="1:137" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="EM20" s="6"/>
+      <c r="EN20" s="6"/>
+    </row>
+    <row r="21" spans="1:144" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <v>20</v>
       </c>
       <c r="B21" s="18" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>92</v>
+        <v>65</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="G21" s="2"/>
       <c r="H21" s="2"/>
@@ -3499,6 +3709,8 @@
       </c>
       <c r="J21" s="6"/>
       <c r="K21" s="6"/>
+      <c r="N21" s="6"/>
+      <c r="O21" s="6"/>
       <c r="Q21" s="6"/>
       <c r="R21" s="6"/>
       <c r="X21" s="6"/>
@@ -3511,40 +3723,41 @@
       <c r="AT21" s="6"/>
       <c r="AZ21" s="6"/>
       <c r="BA21" s="6"/>
-      <c r="BE21" s="31"/>
       <c r="BF21" s="32"/>
-      <c r="BG21" s="32"/>
-      <c r="BH21" s="32"/>
-      <c r="BI21" s="32"/>
-      <c r="BJ21" s="32"/>
-      <c r="BK21" s="32"/>
-      <c r="BL21" s="32"/>
-      <c r="BM21" s="32"/>
-      <c r="BN21" s="32"/>
-      <c r="BO21" s="32"/>
-      <c r="BP21" s="32"/>
-      <c r="BQ21" s="32"/>
-      <c r="BR21" s="32"/>
-      <c r="BS21" s="32"/>
-      <c r="BT21" s="32"/>
-      <c r="BU21" s="32"/>
-      <c r="BV21" s="32"/>
-      <c r="BW21" s="32"/>
-      <c r="BX21" s="32"/>
-      <c r="BY21" s="32"/>
-      <c r="BZ21" s="32"/>
-      <c r="CA21" s="32"/>
-      <c r="CB21" s="32"/>
-      <c r="CC21" s="32"/>
-      <c r="CD21" s="32"/>
-      <c r="CE21" s="32"/>
-      <c r="CF21" s="32"/>
-      <c r="CG21" s="32"/>
-      <c r="CH21" s="32"/>
-      <c r="CI21" s="28"/>
-      <c r="CJ21" s="28"/>
-      <c r="CK21" s="28"/>
-      <c r="CL21" s="29"/>
+      <c r="BG21" s="33"/>
+      <c r="BH21" s="33"/>
+      <c r="BI21" s="33"/>
+      <c r="BJ21" s="33"/>
+      <c r="BK21" s="33"/>
+      <c r="BL21" s="33"/>
+      <c r="BM21" s="33"/>
+      <c r="BN21" s="33"/>
+      <c r="BO21" s="33"/>
+      <c r="BP21" s="33"/>
+      <c r="BQ21" s="33"/>
+      <c r="BR21" s="33"/>
+      <c r="BS21" s="33"/>
+      <c r="BT21" s="33"/>
+      <c r="BU21" s="33"/>
+      <c r="BV21" s="33"/>
+      <c r="BW21" s="33"/>
+      <c r="BX21" s="33"/>
+      <c r="BY21" s="33"/>
+      <c r="BZ21" s="33"/>
+      <c r="CA21" s="33"/>
+      <c r="CB21" s="33"/>
+      <c r="CC21" s="33"/>
+      <c r="CD21" s="33"/>
+      <c r="CE21" s="33"/>
+      <c r="CF21" s="33"/>
+      <c r="CG21" s="33"/>
+      <c r="CH21" s="33"/>
+      <c r="CI21" s="33"/>
+      <c r="CJ21" s="33"/>
+      <c r="CK21" s="33"/>
+      <c r="CL21" s="33"/>
+      <c r="CM21" s="28"/>
+      <c r="CN21" s="29"/>
       <c r="CP21" s="6"/>
       <c r="CQ21" s="6"/>
       <c r="CW21" s="6"/>
@@ -3559,25 +3772,27 @@
       <c r="DZ21" s="6"/>
       <c r="EF21" s="6"/>
       <c r="EG21" s="6"/>
-    </row>
-    <row r="22" spans="1:137" outlineLevel="3" x14ac:dyDescent="0.3">
+      <c r="EM21" s="6"/>
+      <c r="EN21" s="6"/>
+    </row>
+    <row r="22" spans="1:144" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <v>21</v>
       </c>
       <c r="B22" s="18" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>92</v>
+        <v>65</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="G22" s="2"/>
       <c r="H22" s="2"/>
@@ -3586,6 +3801,8 @@
       </c>
       <c r="J22" s="6"/>
       <c r="K22" s="6"/>
+      <c r="N22" s="6"/>
+      <c r="O22" s="6"/>
       <c r="Q22" s="6"/>
       <c r="R22" s="6"/>
       <c r="X22" s="6"/>
@@ -3598,38 +3815,39 @@
       <c r="AT22" s="6"/>
       <c r="AZ22" s="6"/>
       <c r="BA22" s="6"/>
-      <c r="BE22" s="38"/>
-      <c r="BF22" s="39"/>
-      <c r="BG22" s="39"/>
-      <c r="BH22" s="39"/>
-      <c r="BI22" s="39"/>
-      <c r="BJ22" s="39"/>
-      <c r="BK22" s="39"/>
-      <c r="BL22" s="39"/>
-      <c r="BM22" s="39"/>
-      <c r="BN22" s="39"/>
-      <c r="BO22" s="39"/>
-      <c r="BP22" s="39"/>
-      <c r="BQ22" s="39"/>
-      <c r="BR22" s="39"/>
-      <c r="BS22" s="39"/>
-      <c r="BT22" s="39"/>
-      <c r="BU22" s="39"/>
-      <c r="BV22" s="39"/>
-      <c r="BW22" s="39"/>
-      <c r="BX22" s="36"/>
-      <c r="BY22" s="36"/>
-      <c r="BZ22" s="36"/>
-      <c r="CA22" s="36"/>
-      <c r="CB22" s="36"/>
-      <c r="CC22" s="36"/>
-      <c r="CD22" s="36"/>
-      <c r="CE22" s="36"/>
-      <c r="CF22" s="36"/>
-      <c r="CG22" s="36"/>
-      <c r="CH22" s="37"/>
-      <c r="CI22" s="6"/>
-      <c r="CJ22" s="6"/>
+      <c r="BF22" s="37"/>
+      <c r="BG22" s="38"/>
+      <c r="BH22" s="38"/>
+      <c r="BI22" s="38"/>
+      <c r="BJ22" s="38"/>
+      <c r="BK22" s="38"/>
+      <c r="BL22" s="38"/>
+      <c r="BM22" s="38"/>
+      <c r="BN22" s="38"/>
+      <c r="BO22" s="38"/>
+      <c r="BP22" s="38"/>
+      <c r="BQ22" s="38"/>
+      <c r="BR22" s="38"/>
+      <c r="BS22" s="38"/>
+      <c r="BT22" s="38"/>
+      <c r="BU22" s="38"/>
+      <c r="BV22" s="38"/>
+      <c r="BW22" s="38"/>
+      <c r="BX22" s="38"/>
+      <c r="BY22" s="38"/>
+      <c r="BZ22" s="35"/>
+      <c r="CA22" s="35"/>
+      <c r="CB22" s="35"/>
+      <c r="CC22" s="35"/>
+      <c r="CD22" s="35"/>
+      <c r="CE22" s="35"/>
+      <c r="CF22" s="35"/>
+      <c r="CG22" s="35"/>
+      <c r="CH22" s="35"/>
+      <c r="CI22" s="35"/>
+      <c r="CJ22" s="35"/>
+      <c r="CK22" s="35"/>
+      <c r="CL22" s="36"/>
       <c r="CP22" s="6"/>
       <c r="CQ22" s="6"/>
       <c r="CW22" s="6"/>
@@ -3644,25 +3862,27 @@
       <c r="DZ22" s="6"/>
       <c r="EF22" s="6"/>
       <c r="EG22" s="6"/>
-    </row>
-    <row r="23" spans="1:137" outlineLevel="4" x14ac:dyDescent="0.3">
+      <c r="EM22" s="6"/>
+      <c r="EN22" s="6"/>
+    </row>
+    <row r="23" spans="1:144" outlineLevel="4" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
         <v>22</v>
       </c>
       <c r="B23" s="18" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>92</v>
+        <v>65</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="G23" s="2"/>
       <c r="H23" s="2"/>
@@ -3671,6 +3891,8 @@
       </c>
       <c r="J23" s="6"/>
       <c r="K23" s="6"/>
+      <c r="N23" s="6"/>
+      <c r="O23" s="6"/>
       <c r="Q23" s="6"/>
       <c r="R23" s="6"/>
       <c r="X23" s="6"/>
@@ -3683,25 +3905,26 @@
       <c r="AT23" s="6"/>
       <c r="AZ23" s="6"/>
       <c r="BA23" s="6"/>
-      <c r="BE23" s="38"/>
-      <c r="BF23" s="39"/>
-      <c r="BG23" s="39"/>
-      <c r="BH23" s="39"/>
-      <c r="BI23" s="39"/>
-      <c r="BJ23" s="39"/>
-      <c r="BK23" s="39"/>
-      <c r="BL23" s="39"/>
-      <c r="BM23" s="39"/>
-      <c r="BN23" s="39"/>
-      <c r="BO23" s="39"/>
-      <c r="BP23" s="39"/>
-      <c r="BQ23" s="39"/>
-      <c r="BR23" s="39"/>
-      <c r="BS23" s="36"/>
-      <c r="BT23" s="36"/>
-      <c r="BU23" s="36"/>
-      <c r="BV23" s="36"/>
-      <c r="BW23" s="37"/>
+      <c r="BF23" s="37"/>
+      <c r="BG23" s="38"/>
+      <c r="BH23" s="38"/>
+      <c r="BI23" s="38"/>
+      <c r="BJ23" s="38"/>
+      <c r="BK23" s="38"/>
+      <c r="BL23" s="38"/>
+      <c r="BM23" s="38"/>
+      <c r="BN23" s="38"/>
+      <c r="BO23" s="38"/>
+      <c r="BP23" s="38"/>
+      <c r="BQ23" s="38"/>
+      <c r="BR23" s="38"/>
+      <c r="BS23" s="38"/>
+      <c r="BT23" s="38"/>
+      <c r="BU23" s="35"/>
+      <c r="BV23" s="35"/>
+      <c r="BW23" s="35"/>
+      <c r="BX23" s="35"/>
+      <c r="BY23" s="36"/>
       <c r="CB23" s="6"/>
       <c r="CC23" s="6"/>
       <c r="CI23" s="6"/>
@@ -3720,28 +3943,30 @@
       <c r="DZ23" s="6"/>
       <c r="EF23" s="6"/>
       <c r="EG23" s="6"/>
-    </row>
-    <row r="24" spans="1:137" outlineLevel="5" x14ac:dyDescent="0.3">
+      <c r="EM23" s="6"/>
+      <c r="EN23" s="6"/>
+    </row>
+    <row r="24" spans="1:144" outlineLevel="5" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>23</v>
       </c>
       <c r="B24" s="17" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>92</v>
+        <v>65</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="F24" s="1" t="s">
         <v>70</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="H24" s="1">
         <v>15</v>
@@ -3751,6 +3976,8 @@
       </c>
       <c r="J24" s="6"/>
       <c r="K24" s="6"/>
+      <c r="N24" s="6"/>
+      <c r="O24" s="6"/>
       <c r="Q24" s="6"/>
       <c r="R24" s="6"/>
       <c r="X24" s="6"/>
@@ -3763,20 +3990,21 @@
       <c r="AT24" s="6"/>
       <c r="AZ24" s="6"/>
       <c r="BA24" s="6"/>
-      <c r="BE24" s="35"/>
-      <c r="BF24" s="36"/>
-      <c r="BG24" s="36"/>
-      <c r="BH24" s="36"/>
-      <c r="BI24" s="36"/>
-      <c r="BJ24" s="36"/>
-      <c r="BK24" s="36"/>
-      <c r="BL24" s="36"/>
-      <c r="BM24" s="36"/>
-      <c r="BN24" s="36"/>
-      <c r="BO24" s="36"/>
-      <c r="BP24" s="36"/>
-      <c r="BQ24" s="36"/>
-      <c r="BR24" s="37"/>
+      <c r="BF24" s="34"/>
+      <c r="BG24" s="35"/>
+      <c r="BH24" s="35"/>
+      <c r="BI24" s="35"/>
+      <c r="BJ24" s="35"/>
+      <c r="BK24" s="35"/>
+      <c r="BL24" s="35"/>
+      <c r="BM24" s="35"/>
+      <c r="BN24" s="35"/>
+      <c r="BO24" s="35"/>
+      <c r="BP24" s="35"/>
+      <c r="BQ24" s="35"/>
+      <c r="BR24" s="35"/>
+      <c r="BS24" s="35"/>
+      <c r="BT24" s="39"/>
       <c r="BU24" s="6"/>
       <c r="BV24" s="6"/>
       <c r="CB24" s="6"/>
@@ -3797,28 +4025,30 @@
       <c r="DZ24" s="6"/>
       <c r="EF24" s="6"/>
       <c r="EG24" s="6"/>
-    </row>
-    <row r="25" spans="1:137" outlineLevel="5" x14ac:dyDescent="0.3">
+      <c r="EM24" s="6"/>
+      <c r="EN24" s="6"/>
+    </row>
+    <row r="25" spans="1:144" outlineLevel="5" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>24</v>
       </c>
       <c r="B25" s="17" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="H25" s="1">
         <v>23</v>
@@ -3828,6 +4058,8 @@
       </c>
       <c r="J25" s="6"/>
       <c r="K25" s="6"/>
+      <c r="N25" s="6"/>
+      <c r="O25" s="6"/>
       <c r="Q25" s="6"/>
       <c r="R25" s="6"/>
       <c r="X25" s="6"/>
@@ -3844,11 +4076,12 @@
       <c r="BH25" s="6"/>
       <c r="BN25" s="6"/>
       <c r="BO25" s="6"/>
-      <c r="BS25" s="35"/>
-      <c r="BT25" s="36"/>
-      <c r="BU25" s="36"/>
-      <c r="BV25" s="36"/>
-      <c r="BW25" s="37"/>
+      <c r="BT25" s="34"/>
+      <c r="BU25" s="35"/>
+      <c r="BV25" s="35"/>
+      <c r="BW25" s="35"/>
+      <c r="BX25" s="35"/>
+      <c r="BY25" s="39"/>
       <c r="CB25" s="6"/>
       <c r="CC25" s="6"/>
       <c r="CI25" s="6"/>
@@ -3867,25 +4100,27 @@
       <c r="DZ25" s="6"/>
       <c r="EF25" s="6"/>
       <c r="EG25" s="6"/>
-    </row>
-    <row r="26" spans="1:137" outlineLevel="4" x14ac:dyDescent="0.3">
+      <c r="EM25" s="6"/>
+      <c r="EN25" s="6"/>
+    </row>
+    <row r="26" spans="1:144" outlineLevel="4" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
         <v>25</v>
       </c>
       <c r="B26" s="18" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>124</v>
+        <v>108</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="G26" s="2"/>
       <c r="H26" s="2"/>
@@ -3894,6 +4129,8 @@
       </c>
       <c r="J26" s="6"/>
       <c r="K26" s="6"/>
+      <c r="N26" s="6"/>
+      <c r="O26" s="6"/>
       <c r="Q26" s="6"/>
       <c r="R26" s="6"/>
       <c r="X26" s="6"/>
@@ -3912,19 +4149,20 @@
       <c r="BO26" s="6"/>
       <c r="BU26" s="6"/>
       <c r="BV26" s="6"/>
-      <c r="BX26" s="38"/>
-      <c r="BY26" s="39"/>
-      <c r="BZ26" s="39"/>
-      <c r="CA26" s="39"/>
-      <c r="CB26" s="39"/>
-      <c r="CC26" s="39"/>
-      <c r="CD26" s="39"/>
-      <c r="CE26" s="39"/>
-      <c r="CF26" s="39"/>
-      <c r="CG26" s="36"/>
-      <c r="CH26" s="37"/>
-      <c r="CI26" s="6"/>
-      <c r="CJ26" s="6"/>
+      <c r="BY26" s="37"/>
+      <c r="BZ26" s="38"/>
+      <c r="CA26" s="38"/>
+      <c r="CB26" s="38"/>
+      <c r="CC26" s="38"/>
+      <c r="CD26" s="38"/>
+      <c r="CE26" s="38"/>
+      <c r="CF26" s="38"/>
+      <c r="CG26" s="38"/>
+      <c r="CH26" s="38"/>
+      <c r="CI26" s="35"/>
+      <c r="CJ26" s="35"/>
+      <c r="CK26" s="35"/>
+      <c r="CL26" s="36"/>
       <c r="CP26" s="6"/>
       <c r="CQ26" s="6"/>
       <c r="CW26" s="6"/>
@@ -3939,28 +4177,30 @@
       <c r="DZ26" s="6"/>
       <c r="EF26" s="6"/>
       <c r="EG26" s="6"/>
-    </row>
-    <row r="27" spans="1:137" outlineLevel="5" x14ac:dyDescent="0.3">
+      <c r="EM26" s="6"/>
+      <c r="EN26" s="6"/>
+    </row>
+    <row r="27" spans="1:144" outlineLevel="5" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>26</v>
       </c>
       <c r="B27" s="17" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>124</v>
+        <v>108</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="H27" s="1">
         <v>24</v>
@@ -3970,6 +4210,8 @@
       </c>
       <c r="J27" s="6"/>
       <c r="K27" s="6"/>
+      <c r="N27" s="6"/>
+      <c r="O27" s="6"/>
       <c r="Q27" s="6"/>
       <c r="R27" s="6"/>
       <c r="X27" s="6"/>
@@ -3988,15 +4230,16 @@
       <c r="BO27" s="6"/>
       <c r="BU27" s="6"/>
       <c r="BV27" s="6"/>
-      <c r="BX27" s="35"/>
-      <c r="BY27" s="36"/>
-      <c r="BZ27" s="36"/>
-      <c r="CA27" s="36"/>
-      <c r="CB27" s="36"/>
-      <c r="CC27" s="36"/>
-      <c r="CD27" s="36"/>
-      <c r="CE27" s="36"/>
-      <c r="CF27" s="37"/>
+      <c r="BY27" s="34"/>
+      <c r="BZ27" s="35"/>
+      <c r="CA27" s="35"/>
+      <c r="CB27" s="35"/>
+      <c r="CC27" s="35"/>
+      <c r="CD27" s="35"/>
+      <c r="CE27" s="35"/>
+      <c r="CF27" s="35"/>
+      <c r="CG27" s="35"/>
+      <c r="CH27" s="39"/>
       <c r="CI27" s="6"/>
       <c r="CJ27" s="6"/>
       <c r="CP27" s="6"/>
@@ -4013,28 +4256,30 @@
       <c r="DZ27" s="6"/>
       <c r="EF27" s="6"/>
       <c r="EG27" s="6"/>
-    </row>
-    <row r="28" spans="1:137" outlineLevel="5" x14ac:dyDescent="0.3">
+      <c r="EM27" s="6"/>
+      <c r="EN27" s="6"/>
+    </row>
+    <row r="28" spans="1:144" outlineLevel="5" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>27</v>
       </c>
       <c r="B28" s="17" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="H28" s="1">
         <v>26</v>
@@ -4044,6 +4289,8 @@
       </c>
       <c r="J28" s="6"/>
       <c r="K28" s="6"/>
+      <c r="N28" s="6"/>
+      <c r="O28" s="6"/>
       <c r="Q28" s="6"/>
       <c r="R28" s="6"/>
       <c r="X28" s="6"/>
@@ -4064,10 +4311,11 @@
       <c r="BV28" s="6"/>
       <c r="CB28" s="6"/>
       <c r="CC28" s="6"/>
-      <c r="CG28" s="38"/>
-      <c r="CH28" s="40"/>
-      <c r="CI28" s="6"/>
-      <c r="CJ28" s="6"/>
+      <c r="CH28" s="37"/>
+      <c r="CI28" s="38"/>
+      <c r="CJ28" s="38"/>
+      <c r="CK28" s="38"/>
+      <c r="CL28" s="39"/>
       <c r="CP28" s="6"/>
       <c r="CQ28" s="6"/>
       <c r="CW28" s="6"/>
@@ -4082,25 +4330,27 @@
       <c r="DZ28" s="6"/>
       <c r="EF28" s="6"/>
       <c r="EG28" s="6"/>
-    </row>
-    <row r="29" spans="1:137" outlineLevel="3" x14ac:dyDescent="0.3">
+      <c r="EM28" s="6"/>
+      <c r="EN28" s="6"/>
+    </row>
+    <row r="29" spans="1:144" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
         <v>28</v>
       </c>
       <c r="B29" s="18" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>92</v>
+        <v>65</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="G29" s="2"/>
       <c r="H29" s="2"/>
@@ -4109,6 +4359,8 @@
       </c>
       <c r="J29" s="6"/>
       <c r="K29" s="6"/>
+      <c r="N29" s="6"/>
+      <c r="O29" s="6"/>
       <c r="Q29" s="6"/>
       <c r="R29" s="6"/>
       <c r="X29" s="6"/>
@@ -4121,40 +4373,41 @@
       <c r="AT29" s="6"/>
       <c r="AZ29" s="6"/>
       <c r="BA29" s="6"/>
-      <c r="BE29" s="38"/>
-      <c r="BF29" s="39"/>
-      <c r="BG29" s="39"/>
-      <c r="BH29" s="39"/>
-      <c r="BI29" s="39"/>
-      <c r="BJ29" s="39"/>
-      <c r="BK29" s="39"/>
-      <c r="BL29" s="39"/>
-      <c r="BM29" s="39"/>
-      <c r="BN29" s="39"/>
-      <c r="BO29" s="39"/>
-      <c r="BP29" s="39"/>
-      <c r="BQ29" s="39"/>
-      <c r="BR29" s="36"/>
-      <c r="BS29" s="36"/>
-      <c r="BT29" s="36"/>
-      <c r="BU29" s="36"/>
-      <c r="BV29" s="36"/>
-      <c r="BW29" s="36"/>
-      <c r="BX29" s="36"/>
-      <c r="BY29" s="36"/>
-      <c r="BZ29" s="36"/>
-      <c r="CA29" s="36"/>
-      <c r="CB29" s="36"/>
-      <c r="CC29" s="36"/>
-      <c r="CD29" s="36"/>
-      <c r="CE29" s="36"/>
-      <c r="CF29" s="36"/>
-      <c r="CG29" s="36"/>
-      <c r="CH29" s="36"/>
-      <c r="CI29" s="36"/>
-      <c r="CJ29" s="36"/>
-      <c r="CK29" s="36"/>
-      <c r="CL29" s="37"/>
+      <c r="BF29" s="37"/>
+      <c r="BG29" s="38"/>
+      <c r="BH29" s="38"/>
+      <c r="BI29" s="38"/>
+      <c r="BJ29" s="38"/>
+      <c r="BK29" s="38"/>
+      <c r="BL29" s="38"/>
+      <c r="BM29" s="38"/>
+      <c r="BN29" s="38"/>
+      <c r="BO29" s="38"/>
+      <c r="BP29" s="38"/>
+      <c r="BQ29" s="38"/>
+      <c r="BR29" s="38"/>
+      <c r="BS29" s="38"/>
+      <c r="BT29" s="35"/>
+      <c r="BU29" s="35"/>
+      <c r="BV29" s="35"/>
+      <c r="BW29" s="35"/>
+      <c r="BX29" s="35"/>
+      <c r="BY29" s="35"/>
+      <c r="BZ29" s="35"/>
+      <c r="CA29" s="35"/>
+      <c r="CB29" s="35"/>
+      <c r="CC29" s="35"/>
+      <c r="CD29" s="35"/>
+      <c r="CE29" s="35"/>
+      <c r="CF29" s="35"/>
+      <c r="CG29" s="35"/>
+      <c r="CH29" s="35"/>
+      <c r="CI29" s="35"/>
+      <c r="CJ29" s="35"/>
+      <c r="CK29" s="35"/>
+      <c r="CL29" s="35"/>
+      <c r="CM29" s="35"/>
+      <c r="CN29" s="36"/>
       <c r="CP29" s="6"/>
       <c r="CQ29" s="6"/>
       <c r="CW29" s="6"/>
@@ -4169,25 +4422,27 @@
       <c r="DZ29" s="6"/>
       <c r="EF29" s="6"/>
       <c r="EG29" s="6"/>
-    </row>
-    <row r="30" spans="1:137" outlineLevel="4" x14ac:dyDescent="0.3">
+      <c r="EM29" s="6"/>
+      <c r="EN29" s="6"/>
+    </row>
+    <row r="30" spans="1:144" outlineLevel="4" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
         <v>29</v>
       </c>
       <c r="B30" s="18" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>92</v>
+        <v>65</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="G30" s="2"/>
       <c r="H30" s="2"/>
@@ -4196,6 +4451,8 @@
       </c>
       <c r="J30" s="6"/>
       <c r="K30" s="6"/>
+      <c r="N30" s="6"/>
+      <c r="O30" s="6"/>
       <c r="Q30" s="6"/>
       <c r="R30" s="6"/>
       <c r="X30" s="6"/>
@@ -4208,19 +4465,20 @@
       <c r="AT30" s="6"/>
       <c r="AZ30" s="6"/>
       <c r="BA30" s="6"/>
-      <c r="BE30" s="38"/>
-      <c r="BF30" s="39"/>
-      <c r="BG30" s="39"/>
-      <c r="BH30" s="39"/>
-      <c r="BI30" s="39"/>
-      <c r="BJ30" s="39"/>
-      <c r="BK30" s="39"/>
-      <c r="BL30" s="39"/>
-      <c r="BM30" s="39"/>
-      <c r="BN30" s="39"/>
-      <c r="BO30" s="39"/>
-      <c r="BP30" s="39"/>
-      <c r="BQ30" s="37"/>
+      <c r="BF30" s="37"/>
+      <c r="BG30" s="38"/>
+      <c r="BH30" s="38"/>
+      <c r="BI30" s="38"/>
+      <c r="BJ30" s="38"/>
+      <c r="BK30" s="38"/>
+      <c r="BL30" s="38"/>
+      <c r="BM30" s="38"/>
+      <c r="BN30" s="38"/>
+      <c r="BO30" s="38"/>
+      <c r="BP30" s="38"/>
+      <c r="BQ30" s="38"/>
+      <c r="BR30" s="38"/>
+      <c r="BS30" s="36"/>
       <c r="BU30" s="6"/>
       <c r="BV30" s="6"/>
       <c r="CB30" s="6"/>
@@ -4241,28 +4499,30 @@
       <c r="DZ30" s="6"/>
       <c r="EF30" s="6"/>
       <c r="EG30" s="6"/>
-    </row>
-    <row r="31" spans="1:137" outlineLevel="5" x14ac:dyDescent="0.3">
+      <c r="EM30" s="6"/>
+      <c r="EN30" s="6"/>
+    </row>
+    <row r="31" spans="1:144" outlineLevel="5" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>30</v>
       </c>
       <c r="B31" s="17" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>92</v>
+        <v>65</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="H31" s="1">
         <v>15</v>
@@ -4272,6 +4532,8 @@
       </c>
       <c r="J31" s="6"/>
       <c r="K31" s="6"/>
+      <c r="N31" s="6"/>
+      <c r="O31" s="6"/>
       <c r="Q31" s="6"/>
       <c r="R31" s="6"/>
       <c r="X31" s="6"/>
@@ -4284,18 +4546,19 @@
       <c r="AT31" s="6"/>
       <c r="AZ31" s="6"/>
       <c r="BA31" s="6"/>
-      <c r="BE31" s="35"/>
-      <c r="BF31" s="36"/>
-      <c r="BG31" s="36"/>
-      <c r="BH31" s="36"/>
-      <c r="BI31" s="36"/>
-      <c r="BJ31" s="36"/>
-      <c r="BK31" s="36"/>
-      <c r="BL31" s="36"/>
-      <c r="BM31" s="36"/>
-      <c r="BN31" s="36"/>
-      <c r="BO31" s="36"/>
-      <c r="BP31" s="37"/>
+      <c r="BF31" s="34"/>
+      <c r="BG31" s="35"/>
+      <c r="BH31" s="35"/>
+      <c r="BI31" s="35"/>
+      <c r="BJ31" s="35"/>
+      <c r="BK31" s="35"/>
+      <c r="BL31" s="35"/>
+      <c r="BM31" s="35"/>
+      <c r="BN31" s="35"/>
+      <c r="BO31" s="35"/>
+      <c r="BP31" s="35"/>
+      <c r="BQ31" s="35"/>
+      <c r="BR31" s="39"/>
       <c r="BU31" s="6"/>
       <c r="BV31" s="6"/>
       <c r="CB31" s="6"/>
@@ -4316,28 +4579,30 @@
       <c r="DZ31" s="6"/>
       <c r="EF31" s="6"/>
       <c r="EG31" s="6"/>
-    </row>
-    <row r="32" spans="1:137" outlineLevel="5" x14ac:dyDescent="0.3">
+      <c r="EM31" s="6"/>
+      <c r="EN31" s="6"/>
+    </row>
+    <row r="32" spans="1:144" outlineLevel="5" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>31</v>
       </c>
       <c r="B32" s="17" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="H32" s="1">
         <v>30</v>
@@ -4347,6 +4612,8 @@
       </c>
       <c r="J32" s="6"/>
       <c r="K32" s="6"/>
+      <c r="N32" s="6"/>
+      <c r="O32" s="6"/>
       <c r="Q32" s="6"/>
       <c r="R32" s="6"/>
       <c r="X32" s="6"/>
@@ -4363,7 +4630,8 @@
       <c r="BH32" s="6"/>
       <c r="BN32" s="6"/>
       <c r="BO32" s="6"/>
-      <c r="BQ32" s="41"/>
+      <c r="BR32" s="34"/>
+      <c r="BS32" s="39"/>
       <c r="BU32" s="6"/>
       <c r="BV32" s="6"/>
       <c r="CB32" s="6"/>
@@ -4384,25 +4652,27 @@
       <c r="DZ32" s="6"/>
       <c r="EF32" s="6"/>
       <c r="EG32" s="6"/>
-    </row>
-    <row r="33" spans="1:142" outlineLevel="4" x14ac:dyDescent="0.3">
+      <c r="EM32" s="6"/>
+      <c r="EN32" s="6"/>
+    </row>
+    <row r="33" spans="1:146" outlineLevel="4" x14ac:dyDescent="0.3">
       <c r="A33" s="2">
         <v>32</v>
       </c>
       <c r="B33" s="18" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>116</v>
+        <v>129</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="G33" s="2"/>
       <c r="H33" s="2"/>
@@ -4411,6 +4681,8 @@
       </c>
       <c r="J33" s="6"/>
       <c r="K33" s="6"/>
+      <c r="N33" s="6"/>
+      <c r="O33" s="6"/>
       <c r="Q33" s="6"/>
       <c r="R33" s="6"/>
       <c r="X33" s="6"/>
@@ -4427,27 +4699,28 @@
       <c r="BH33" s="6"/>
       <c r="BN33" s="6"/>
       <c r="BO33" s="6"/>
-      <c r="BR33" s="38"/>
-      <c r="BS33" s="39"/>
-      <c r="BT33" s="39"/>
-      <c r="BU33" s="39"/>
-      <c r="BV33" s="39"/>
-      <c r="BW33" s="39"/>
-      <c r="BX33" s="39"/>
-      <c r="BY33" s="39"/>
-      <c r="BZ33" s="39"/>
-      <c r="CA33" s="39"/>
-      <c r="CB33" s="39"/>
-      <c r="CC33" s="39"/>
-      <c r="CD33" s="39"/>
-      <c r="CE33" s="39"/>
-      <c r="CF33" s="39"/>
-      <c r="CG33" s="39"/>
-      <c r="CH33" s="36"/>
-      <c r="CI33" s="36"/>
-      <c r="CJ33" s="36"/>
-      <c r="CK33" s="36"/>
-      <c r="CL33" s="37"/>
+      <c r="BS33" s="37"/>
+      <c r="BT33" s="38"/>
+      <c r="BU33" s="38"/>
+      <c r="BV33" s="38"/>
+      <c r="BW33" s="38"/>
+      <c r="BX33" s="38"/>
+      <c r="BY33" s="38"/>
+      <c r="BZ33" s="38"/>
+      <c r="CA33" s="38"/>
+      <c r="CB33" s="38"/>
+      <c r="CC33" s="38"/>
+      <c r="CD33" s="38"/>
+      <c r="CE33" s="38"/>
+      <c r="CF33" s="38"/>
+      <c r="CG33" s="38"/>
+      <c r="CH33" s="38"/>
+      <c r="CI33" s="38"/>
+      <c r="CJ33" s="38"/>
+      <c r="CK33" s="38"/>
+      <c r="CL33" s="35"/>
+      <c r="CM33" s="35"/>
+      <c r="CN33" s="36"/>
       <c r="CP33" s="6"/>
       <c r="CQ33" s="6"/>
       <c r="CW33" s="6"/>
@@ -4462,28 +4735,30 @@
       <c r="DZ33" s="6"/>
       <c r="EF33" s="6"/>
       <c r="EG33" s="6"/>
-    </row>
-    <row r="34" spans="1:142" outlineLevel="5" x14ac:dyDescent="0.3">
+      <c r="EM33" s="6"/>
+      <c r="EN33" s="6"/>
+    </row>
+    <row r="34" spans="1:146" outlineLevel="5" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>33</v>
       </c>
       <c r="B34" s="17" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>116</v>
+        <v>129</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="H34" s="1">
         <v>31</v>
@@ -4493,6 +4768,8 @@
       </c>
       <c r="J34" s="6"/>
       <c r="K34" s="6"/>
+      <c r="N34" s="6"/>
+      <c r="O34" s="6"/>
       <c r="Q34" s="6"/>
       <c r="R34" s="6"/>
       <c r="X34" s="6"/>
@@ -4509,24 +4786,25 @@
       <c r="BH34" s="6"/>
       <c r="BN34" s="6"/>
       <c r="BO34" s="6"/>
-      <c r="BR34" s="35"/>
-      <c r="BS34" s="36"/>
-      <c r="BT34" s="36"/>
-      <c r="BU34" s="36"/>
-      <c r="BV34" s="36"/>
-      <c r="BW34" s="36"/>
-      <c r="BX34" s="36"/>
-      <c r="BY34" s="36"/>
-      <c r="BZ34" s="36"/>
-      <c r="CA34" s="36"/>
-      <c r="CB34" s="36"/>
-      <c r="CC34" s="36"/>
-      <c r="CD34" s="36"/>
-      <c r="CE34" s="36"/>
-      <c r="CF34" s="36"/>
-      <c r="CG34" s="37"/>
-      <c r="CI34" s="6"/>
-      <c r="CJ34" s="6"/>
+      <c r="BS34" s="34"/>
+      <c r="BT34" s="35"/>
+      <c r="BU34" s="35"/>
+      <c r="BV34" s="35"/>
+      <c r="BW34" s="35"/>
+      <c r="BX34" s="35"/>
+      <c r="BY34" s="35"/>
+      <c r="BZ34" s="35"/>
+      <c r="CA34" s="35"/>
+      <c r="CB34" s="35"/>
+      <c r="CC34" s="35"/>
+      <c r="CD34" s="35"/>
+      <c r="CE34" s="35"/>
+      <c r="CF34" s="35"/>
+      <c r="CG34" s="35"/>
+      <c r="CH34" s="35"/>
+      <c r="CI34" s="35"/>
+      <c r="CJ34" s="35"/>
+      <c r="CK34" s="39"/>
       <c r="CP34" s="6"/>
       <c r="CQ34" s="6"/>
       <c r="CW34" s="6"/>
@@ -4541,28 +4819,30 @@
       <c r="DZ34" s="6"/>
       <c r="EF34" s="6"/>
       <c r="EG34" s="6"/>
-    </row>
-    <row r="35" spans="1:142" outlineLevel="5" x14ac:dyDescent="0.3">
+      <c r="EM34" s="6"/>
+      <c r="EN34" s="6"/>
+    </row>
+    <row r="35" spans="1:146" outlineLevel="5" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>34</v>
       </c>
       <c r="B35" s="17" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>108</v>
+        <v>138</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="H35" s="1">
         <v>33</v>
@@ -4572,6 +4852,8 @@
       </c>
       <c r="J35" s="6"/>
       <c r="K35" s="6"/>
+      <c r="N35" s="6"/>
+      <c r="O35" s="6"/>
       <c r="Q35" s="6"/>
       <c r="R35" s="6"/>
       <c r="X35" s="6"/>
@@ -4592,11 +4874,12 @@
       <c r="BV35" s="6"/>
       <c r="CB35" s="6"/>
       <c r="CC35" s="6"/>
-      <c r="CH35" s="35"/>
-      <c r="CI35" s="36"/>
-      <c r="CJ35" s="36"/>
-      <c r="CK35" s="36"/>
-      <c r="CL35" s="37"/>
+      <c r="CI35" s="6"/>
+      <c r="CJ35" s="6"/>
+      <c r="CK35" s="34"/>
+      <c r="CL35" s="35"/>
+      <c r="CM35" s="35"/>
+      <c r="CN35" s="36"/>
       <c r="CP35" s="6"/>
       <c r="CQ35" s="6"/>
       <c r="CW35" s="6"/>
@@ -4611,35 +4894,39 @@
       <c r="DZ35" s="6"/>
       <c r="EF35" s="6"/>
       <c r="EG35" s="6"/>
-    </row>
-    <row r="36" spans="1:142" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="EM35" s="6"/>
+      <c r="EN35" s="6"/>
+    </row>
+    <row r="36" spans="1:146" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>35</v>
       </c>
       <c r="B36" s="17" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G36" s="1"/>
       <c r="H36" s="1" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="I36" s="1">
         <v>0</v>
       </c>
       <c r="J36" s="6"/>
       <c r="K36" s="6"/>
+      <c r="N36" s="6"/>
+      <c r="O36" s="6"/>
       <c r="Q36" s="6"/>
       <c r="R36" s="6"/>
       <c r="X36" s="6"/>
@@ -4662,8 +4949,8 @@
       <c r="CC36" s="6"/>
       <c r="CI36" s="6"/>
       <c r="CJ36" s="6"/>
-      <c r="CL36" s="3" t="s">
-        <v>42</v>
+      <c r="CN36" s="3" t="s">
+        <v>43</v>
       </c>
       <c r="CP36" s="6"/>
       <c r="CQ36" s="6"/>
@@ -4679,25 +4966,27 @@
       <c r="DZ36" s="6"/>
       <c r="EF36" s="6"/>
       <c r="EG36" s="6"/>
-    </row>
-    <row r="37" spans="1:142" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="EM36" s="6"/>
+      <c r="EN36" s="6"/>
+    </row>
+    <row r="37" spans="1:146" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A37" s="2">
         <v>37</v>
       </c>
       <c r="B37" s="18" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>152</v>
+        <v>89</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="G37" s="2"/>
       <c r="H37" s="2"/>
@@ -4706,6 +4995,8 @@
       </c>
       <c r="J37" s="6"/>
       <c r="K37" s="6"/>
+      <c r="N37" s="6"/>
+      <c r="O37" s="6"/>
       <c r="Q37" s="6"/>
       <c r="R37" s="6"/>
       <c r="X37" s="6"/>
@@ -4728,15 +5019,14 @@
       <c r="CC37" s="6"/>
       <c r="CI37" s="6"/>
       <c r="CJ37" s="6"/>
-      <c r="CM37" s="25"/>
-      <c r="CN37" s="30"/>
+      <c r="CN37" s="25"/>
       <c r="CO37" s="30"/>
       <c r="CP37" s="30"/>
       <c r="CQ37" s="30"/>
       <c r="CR37" s="30"/>
       <c r="CS37" s="30"/>
-      <c r="CT37" s="23"/>
-      <c r="CU37" s="23"/>
+      <c r="CT37" s="30"/>
+      <c r="CU37" s="30"/>
       <c r="CV37" s="23"/>
       <c r="CW37" s="23"/>
       <c r="CX37" s="23"/>
@@ -4769,31 +5059,35 @@
       <c r="DY37" s="23"/>
       <c r="DZ37" s="23"/>
       <c r="EA37" s="23"/>
-      <c r="EB37" s="24"/>
+      <c r="EB37" s="23"/>
+      <c r="EC37" s="23"/>
+      <c r="ED37" s="24"/>
       <c r="EF37" s="6"/>
       <c r="EG37" s="6"/>
-    </row>
-    <row r="38" spans="1:142" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="EM37" s="6"/>
+      <c r="EN37" s="6"/>
+    </row>
+    <row r="38" spans="1:146" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>38</v>
       </c>
       <c r="B38" s="17" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>152</v>
+        <v>89</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="H38" s="1">
         <v>35</v>
@@ -4803,6 +5097,8 @@
       </c>
       <c r="J38" s="6"/>
       <c r="K38" s="6"/>
+      <c r="N38" s="6"/>
+      <c r="O38" s="6"/>
       <c r="Q38" s="6"/>
       <c r="R38" s="6"/>
       <c r="X38" s="6"/>
@@ -4825,13 +5121,14 @@
       <c r="CC38" s="6"/>
       <c r="CI38" s="6"/>
       <c r="CJ38" s="6"/>
-      <c r="CM38" s="31"/>
       <c r="CN38" s="32"/>
-      <c r="CO38" s="32"/>
-      <c r="CP38" s="32"/>
-      <c r="CQ38" s="32"/>
-      <c r="CR38" s="32"/>
+      <c r="CO38" s="33"/>
+      <c r="CP38" s="33"/>
+      <c r="CQ38" s="33"/>
+      <c r="CR38" s="33"/>
       <c r="CS38" s="33"/>
+      <c r="CT38" s="33"/>
+      <c r="CU38" s="31"/>
       <c r="CW38" s="6"/>
       <c r="CX38" s="6"/>
       <c r="DD38" s="6"/>
@@ -4844,28 +5141,30 @@
       <c r="DZ38" s="6"/>
       <c r="EF38" s="6"/>
       <c r="EG38" s="6"/>
-    </row>
-    <row r="39" spans="1:142" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="EM38" s="6"/>
+      <c r="EN38" s="6"/>
+    </row>
+    <row r="39" spans="1:146" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>39</v>
       </c>
       <c r="B39" s="17" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>152</v>
+        <v>89</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="H39" s="1">
         <v>35</v>
@@ -4875,6 +5174,8 @@
       </c>
       <c r="J39" s="6"/>
       <c r="K39" s="6"/>
+      <c r="N39" s="6"/>
+      <c r="O39" s="6"/>
       <c r="Q39" s="6"/>
       <c r="R39" s="6"/>
       <c r="X39" s="6"/>
@@ -4897,13 +5198,14 @@
       <c r="CC39" s="6"/>
       <c r="CI39" s="6"/>
       <c r="CJ39" s="6"/>
-      <c r="CM39" s="27"/>
-      <c r="CN39" s="28"/>
+      <c r="CN39" s="27"/>
       <c r="CO39" s="28"/>
       <c r="CP39" s="28"/>
       <c r="CQ39" s="28"/>
       <c r="CR39" s="28"/>
-      <c r="CS39" s="29"/>
+      <c r="CS39" s="28"/>
+      <c r="CT39" s="28"/>
+      <c r="CU39" s="31"/>
       <c r="CW39" s="6"/>
       <c r="CX39" s="6"/>
       <c r="DD39" s="6"/>
@@ -4916,37 +5218,41 @@
       <c r="DZ39" s="6"/>
       <c r="EF39" s="6"/>
       <c r="EG39" s="6"/>
-    </row>
-    <row r="40" spans="1:142" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="EM39" s="6"/>
+      <c r="EN39" s="6"/>
+    </row>
+    <row r="40" spans="1:146" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>40</v>
       </c>
       <c r="B40" s="17" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>164</v>
+        <v>150</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="I40" s="1">
         <v>0</v>
       </c>
       <c r="J40" s="6"/>
       <c r="K40" s="6"/>
+      <c r="N40" s="6"/>
+      <c r="O40" s="6"/>
       <c r="Q40" s="6"/>
       <c r="R40" s="6"/>
       <c r="X40" s="6"/>
@@ -4971,17 +5277,18 @@
       <c r="CJ40" s="6"/>
       <c r="CP40" s="6"/>
       <c r="CQ40" s="6"/>
-      <c r="CT40" s="27"/>
-      <c r="CU40" s="28"/>
+      <c r="CU40" s="27"/>
       <c r="CV40" s="28"/>
       <c r="CW40" s="28"/>
       <c r="CX40" s="28"/>
       <c r="CY40" s="28"/>
       <c r="CZ40" s="28"/>
       <c r="DA40" s="28"/>
-      <c r="DB40" s="29"/>
-      <c r="DD40" s="6"/>
-      <c r="DE40" s="6"/>
+      <c r="DB40" s="28"/>
+      <c r="DC40" s="28"/>
+      <c r="DD40" s="28"/>
+      <c r="DE40" s="28"/>
+      <c r="DF40" s="31"/>
       <c r="DK40" s="6"/>
       <c r="DL40" s="6"/>
       <c r="DR40" s="6"/>
@@ -4990,28 +5297,30 @@
       <c r="DZ40" s="6"/>
       <c r="EF40" s="6"/>
       <c r="EG40" s="6"/>
-    </row>
-    <row r="41" spans="1:142" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="EM40" s="6"/>
+      <c r="EN40" s="6"/>
+    </row>
+    <row r="41" spans="1:146" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>41</v>
       </c>
       <c r="B41" s="17" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>170</v>
+        <v>157</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="H41" s="1">
         <v>40</v>
@@ -5021,6 +5330,8 @@
       </c>
       <c r="J41" s="6"/>
       <c r="K41" s="6"/>
+      <c r="N41" s="6"/>
+      <c r="O41" s="6"/>
       <c r="Q41" s="6"/>
       <c r="R41" s="6"/>
       <c r="X41" s="6"/>
@@ -5047,43 +5358,46 @@
       <c r="CQ41" s="6"/>
       <c r="CW41" s="6"/>
       <c r="CX41" s="6"/>
-      <c r="DC41" s="27"/>
-      <c r="DD41" s="28"/>
-      <c r="DE41" s="28"/>
-      <c r="DF41" s="28"/>
+      <c r="DD41" s="6"/>
+      <c r="DE41" s="6"/>
+      <c r="DF41" s="27"/>
       <c r="DG41" s="28"/>
       <c r="DH41" s="28"/>
-      <c r="DI41" s="29"/>
-      <c r="DK41" s="6"/>
-      <c r="DL41" s="6"/>
+      <c r="DI41" s="28"/>
+      <c r="DJ41" s="28"/>
+      <c r="DK41" s="28"/>
+      <c r="DL41" s="28"/>
+      <c r="DM41" s="31"/>
       <c r="DR41" s="6"/>
       <c r="DS41" s="6"/>
       <c r="DY41" s="6"/>
       <c r="DZ41" s="6"/>
       <c r="EF41" s="6"/>
       <c r="EG41" s="6"/>
-    </row>
-    <row r="42" spans="1:142" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="EM41" s="6"/>
+      <c r="EN41" s="6"/>
+    </row>
+    <row r="42" spans="1:146" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>42</v>
       </c>
       <c r="B42" s="17" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>175</v>
+        <v>162</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="H42" s="1">
         <v>41</v>
@@ -5093,6 +5407,8 @@
       </c>
       <c r="J42" s="6"/>
       <c r="K42" s="6"/>
+      <c r="N42" s="6"/>
+      <c r="O42" s="6"/>
       <c r="Q42" s="6"/>
       <c r="R42" s="6"/>
       <c r="X42" s="6"/>
@@ -5121,43 +5437,46 @@
       <c r="CX42" s="6"/>
       <c r="DD42" s="6"/>
       <c r="DE42" s="6"/>
-      <c r="DJ42" s="27"/>
-      <c r="DK42" s="28"/>
-      <c r="DL42" s="28"/>
-      <c r="DM42" s="28"/>
+      <c r="DK42" s="6"/>
+      <c r="DL42" s="6"/>
+      <c r="DM42" s="27"/>
       <c r="DN42" s="28"/>
       <c r="DO42" s="28"/>
       <c r="DP42" s="28"/>
       <c r="DQ42" s="28"/>
       <c r="DR42" s="28"/>
       <c r="DS42" s="28"/>
-      <c r="DT42" s="29"/>
+      <c r="DT42" s="28"/>
+      <c r="DU42" s="28"/>
+      <c r="DV42" s="31"/>
       <c r="DY42" s="6"/>
       <c r="DZ42" s="6"/>
       <c r="EF42" s="6"/>
       <c r="EG42" s="6"/>
-    </row>
-    <row r="43" spans="1:142" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="EM42" s="6"/>
+      <c r="EN42" s="6"/>
+    </row>
+    <row r="43" spans="1:146" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A43" s="2">
         <v>43</v>
       </c>
       <c r="B43" s="18" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>178</v>
+        <v>168</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>179</v>
+        <v>166</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>51</v>
+        <v>169</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="H43" s="2"/>
       <c r="I43" s="2">
@@ -5165,6 +5484,8 @@
       </c>
       <c r="J43" s="6"/>
       <c r="K43" s="6"/>
+      <c r="N43" s="6"/>
+      <c r="O43" s="6"/>
       <c r="Q43" s="6"/>
       <c r="R43" s="6"/>
       <c r="X43" s="6"/>
@@ -5197,47 +5518,52 @@
       <c r="DL43" s="6"/>
       <c r="DR43" s="6"/>
       <c r="DS43" s="6"/>
-      <c r="DU43" s="31"/>
       <c r="DV43" s="32"/>
-      <c r="DW43" s="32"/>
-      <c r="DX43" s="28"/>
-      <c r="DY43" s="28"/>
-      <c r="DZ43" s="28"/>
-      <c r="EA43" s="28"/>
-      <c r="EB43" s="29"/>
+      <c r="DW43" s="33"/>
+      <c r="DX43" s="33"/>
+      <c r="DY43" s="33"/>
+      <c r="DZ43" s="33"/>
+      <c r="EA43" s="33"/>
+      <c r="EB43" s="28"/>
+      <c r="EC43" s="28"/>
+      <c r="ED43" s="29"/>
       <c r="EF43" s="6"/>
       <c r="EG43" s="6"/>
-    </row>
-    <row r="44" spans="1:142" outlineLevel="3" x14ac:dyDescent="0.3">
+      <c r="EM43" s="6"/>
+      <c r="EN43" s="6"/>
+    </row>
+    <row r="44" spans="1:146" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>44</v>
       </c>
       <c r="B44" s="17" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>179</v>
+        <v>166</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
       <c r="I44" s="1">
         <v>0</v>
       </c>
       <c r="J44" s="6"/>
       <c r="K44" s="6"/>
+      <c r="N44" s="6"/>
+      <c r="O44" s="6"/>
       <c r="Q44" s="6"/>
       <c r="R44" s="6"/>
       <c r="X44" s="6"/>
@@ -5270,44 +5596,49 @@
       <c r="DL44" s="6"/>
       <c r="DR44" s="6"/>
       <c r="DS44" s="6"/>
-      <c r="DU44" s="38"/>
-      <c r="DV44" s="39"/>
-      <c r="DW44" s="37"/>
-      <c r="DY44" s="6"/>
-      <c r="DZ44" s="6"/>
+      <c r="DV44" s="37"/>
+      <c r="DW44" s="38"/>
+      <c r="DX44" s="38"/>
+      <c r="DY44" s="35"/>
+      <c r="DZ44" s="35"/>
+      <c r="EA44" s="36"/>
       <c r="EF44" s="6"/>
       <c r="EG44" s="6"/>
-    </row>
-    <row r="45" spans="1:142" outlineLevel="3" x14ac:dyDescent="0.3">
+      <c r="EM44" s="6"/>
+      <c r="EN44" s="6"/>
+    </row>
+    <row r="45" spans="1:146" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>45</v>
       </c>
       <c r="B45" s="17" t="s">
-        <v>185</v>
+        <v>175</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>179</v>
+        <v>166</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
       <c r="I45" s="1">
         <v>0</v>
       </c>
       <c r="J45" s="6"/>
       <c r="K45" s="6"/>
+      <c r="N45" s="6"/>
+      <c r="O45" s="6"/>
       <c r="Q45" s="6"/>
       <c r="R45" s="6"/>
       <c r="X45" s="6"/>
@@ -5340,43 +5671,48 @@
       <c r="DL45" s="6"/>
       <c r="DR45" s="6"/>
       <c r="DS45" s="6"/>
-      <c r="DU45" s="35"/>
-      <c r="DV45" s="37"/>
+      <c r="DV45" s="34"/>
+      <c r="DW45" s="35"/>
+      <c r="DX45" s="36"/>
       <c r="DY45" s="6"/>
       <c r="DZ45" s="6"/>
       <c r="EF45" s="6"/>
       <c r="EG45" s="6"/>
-    </row>
-    <row r="46" spans="1:142" outlineLevel="3" x14ac:dyDescent="0.3">
+      <c r="EM45" s="6"/>
+      <c r="EN45" s="6"/>
+    </row>
+    <row r="46" spans="1:146" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>46</v>
       </c>
       <c r="B46" s="17" t="s">
-        <v>188</v>
+        <v>178</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>189</v>
+        <v>179</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>190</v>
+        <v>173</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>191</v>
+        <v>180</v>
       </c>
       <c r="I46" s="1">
         <v>0</v>
       </c>
       <c r="J46" s="6"/>
       <c r="K46" s="6"/>
+      <c r="N46" s="6"/>
+      <c r="O46" s="6"/>
       <c r="Q46" s="6"/>
       <c r="R46" s="6"/>
       <c r="X46" s="6"/>
@@ -5409,42 +5745,47 @@
       <c r="DL46" s="6"/>
       <c r="DR46" s="6"/>
       <c r="DS46" s="6"/>
-      <c r="DX46" s="35"/>
-      <c r="DY46" s="36"/>
-      <c r="DZ46" s="36"/>
-      <c r="EA46" s="36"/>
-      <c r="EB46" s="37"/>
+      <c r="DY46" s="6"/>
+      <c r="DZ46" s="6"/>
+      <c r="EA46" s="34"/>
+      <c r="EB46" s="35"/>
+      <c r="EC46" s="35"/>
+      <c r="ED46" s="36"/>
       <c r="EF46" s="6"/>
       <c r="EG46" s="6"/>
-    </row>
-    <row r="47" spans="1:142" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="EM46" s="6"/>
+      <c r="EN46" s="6"/>
+    </row>
+    <row r="47" spans="1:146" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>47</v>
       </c>
       <c r="B47" s="17" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G47" s="1"/>
       <c r="H47" s="1" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
       <c r="I47" s="1">
         <v>0</v>
       </c>
       <c r="J47" s="6"/>
       <c r="K47" s="6"/>
+      <c r="N47" s="6"/>
+      <c r="O47" s="6"/>
       <c r="Q47" s="6"/>
       <c r="R47" s="6"/>
       <c r="X47" s="6"/>
@@ -5479,30 +5820,32 @@
       <c r="DS47" s="6"/>
       <c r="DY47" s="6"/>
       <c r="DZ47" s="6"/>
-      <c r="EB47" s="3" t="s">
-        <v>42</v>
+      <c r="ED47" s="3" t="s">
+        <v>43</v>
       </c>
       <c r="EF47" s="6"/>
       <c r="EG47" s="6"/>
-    </row>
-    <row r="48" spans="1:142" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="EM47" s="6"/>
+      <c r="EN47" s="6"/>
+    </row>
+    <row r="48" spans="1:146" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A48" s="2">
         <v>49</v>
       </c>
       <c r="B48" s="18" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>196</v>
+        <v>185</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>197</v>
+        <v>146</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="G48" s="2"/>
       <c r="H48" s="2"/>
@@ -5511,6 +5854,8 @@
       </c>
       <c r="J48" s="6"/>
       <c r="K48" s="6"/>
+      <c r="N48" s="6"/>
+      <c r="O48" s="6"/>
       <c r="Q48" s="6"/>
       <c r="R48" s="6"/>
       <c r="X48" s="6"/>
@@ -5545,38 +5890,41 @@
       <c r="DS48" s="6"/>
       <c r="DY48" s="6"/>
       <c r="DZ48" s="6"/>
-      <c r="EC48" s="25"/>
-      <c r="ED48" s="30"/>
+      <c r="ED48" s="25"/>
       <c r="EE48" s="30"/>
-      <c r="EF48" s="23"/>
-      <c r="EG48" s="23"/>
-      <c r="EH48" s="23"/>
-      <c r="EI48" s="23"/>
+      <c r="EF48" s="30"/>
+      <c r="EG48" s="30"/>
+      <c r="EH48" s="30"/>
+      <c r="EI48" s="30"/>
       <c r="EJ48" s="23"/>
       <c r="EK48" s="23"/>
-      <c r="EL48" s="24"/>
-    </row>
-    <row r="49" spans="1:142" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="EL48" s="23"/>
+      <c r="EM48" s="23"/>
+      <c r="EN48" s="23"/>
+      <c r="EO48" s="23"/>
+      <c r="EP48" s="24"/>
+    </row>
+    <row r="49" spans="1:146" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>50</v>
       </c>
       <c r="B49" s="17" t="s">
-        <v>198</v>
+        <v>186</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>199</v>
+        <v>187</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>197</v>
+        <v>146</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>200</v>
+        <v>188</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H49" s="1">
         <v>47</v>
@@ -5586,6 +5934,8 @@
       </c>
       <c r="J49" s="6"/>
       <c r="K49" s="6"/>
+      <c r="N49" s="6"/>
+      <c r="O49" s="6"/>
       <c r="Q49" s="6"/>
       <c r="R49" s="6"/>
       <c r="X49" s="6"/>
@@ -5620,30 +5970,33 @@
       <c r="DS49" s="6"/>
       <c r="DY49" s="6"/>
       <c r="DZ49" s="6"/>
-      <c r="EC49" s="27"/>
-      <c r="ED49" s="28"/>
-      <c r="EE49" s="29"/>
-      <c r="EF49" s="6"/>
-      <c r="EG49" s="6"/>
-    </row>
-    <row r="50" spans="1:142" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="ED49" s="27"/>
+      <c r="EE49" s="28"/>
+      <c r="EF49" s="28"/>
+      <c r="EG49" s="28"/>
+      <c r="EH49" s="28"/>
+      <c r="EI49" s="31"/>
+      <c r="EM49" s="6"/>
+      <c r="EN49" s="6"/>
+    </row>
+    <row r="50" spans="1:146" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>51</v>
       </c>
       <c r="B50" s="17" t="s">
-        <v>201</v>
+        <v>189</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>202</v>
+        <v>190</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>203</v>
+        <v>188</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G50" s="1" t="s">
         <v>71</v>
@@ -5656,6 +6009,8 @@
       </c>
       <c r="J50" s="6"/>
       <c r="K50" s="6"/>
+      <c r="N50" s="6"/>
+      <c r="O50" s="6"/>
       <c r="Q50" s="6"/>
       <c r="R50" s="6"/>
       <c r="X50" s="6"/>
@@ -5692,30 +6047,33 @@
       <c r="DZ50" s="6"/>
       <c r="EF50" s="6"/>
       <c r="EG50" s="6"/>
-      <c r="EH50" s="27"/>
-      <c r="EI50" s="28"/>
+      <c r="EI50" s="27"/>
       <c r="EJ50" s="28"/>
       <c r="EK50" s="28"/>
-      <c r="EL50" s="29"/>
-    </row>
-    <row r="51" spans="1:142" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="EL50" s="28"/>
+      <c r="EM50" s="28"/>
+      <c r="EN50" s="28"/>
+      <c r="EO50" s="28"/>
+      <c r="EP50" s="29"/>
+    </row>
+    <row r="51" spans="1:146" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>52</v>
       </c>
       <c r="B51" s="17" t="s">
-        <v>204</v>
+        <v>191</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>205</v>
+        <v>192</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>200</v>
+        <v>188</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>200</v>
+        <v>188</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G51" s="1"/>
       <c r="H51" s="1">
@@ -5726,6 +6084,8 @@
       </c>
       <c r="J51" s="6"/>
       <c r="K51" s="6"/>
+      <c r="N51" s="6"/>
+      <c r="O51" s="6"/>
       <c r="Q51" s="6"/>
       <c r="R51" s="6"/>
       <c r="X51" s="6"/>
@@ -5760,30 +6120,32 @@
       <c r="DS51" s="6"/>
       <c r="DY51" s="6"/>
       <c r="DZ51" s="6"/>
-      <c r="EE51" s="3" t="s">
-        <v>42</v>
-      </c>
       <c r="EF51" s="6"/>
       <c r="EG51" s="6"/>
-    </row>
-    <row r="52" spans="1:142" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="EI51" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="EM51" s="6"/>
+      <c r="EN51" s="6"/>
+    </row>
+    <row r="52" spans="1:146" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>53</v>
       </c>
       <c r="B52" s="17" t="s">
-        <v>206</v>
+        <v>193</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>207</v>
+        <v>194</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>200</v>
+        <v>188</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>200</v>
+        <v>188</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G52" s="1"/>
       <c r="H52" s="1">
@@ -5794,6 +6156,8 @@
       </c>
       <c r="J52" s="6"/>
       <c r="K52" s="6"/>
+      <c r="N52" s="6"/>
+      <c r="O52" s="6"/>
       <c r="Q52" s="6"/>
       <c r="R52" s="6"/>
       <c r="X52" s="6"/>
@@ -5828,22 +6192,26 @@
       <c r="DS52" s="6"/>
       <c r="DY52" s="6"/>
       <c r="DZ52" s="6"/>
-      <c r="EE52" s="3" t="s">
-        <v>42</v>
-      </c>
       <c r="EF52" s="6"/>
       <c r="EG52" s="6"/>
+      <c r="EI52" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="EM52" s="6"/>
+      <c r="EN52" s="6"/>
     </row>
   </sheetData>
-  <mergeCells count="35">
+  <mergeCells count="36">
+    <mergeCell ref="EH3:EN3"/>
+    <mergeCell ref="DZ2:EP2"/>
+    <mergeCell ref="J1:EP1"/>
+    <mergeCell ref="EO3:EP3"/>
     <mergeCell ref="CY3:DE3"/>
     <mergeCell ref="DF3:DL3"/>
     <mergeCell ref="DM3:DS3"/>
     <mergeCell ref="CV2:DY2"/>
     <mergeCell ref="DT3:DZ3"/>
     <mergeCell ref="EA3:EG3"/>
-    <mergeCell ref="DZ2:EL2"/>
-    <mergeCell ref="EH3:EL3"/>
     <mergeCell ref="BI3:BO3"/>
     <mergeCell ref="AO2:BP2"/>
     <mergeCell ref="BP3:BV3"/>
@@ -5864,7 +6232,6 @@
     <mergeCell ref="J3:K3"/>
     <mergeCell ref="L3:R3"/>
     <mergeCell ref="S3:Y3"/>
-    <mergeCell ref="J1:EL1"/>
     <mergeCell ref="A1:A4"/>
     <mergeCell ref="B1:B4"/>
     <mergeCell ref="C1:C4"/>
@@ -5873,6 +6240,5659 @@
     <mergeCell ref="F1:F4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AEE1957-84EB-4A52-97E1-783BE4DCBA74}">
+  <dimension ref="B3:M141"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="14.21875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="C3" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="4" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
+        <v>236</v>
+      </c>
+      <c r="C4" t="s">
+        <v>237</v>
+      </c>
+      <c r="D4" t="s">
+        <v>238</v>
+      </c>
+      <c r="E4" t="s">
+        <v>239</v>
+      </c>
+      <c r="F4" t="s">
+        <v>240</v>
+      </c>
+      <c r="G4" t="s">
+        <v>241</v>
+      </c>
+      <c r="H4" t="s">
+        <v>242</v>
+      </c>
+      <c r="I4" t="s">
+        <v>243</v>
+      </c>
+      <c r="J4" t="s">
+        <v>244</v>
+      </c>
+      <c r="K4" t="s">
+        <v>245</v>
+      </c>
+      <c r="L4" t="s">
+        <v>246</v>
+      </c>
+      <c r="M4" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="5" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B5" s="41">
+        <v>44562.375</v>
+      </c>
+      <c r="C5" t="b">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B6" s="41">
+        <v>44563.375</v>
+      </c>
+      <c r="C6" t="b">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B7" s="41">
+        <v>44564.375</v>
+      </c>
+      <c r="C7" t="b">
+        <v>1</v>
+      </c>
+      <c r="D7" s="42">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="E7" s="42">
+        <v>0.5</v>
+      </c>
+      <c r="F7" s="42">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="G7" s="42">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B8" s="41">
+        <v>44565.375</v>
+      </c>
+      <c r="C8" t="b">
+        <v>1</v>
+      </c>
+      <c r="D8" s="42">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="E8" s="42">
+        <v>0.5</v>
+      </c>
+      <c r="F8" s="42">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="G8" s="42">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B9" s="41">
+        <v>44566.375</v>
+      </c>
+      <c r="C9" t="b">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B10" s="41">
+        <v>44567.375</v>
+      </c>
+      <c r="C10" t="b">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B11" s="41">
+        <v>44568.375</v>
+      </c>
+      <c r="C11" t="b">
+        <v>1</v>
+      </c>
+      <c r="D11" s="42">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="E11" s="42">
+        <v>0.5</v>
+      </c>
+      <c r="F11" s="42">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="G11" s="42">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B12" s="41">
+        <v>44569.375</v>
+      </c>
+      <c r="C12" t="b">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B13" s="41">
+        <v>44570.375</v>
+      </c>
+      <c r="C13" t="b">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B14" s="41">
+        <v>44571.375</v>
+      </c>
+      <c r="C14" t="b">
+        <v>1</v>
+      </c>
+      <c r="D14" s="42">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="E14" s="42">
+        <v>0.5</v>
+      </c>
+      <c r="F14" s="42">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="G14" s="42">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B15" s="41">
+        <v>44572.375</v>
+      </c>
+      <c r="C15" t="b">
+        <v>1</v>
+      </c>
+      <c r="D15" s="42">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="E15" s="42">
+        <v>0.5</v>
+      </c>
+      <c r="F15" s="42">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="G15" s="42">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B16" s="41">
+        <v>44573.375</v>
+      </c>
+      <c r="C16" t="b">
+        <v>1</v>
+      </c>
+      <c r="D16" s="42">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="E16" s="42">
+        <v>0.5</v>
+      </c>
+      <c r="F16" s="42">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="G16" s="42">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B17" s="41">
+        <v>44574.375</v>
+      </c>
+      <c r="C17" t="b">
+        <v>1</v>
+      </c>
+      <c r="D17" s="42">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="E17" s="42">
+        <v>0.5</v>
+      </c>
+      <c r="F17" s="42">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="G17" s="42">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B18" s="41">
+        <v>44575.375</v>
+      </c>
+      <c r="C18" t="b">
+        <v>1</v>
+      </c>
+      <c r="D18" s="42">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="E18" s="42">
+        <v>0.5</v>
+      </c>
+      <c r="F18" s="42">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="G18" s="42">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B19" s="41">
+        <v>44576.375</v>
+      </c>
+      <c r="C19" t="b">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B20" s="41">
+        <v>44577.375</v>
+      </c>
+      <c r="C20" t="b">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B21" s="41">
+        <v>44578.375</v>
+      </c>
+      <c r="C21" t="b">
+        <v>1</v>
+      </c>
+      <c r="D21" s="42">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="E21" s="42">
+        <v>0.5</v>
+      </c>
+      <c r="F21" s="42">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="G21" s="42">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B22" s="41">
+        <v>44579.375</v>
+      </c>
+      <c r="C22" t="b">
+        <v>1</v>
+      </c>
+      <c r="D22" s="42">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="E22" s="42">
+        <v>0.5</v>
+      </c>
+      <c r="F22" s="42">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="G22" s="42">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B23" s="41">
+        <v>44580.375</v>
+      </c>
+      <c r="C23" t="b">
+        <v>1</v>
+      </c>
+      <c r="D23" s="42">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="E23" s="42">
+        <v>0.5</v>
+      </c>
+      <c r="F23" s="42">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="G23" s="42">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B24" s="41">
+        <v>44581.375</v>
+      </c>
+      <c r="C24" t="b">
+        <v>1</v>
+      </c>
+      <c r="D24" s="42">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="E24" s="42">
+        <v>0.5</v>
+      </c>
+      <c r="F24" s="42">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="G24" s="42">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <v>0</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B25" s="41">
+        <v>44582.375</v>
+      </c>
+      <c r="C25" t="b">
+        <v>1</v>
+      </c>
+      <c r="D25" s="42">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="E25" s="42">
+        <v>0.5</v>
+      </c>
+      <c r="F25" s="42">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="G25" s="42">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <v>0</v>
+      </c>
+      <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B26" s="41">
+        <v>44583.375</v>
+      </c>
+      <c r="C26" t="b">
+        <v>0</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
+      </c>
+      <c r="H26">
+        <v>0</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <v>0</v>
+      </c>
+      <c r="K26">
+        <v>0</v>
+      </c>
+      <c r="L26">
+        <v>0</v>
+      </c>
+      <c r="M26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B27" s="41">
+        <v>44584.375</v>
+      </c>
+      <c r="C27" t="b">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+      <c r="L27">
+        <v>0</v>
+      </c>
+      <c r="M27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B28" s="41">
+        <v>44585.375</v>
+      </c>
+      <c r="C28" t="b">
+        <v>1</v>
+      </c>
+      <c r="D28" s="42">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="E28" s="42">
+        <v>0.5</v>
+      </c>
+      <c r="F28" s="42">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="G28" s="42">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="H28">
+        <v>0</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+      <c r="J28">
+        <v>0</v>
+      </c>
+      <c r="K28">
+        <v>0</v>
+      </c>
+      <c r="L28">
+        <v>0</v>
+      </c>
+      <c r="M28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B29" s="41">
+        <v>44586.375</v>
+      </c>
+      <c r="C29" t="b">
+        <v>1</v>
+      </c>
+      <c r="D29" s="42">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="E29" s="42">
+        <v>0.5</v>
+      </c>
+      <c r="F29" s="42">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="G29" s="42">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="H29">
+        <v>0</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+      <c r="J29">
+        <v>0</v>
+      </c>
+      <c r="K29">
+        <v>0</v>
+      </c>
+      <c r="L29">
+        <v>0</v>
+      </c>
+      <c r="M29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B30" s="41">
+        <v>44587.375</v>
+      </c>
+      <c r="C30" t="b">
+        <v>1</v>
+      </c>
+      <c r="D30" s="42">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="E30" s="42">
+        <v>0.5</v>
+      </c>
+      <c r="F30" s="42">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="G30" s="42">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="H30">
+        <v>0</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
+      <c r="J30">
+        <v>0</v>
+      </c>
+      <c r="K30">
+        <v>0</v>
+      </c>
+      <c r="L30">
+        <v>0</v>
+      </c>
+      <c r="M30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B31" s="41">
+        <v>44588.375</v>
+      </c>
+      <c r="C31" t="b">
+        <v>1</v>
+      </c>
+      <c r="D31" s="42">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="E31" s="42">
+        <v>0.5</v>
+      </c>
+      <c r="F31" s="42">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="G31" s="42">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="H31">
+        <v>0</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+      <c r="J31">
+        <v>0</v>
+      </c>
+      <c r="K31">
+        <v>0</v>
+      </c>
+      <c r="L31">
+        <v>0</v>
+      </c>
+      <c r="M31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B32" s="41">
+        <v>44589.375</v>
+      </c>
+      <c r="C32" t="b">
+        <v>1</v>
+      </c>
+      <c r="D32" s="42">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="E32" s="42">
+        <v>0.5</v>
+      </c>
+      <c r="F32" s="42">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="G32" s="42">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="H32">
+        <v>0</v>
+      </c>
+      <c r="I32">
+        <v>0</v>
+      </c>
+      <c r="J32">
+        <v>0</v>
+      </c>
+      <c r="K32">
+        <v>0</v>
+      </c>
+      <c r="L32">
+        <v>0</v>
+      </c>
+      <c r="M32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B33" s="41">
+        <v>44590.375</v>
+      </c>
+      <c r="C33" t="b">
+        <v>0</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <v>0</v>
+      </c>
+      <c r="G33">
+        <v>0</v>
+      </c>
+      <c r="H33">
+        <v>0</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
+      <c r="J33">
+        <v>0</v>
+      </c>
+      <c r="K33">
+        <v>0</v>
+      </c>
+      <c r="L33">
+        <v>0</v>
+      </c>
+      <c r="M33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B34" s="41">
+        <v>44591.375</v>
+      </c>
+      <c r="C34" t="b">
+        <v>0</v>
+      </c>
+      <c r="D34">
+        <v>0</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
+      <c r="F34">
+        <v>0</v>
+      </c>
+      <c r="G34">
+        <v>0</v>
+      </c>
+      <c r="H34">
+        <v>0</v>
+      </c>
+      <c r="I34">
+        <v>0</v>
+      </c>
+      <c r="J34">
+        <v>0</v>
+      </c>
+      <c r="K34">
+        <v>0</v>
+      </c>
+      <c r="L34">
+        <v>0</v>
+      </c>
+      <c r="M34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B35" s="41">
+        <v>44592.375</v>
+      </c>
+      <c r="C35" t="b">
+        <v>1</v>
+      </c>
+      <c r="D35" s="42">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="E35" s="42">
+        <v>0.5</v>
+      </c>
+      <c r="F35" s="42">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="G35" s="42">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <v>0</v>
+      </c>
+      <c r="K35">
+        <v>0</v>
+      </c>
+      <c r="L35">
+        <v>0</v>
+      </c>
+      <c r="M35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B36" s="41">
+        <v>44593.375</v>
+      </c>
+      <c r="C36" t="b">
+        <v>1</v>
+      </c>
+      <c r="D36" s="42">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="E36" s="42">
+        <v>0.5</v>
+      </c>
+      <c r="F36" s="42">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="G36" s="42">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="H36">
+        <v>0</v>
+      </c>
+      <c r="I36">
+        <v>0</v>
+      </c>
+      <c r="J36">
+        <v>0</v>
+      </c>
+      <c r="K36">
+        <v>0</v>
+      </c>
+      <c r="L36">
+        <v>0</v>
+      </c>
+      <c r="M36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B37" s="41">
+        <v>44594.375</v>
+      </c>
+      <c r="C37" t="b">
+        <v>1</v>
+      </c>
+      <c r="D37" s="42">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="E37" s="42">
+        <v>0.5</v>
+      </c>
+      <c r="F37" s="42">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="G37" s="42">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+      <c r="K37">
+        <v>0</v>
+      </c>
+      <c r="L37">
+        <v>0</v>
+      </c>
+      <c r="M37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B38" s="41">
+        <v>44595.375</v>
+      </c>
+      <c r="C38" t="b">
+        <v>1</v>
+      </c>
+      <c r="D38" s="42">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="E38" s="42">
+        <v>0.5</v>
+      </c>
+      <c r="F38" s="42">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="G38" s="42">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="H38">
+        <v>0</v>
+      </c>
+      <c r="I38">
+        <v>0</v>
+      </c>
+      <c r="J38">
+        <v>0</v>
+      </c>
+      <c r="K38">
+        <v>0</v>
+      </c>
+      <c r="L38">
+        <v>0</v>
+      </c>
+      <c r="M38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B39" s="41">
+        <v>44596.375</v>
+      </c>
+      <c r="C39" t="b">
+        <v>1</v>
+      </c>
+      <c r="D39" s="42">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="E39" s="42">
+        <v>0.5</v>
+      </c>
+      <c r="F39" s="42">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="G39" s="42">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="H39">
+        <v>0</v>
+      </c>
+      <c r="I39">
+        <v>0</v>
+      </c>
+      <c r="J39">
+        <v>0</v>
+      </c>
+      <c r="K39">
+        <v>0</v>
+      </c>
+      <c r="L39">
+        <v>0</v>
+      </c>
+      <c r="M39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B40" s="41">
+        <v>44597.375</v>
+      </c>
+      <c r="C40" t="b">
+        <v>0</v>
+      </c>
+      <c r="D40">
+        <v>0</v>
+      </c>
+      <c r="E40">
+        <v>0</v>
+      </c>
+      <c r="F40">
+        <v>0</v>
+      </c>
+      <c r="G40">
+        <v>0</v>
+      </c>
+      <c r="H40">
+        <v>0</v>
+      </c>
+      <c r="I40">
+        <v>0</v>
+      </c>
+      <c r="J40">
+        <v>0</v>
+      </c>
+      <c r="K40">
+        <v>0</v>
+      </c>
+      <c r="L40">
+        <v>0</v>
+      </c>
+      <c r="M40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B41" s="41">
+        <v>44598.375</v>
+      </c>
+      <c r="C41" t="b">
+        <v>0</v>
+      </c>
+      <c r="D41">
+        <v>0</v>
+      </c>
+      <c r="E41">
+        <v>0</v>
+      </c>
+      <c r="F41">
+        <v>0</v>
+      </c>
+      <c r="G41">
+        <v>0</v>
+      </c>
+      <c r="H41">
+        <v>0</v>
+      </c>
+      <c r="I41">
+        <v>0</v>
+      </c>
+      <c r="J41">
+        <v>0</v>
+      </c>
+      <c r="K41">
+        <v>0</v>
+      </c>
+      <c r="L41">
+        <v>0</v>
+      </c>
+      <c r="M41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B42" s="41">
+        <v>44599.375</v>
+      </c>
+      <c r="C42" t="b">
+        <v>1</v>
+      </c>
+      <c r="D42" s="42">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="E42" s="42">
+        <v>0.5</v>
+      </c>
+      <c r="F42" s="42">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="G42" s="42">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+      <c r="M42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B43" s="41">
+        <v>44600.375</v>
+      </c>
+      <c r="C43" t="b">
+        <v>1</v>
+      </c>
+      <c r="D43" s="42">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="E43" s="42">
+        <v>0.5</v>
+      </c>
+      <c r="F43" s="42">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="G43" s="42">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="H43">
+        <v>0</v>
+      </c>
+      <c r="I43">
+        <v>0</v>
+      </c>
+      <c r="J43">
+        <v>0</v>
+      </c>
+      <c r="K43">
+        <v>0</v>
+      </c>
+      <c r="L43">
+        <v>0</v>
+      </c>
+      <c r="M43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B44" s="41">
+        <v>44601.375</v>
+      </c>
+      <c r="C44" t="b">
+        <v>1</v>
+      </c>
+      <c r="D44" s="42">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="E44" s="42">
+        <v>0.5</v>
+      </c>
+      <c r="F44" s="42">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="G44" s="42">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="H44">
+        <v>0</v>
+      </c>
+      <c r="I44">
+        <v>0</v>
+      </c>
+      <c r="J44">
+        <v>0</v>
+      </c>
+      <c r="K44">
+        <v>0</v>
+      </c>
+      <c r="L44">
+        <v>0</v>
+      </c>
+      <c r="M44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B45" s="41">
+        <v>44602.375</v>
+      </c>
+      <c r="C45" t="b">
+        <v>1</v>
+      </c>
+      <c r="D45" s="42">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="E45" s="42">
+        <v>0.5</v>
+      </c>
+      <c r="F45" s="42">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="G45" s="42">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+      <c r="L45">
+        <v>0</v>
+      </c>
+      <c r="M45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B46" s="41">
+        <v>44603.375</v>
+      </c>
+      <c r="C46" t="b">
+        <v>1</v>
+      </c>
+      <c r="D46" s="42">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="E46" s="42">
+        <v>0.5</v>
+      </c>
+      <c r="F46" s="42">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="G46" s="42">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="H46">
+        <v>0</v>
+      </c>
+      <c r="I46">
+        <v>0</v>
+      </c>
+      <c r="J46">
+        <v>0</v>
+      </c>
+      <c r="K46">
+        <v>0</v>
+      </c>
+      <c r="L46">
+        <v>0</v>
+      </c>
+      <c r="M46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B47" s="41">
+        <v>44604.375</v>
+      </c>
+      <c r="C47" t="b">
+        <v>0</v>
+      </c>
+      <c r="D47">
+        <v>0</v>
+      </c>
+      <c r="E47">
+        <v>0</v>
+      </c>
+      <c r="F47">
+        <v>0</v>
+      </c>
+      <c r="G47">
+        <v>0</v>
+      </c>
+      <c r="H47">
+        <v>0</v>
+      </c>
+      <c r="I47">
+        <v>0</v>
+      </c>
+      <c r="J47">
+        <v>0</v>
+      </c>
+      <c r="K47">
+        <v>0</v>
+      </c>
+      <c r="L47">
+        <v>0</v>
+      </c>
+      <c r="M47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B48" s="41">
+        <v>44605.375</v>
+      </c>
+      <c r="C48" t="b">
+        <v>0</v>
+      </c>
+      <c r="D48">
+        <v>0</v>
+      </c>
+      <c r="E48">
+        <v>0</v>
+      </c>
+      <c r="F48">
+        <v>0</v>
+      </c>
+      <c r="G48">
+        <v>0</v>
+      </c>
+      <c r="H48">
+        <v>0</v>
+      </c>
+      <c r="I48">
+        <v>0</v>
+      </c>
+      <c r="J48">
+        <v>0</v>
+      </c>
+      <c r="K48">
+        <v>0</v>
+      </c>
+      <c r="L48">
+        <v>0</v>
+      </c>
+      <c r="M48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B49" s="41">
+        <v>44606.375</v>
+      </c>
+      <c r="C49" t="b">
+        <v>1</v>
+      </c>
+      <c r="D49" s="42">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="E49" s="42">
+        <v>0.5</v>
+      </c>
+      <c r="F49" s="42">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="G49" s="42">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+      <c r="J49">
+        <v>0</v>
+      </c>
+      <c r="K49">
+        <v>0</v>
+      </c>
+      <c r="L49">
+        <v>0</v>
+      </c>
+      <c r="M49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B50" s="41">
+        <v>44607.375</v>
+      </c>
+      <c r="C50" t="b">
+        <v>1</v>
+      </c>
+      <c r="D50" s="42">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="E50" s="42">
+        <v>0.5</v>
+      </c>
+      <c r="F50" s="42">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="G50" s="42">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="H50">
+        <v>0</v>
+      </c>
+      <c r="I50">
+        <v>0</v>
+      </c>
+      <c r="J50">
+        <v>0</v>
+      </c>
+      <c r="K50">
+        <v>0</v>
+      </c>
+      <c r="L50">
+        <v>0</v>
+      </c>
+      <c r="M50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B51" s="41">
+        <v>44608.375</v>
+      </c>
+      <c r="C51" t="b">
+        <v>1</v>
+      </c>
+      <c r="D51" s="42">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="E51" s="42">
+        <v>0.5</v>
+      </c>
+      <c r="F51" s="42">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="G51" s="42">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="H51">
+        <v>0</v>
+      </c>
+      <c r="I51">
+        <v>0</v>
+      </c>
+      <c r="J51">
+        <v>0</v>
+      </c>
+      <c r="K51">
+        <v>0</v>
+      </c>
+      <c r="L51">
+        <v>0</v>
+      </c>
+      <c r="M51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B52" s="41">
+        <v>44609.375</v>
+      </c>
+      <c r="C52" t="b">
+        <v>1</v>
+      </c>
+      <c r="D52" s="42">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="E52" s="42">
+        <v>0.5</v>
+      </c>
+      <c r="F52" s="42">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="G52" s="42">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>0</v>
+      </c>
+      <c r="K52">
+        <v>0</v>
+      </c>
+      <c r="L52">
+        <v>0</v>
+      </c>
+      <c r="M52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B53" s="41">
+        <v>44610.375</v>
+      </c>
+      <c r="C53" t="b">
+        <v>1</v>
+      </c>
+      <c r="D53" s="42">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="E53" s="42">
+        <v>0.5</v>
+      </c>
+      <c r="F53" s="42">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="G53" s="42">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="H53">
+        <v>0</v>
+      </c>
+      <c r="I53">
+        <v>0</v>
+      </c>
+      <c r="J53">
+        <v>0</v>
+      </c>
+      <c r="K53">
+        <v>0</v>
+      </c>
+      <c r="L53">
+        <v>0</v>
+      </c>
+      <c r="M53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B54" s="41">
+        <v>44611.375</v>
+      </c>
+      <c r="C54" t="b">
+        <v>0</v>
+      </c>
+      <c r="D54">
+        <v>0</v>
+      </c>
+      <c r="E54">
+        <v>0</v>
+      </c>
+      <c r="F54">
+        <v>0</v>
+      </c>
+      <c r="G54">
+        <v>0</v>
+      </c>
+      <c r="H54">
+        <v>0</v>
+      </c>
+      <c r="I54">
+        <v>0</v>
+      </c>
+      <c r="J54">
+        <v>0</v>
+      </c>
+      <c r="K54">
+        <v>0</v>
+      </c>
+      <c r="L54">
+        <v>0</v>
+      </c>
+      <c r="M54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B55" s="41">
+        <v>44612.375</v>
+      </c>
+      <c r="C55" t="b">
+        <v>0</v>
+      </c>
+      <c r="D55">
+        <v>0</v>
+      </c>
+      <c r="E55">
+        <v>0</v>
+      </c>
+      <c r="F55">
+        <v>0</v>
+      </c>
+      <c r="G55">
+        <v>0</v>
+      </c>
+      <c r="H55">
+        <v>0</v>
+      </c>
+      <c r="I55">
+        <v>0</v>
+      </c>
+      <c r="J55">
+        <v>0</v>
+      </c>
+      <c r="K55">
+        <v>0</v>
+      </c>
+      <c r="L55">
+        <v>0</v>
+      </c>
+      <c r="M55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B56" s="41">
+        <v>44613.375</v>
+      </c>
+      <c r="C56" t="b">
+        <v>1</v>
+      </c>
+      <c r="D56" s="42">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="E56" s="42">
+        <v>0.5</v>
+      </c>
+      <c r="F56" s="42">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="G56" s="42">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="H56">
+        <v>0</v>
+      </c>
+      <c r="I56">
+        <v>0</v>
+      </c>
+      <c r="J56">
+        <v>0</v>
+      </c>
+      <c r="K56">
+        <v>0</v>
+      </c>
+      <c r="L56">
+        <v>0</v>
+      </c>
+      <c r="M56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B57" s="41">
+        <v>44614.375</v>
+      </c>
+      <c r="C57" t="b">
+        <v>1</v>
+      </c>
+      <c r="D57" s="42">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="E57" s="42">
+        <v>0.5</v>
+      </c>
+      <c r="F57" s="42">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="G57" s="42">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>0</v>
+      </c>
+      <c r="K57">
+        <v>0</v>
+      </c>
+      <c r="L57">
+        <v>0</v>
+      </c>
+      <c r="M57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B58" s="41">
+        <v>44615.375</v>
+      </c>
+      <c r="C58" t="b">
+        <v>1</v>
+      </c>
+      <c r="D58" s="42">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="E58" s="42">
+        <v>0.5</v>
+      </c>
+      <c r="F58" s="42">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="G58" s="42">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="H58">
+        <v>0</v>
+      </c>
+      <c r="I58">
+        <v>0</v>
+      </c>
+      <c r="J58">
+        <v>0</v>
+      </c>
+      <c r="K58">
+        <v>0</v>
+      </c>
+      <c r="L58">
+        <v>0</v>
+      </c>
+      <c r="M58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B59" s="41">
+        <v>44616.375</v>
+      </c>
+      <c r="C59" t="b">
+        <v>1</v>
+      </c>
+      <c r="D59" s="42">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="E59" s="42">
+        <v>0.5</v>
+      </c>
+      <c r="F59" s="42">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="G59" s="42">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="H59">
+        <v>0</v>
+      </c>
+      <c r="I59">
+        <v>0</v>
+      </c>
+      <c r="J59">
+        <v>0</v>
+      </c>
+      <c r="K59">
+        <v>0</v>
+      </c>
+      <c r="L59">
+        <v>0</v>
+      </c>
+      <c r="M59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B60" s="41">
+        <v>44617.375</v>
+      </c>
+      <c r="C60" t="b">
+        <v>1</v>
+      </c>
+      <c r="D60" s="42">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="E60" s="42">
+        <v>0.5</v>
+      </c>
+      <c r="F60" s="42">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="G60" s="42">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="H60">
+        <v>0</v>
+      </c>
+      <c r="I60">
+        <v>0</v>
+      </c>
+      <c r="J60">
+        <v>0</v>
+      </c>
+      <c r="K60">
+        <v>0</v>
+      </c>
+      <c r="L60">
+        <v>0</v>
+      </c>
+      <c r="M60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B61" s="41">
+        <v>44618.375</v>
+      </c>
+      <c r="C61" t="b">
+        <v>0</v>
+      </c>
+      <c r="D61">
+        <v>0</v>
+      </c>
+      <c r="E61">
+        <v>0</v>
+      </c>
+      <c r="F61">
+        <v>0</v>
+      </c>
+      <c r="G61">
+        <v>0</v>
+      </c>
+      <c r="H61">
+        <v>0</v>
+      </c>
+      <c r="I61">
+        <v>0</v>
+      </c>
+      <c r="J61">
+        <v>0</v>
+      </c>
+      <c r="K61">
+        <v>0</v>
+      </c>
+      <c r="L61">
+        <v>0</v>
+      </c>
+      <c r="M61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B62" s="41">
+        <v>44619.375</v>
+      </c>
+      <c r="C62" t="b">
+        <v>0</v>
+      </c>
+      <c r="D62">
+        <v>0</v>
+      </c>
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+      <c r="J62">
+        <v>0</v>
+      </c>
+      <c r="K62">
+        <v>0</v>
+      </c>
+      <c r="L62">
+        <v>0</v>
+      </c>
+      <c r="M62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B63" s="41">
+        <v>44620.375</v>
+      </c>
+      <c r="C63" t="b">
+        <v>1</v>
+      </c>
+      <c r="D63" s="42">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="E63" s="42">
+        <v>0.5</v>
+      </c>
+      <c r="F63" s="42">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="G63" s="42">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="H63">
+        <v>0</v>
+      </c>
+      <c r="I63">
+        <v>0</v>
+      </c>
+      <c r="J63">
+        <v>0</v>
+      </c>
+      <c r="K63">
+        <v>0</v>
+      </c>
+      <c r="L63">
+        <v>0</v>
+      </c>
+      <c r="M63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B64" s="41">
+        <v>44621.375</v>
+      </c>
+      <c r="C64" t="b">
+        <v>1</v>
+      </c>
+      <c r="D64" s="42">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="E64" s="42">
+        <v>0.5</v>
+      </c>
+      <c r="F64" s="42">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="G64" s="42">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="H64">
+        <v>0</v>
+      </c>
+      <c r="I64">
+        <v>0</v>
+      </c>
+      <c r="J64">
+        <v>0</v>
+      </c>
+      <c r="K64">
+        <v>0</v>
+      </c>
+      <c r="L64">
+        <v>0</v>
+      </c>
+      <c r="M64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B65" s="41">
+        <v>44622.375</v>
+      </c>
+      <c r="C65" t="b">
+        <v>1</v>
+      </c>
+      <c r="D65" s="42">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="E65" s="42">
+        <v>0.5</v>
+      </c>
+      <c r="F65" s="42">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="G65" s="42">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="H65">
+        <v>0</v>
+      </c>
+      <c r="I65">
+        <v>0</v>
+      </c>
+      <c r="J65">
+        <v>0</v>
+      </c>
+      <c r="K65">
+        <v>0</v>
+      </c>
+      <c r="L65">
+        <v>0</v>
+      </c>
+      <c r="M65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B66" s="41">
+        <v>44623.375</v>
+      </c>
+      <c r="C66" t="b">
+        <v>1</v>
+      </c>
+      <c r="D66" s="42">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="E66" s="42">
+        <v>0.5</v>
+      </c>
+      <c r="F66" s="42">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="G66" s="42">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="H66">
+        <v>0</v>
+      </c>
+      <c r="I66">
+        <v>0</v>
+      </c>
+      <c r="J66">
+        <v>0</v>
+      </c>
+      <c r="K66">
+        <v>0</v>
+      </c>
+      <c r="L66">
+        <v>0</v>
+      </c>
+      <c r="M66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B67" s="41">
+        <v>44624.375</v>
+      </c>
+      <c r="C67" t="b">
+        <v>1</v>
+      </c>
+      <c r="D67" s="42">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="E67" s="42">
+        <v>0.5</v>
+      </c>
+      <c r="F67" s="42">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="G67" s="42">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="H67">
+        <v>0</v>
+      </c>
+      <c r="I67">
+        <v>0</v>
+      </c>
+      <c r="J67">
+        <v>0</v>
+      </c>
+      <c r="K67">
+        <v>0</v>
+      </c>
+      <c r="L67">
+        <v>0</v>
+      </c>
+      <c r="M67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B68" s="41">
+        <v>44625.375</v>
+      </c>
+      <c r="C68" t="b">
+        <v>0</v>
+      </c>
+      <c r="D68">
+        <v>0</v>
+      </c>
+      <c r="E68">
+        <v>0</v>
+      </c>
+      <c r="F68">
+        <v>0</v>
+      </c>
+      <c r="G68">
+        <v>0</v>
+      </c>
+      <c r="H68">
+        <v>0</v>
+      </c>
+      <c r="I68">
+        <v>0</v>
+      </c>
+      <c r="J68">
+        <v>0</v>
+      </c>
+      <c r="K68">
+        <v>0</v>
+      </c>
+      <c r="L68">
+        <v>0</v>
+      </c>
+      <c r="M68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B69" s="41">
+        <v>44626.375</v>
+      </c>
+      <c r="C69" t="b">
+        <v>0</v>
+      </c>
+      <c r="D69">
+        <v>0</v>
+      </c>
+      <c r="E69">
+        <v>0</v>
+      </c>
+      <c r="F69">
+        <v>0</v>
+      </c>
+      <c r="G69">
+        <v>0</v>
+      </c>
+      <c r="H69">
+        <v>0</v>
+      </c>
+      <c r="I69">
+        <v>0</v>
+      </c>
+      <c r="J69">
+        <v>0</v>
+      </c>
+      <c r="K69">
+        <v>0</v>
+      </c>
+      <c r="L69">
+        <v>0</v>
+      </c>
+      <c r="M69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B70" s="41">
+        <v>44627.375</v>
+      </c>
+      <c r="C70" t="b">
+        <v>1</v>
+      </c>
+      <c r="D70" s="42">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="E70" s="42">
+        <v>0.5</v>
+      </c>
+      <c r="F70" s="42">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="G70" s="42">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+      <c r="J70">
+        <v>0</v>
+      </c>
+      <c r="K70">
+        <v>0</v>
+      </c>
+      <c r="L70">
+        <v>0</v>
+      </c>
+      <c r="M70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B71" s="41">
+        <v>44628.375</v>
+      </c>
+      <c r="C71" t="b">
+        <v>1</v>
+      </c>
+      <c r="D71" s="42">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="E71" s="42">
+        <v>0.5</v>
+      </c>
+      <c r="F71" s="42">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="G71" s="42">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="H71">
+        <v>0</v>
+      </c>
+      <c r="I71">
+        <v>0</v>
+      </c>
+      <c r="J71">
+        <v>0</v>
+      </c>
+      <c r="K71">
+        <v>0</v>
+      </c>
+      <c r="L71">
+        <v>0</v>
+      </c>
+      <c r="M71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B72" s="41">
+        <v>44629.375</v>
+      </c>
+      <c r="C72" t="b">
+        <v>1</v>
+      </c>
+      <c r="D72" s="42">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="E72" s="42">
+        <v>0.5</v>
+      </c>
+      <c r="F72" s="42">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="G72" s="42">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="H72">
+        <v>0</v>
+      </c>
+      <c r="I72">
+        <v>0</v>
+      </c>
+      <c r="J72">
+        <v>0</v>
+      </c>
+      <c r="K72">
+        <v>0</v>
+      </c>
+      <c r="L72">
+        <v>0</v>
+      </c>
+      <c r="M72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B73" s="41">
+        <v>44630.375</v>
+      </c>
+      <c r="C73" t="b">
+        <v>1</v>
+      </c>
+      <c r="D73" s="42">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="E73" s="42">
+        <v>0.5</v>
+      </c>
+      <c r="F73" s="42">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="G73" s="42">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="H73">
+        <v>0</v>
+      </c>
+      <c r="I73">
+        <v>0</v>
+      </c>
+      <c r="J73">
+        <v>0</v>
+      </c>
+      <c r="K73">
+        <v>0</v>
+      </c>
+      <c r="L73">
+        <v>0</v>
+      </c>
+      <c r="M73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B74" s="41">
+        <v>44631.375</v>
+      </c>
+      <c r="C74" t="b">
+        <v>1</v>
+      </c>
+      <c r="D74" s="42">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="E74" s="42">
+        <v>0.5</v>
+      </c>
+      <c r="F74" s="42">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="G74" s="42">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="H74">
+        <v>0</v>
+      </c>
+      <c r="I74">
+        <v>0</v>
+      </c>
+      <c r="J74">
+        <v>0</v>
+      </c>
+      <c r="K74">
+        <v>0</v>
+      </c>
+      <c r="L74">
+        <v>0</v>
+      </c>
+      <c r="M74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B75" s="41">
+        <v>44632.375</v>
+      </c>
+      <c r="C75" t="b">
+        <v>0</v>
+      </c>
+      <c r="D75">
+        <v>0</v>
+      </c>
+      <c r="E75">
+        <v>0</v>
+      </c>
+      <c r="F75">
+        <v>0</v>
+      </c>
+      <c r="G75">
+        <v>0</v>
+      </c>
+      <c r="H75">
+        <v>0</v>
+      </c>
+      <c r="I75">
+        <v>0</v>
+      </c>
+      <c r="J75">
+        <v>0</v>
+      </c>
+      <c r="K75">
+        <v>0</v>
+      </c>
+      <c r="L75">
+        <v>0</v>
+      </c>
+      <c r="M75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B76" s="41">
+        <v>44633.375</v>
+      </c>
+      <c r="C76" t="b">
+        <v>0</v>
+      </c>
+      <c r="D76">
+        <v>0</v>
+      </c>
+      <c r="E76">
+        <v>0</v>
+      </c>
+      <c r="F76">
+        <v>0</v>
+      </c>
+      <c r="G76">
+        <v>0</v>
+      </c>
+      <c r="H76">
+        <v>0</v>
+      </c>
+      <c r="I76">
+        <v>0</v>
+      </c>
+      <c r="J76">
+        <v>0</v>
+      </c>
+      <c r="K76">
+        <v>0</v>
+      </c>
+      <c r="L76">
+        <v>0</v>
+      </c>
+      <c r="M76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B77" s="41">
+        <v>44634.375</v>
+      </c>
+      <c r="C77" t="b">
+        <v>1</v>
+      </c>
+      <c r="D77" s="42">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="E77" s="42">
+        <v>0.5</v>
+      </c>
+      <c r="F77" s="42">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="G77" s="42">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="H77">
+        <v>0</v>
+      </c>
+      <c r="I77">
+        <v>0</v>
+      </c>
+      <c r="J77">
+        <v>0</v>
+      </c>
+      <c r="K77">
+        <v>0</v>
+      </c>
+      <c r="L77">
+        <v>0</v>
+      </c>
+      <c r="M77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B78" s="41">
+        <v>44635.375</v>
+      </c>
+      <c r="C78" t="b">
+        <v>1</v>
+      </c>
+      <c r="D78" s="42">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="E78" s="42">
+        <v>0.5</v>
+      </c>
+      <c r="F78" s="42">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="G78" s="42">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="H78">
+        <v>0</v>
+      </c>
+      <c r="I78">
+        <v>0</v>
+      </c>
+      <c r="J78">
+        <v>0</v>
+      </c>
+      <c r="K78">
+        <v>0</v>
+      </c>
+      <c r="L78">
+        <v>0</v>
+      </c>
+      <c r="M78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B79" s="41">
+        <v>44636.375</v>
+      </c>
+      <c r="C79" t="b">
+        <v>1</v>
+      </c>
+      <c r="D79" s="42">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="E79" s="42">
+        <v>0.5</v>
+      </c>
+      <c r="F79" s="42">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="G79" s="42">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="H79">
+        <v>0</v>
+      </c>
+      <c r="I79">
+        <v>0</v>
+      </c>
+      <c r="J79">
+        <v>0</v>
+      </c>
+      <c r="K79">
+        <v>0</v>
+      </c>
+      <c r="L79">
+        <v>0</v>
+      </c>
+      <c r="M79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B80" s="41">
+        <v>44637.375</v>
+      </c>
+      <c r="C80" t="b">
+        <v>1</v>
+      </c>
+      <c r="D80" s="42">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="E80" s="42">
+        <v>0.5</v>
+      </c>
+      <c r="F80" s="42">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="G80" s="42">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="H80">
+        <v>0</v>
+      </c>
+      <c r="I80">
+        <v>0</v>
+      </c>
+      <c r="J80">
+        <v>0</v>
+      </c>
+      <c r="K80">
+        <v>0</v>
+      </c>
+      <c r="L80">
+        <v>0</v>
+      </c>
+      <c r="M80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B81" s="41">
+        <v>44638.375</v>
+      </c>
+      <c r="C81" t="b">
+        <v>1</v>
+      </c>
+      <c r="D81" s="42">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="E81" s="42">
+        <v>0.5</v>
+      </c>
+      <c r="F81" s="42">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="G81" s="42">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="H81">
+        <v>0</v>
+      </c>
+      <c r="I81">
+        <v>0</v>
+      </c>
+      <c r="J81">
+        <v>0</v>
+      </c>
+      <c r="K81">
+        <v>0</v>
+      </c>
+      <c r="L81">
+        <v>0</v>
+      </c>
+      <c r="M81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B82" s="41">
+        <v>44639.375</v>
+      </c>
+      <c r="C82" t="b">
+        <v>0</v>
+      </c>
+      <c r="D82">
+        <v>0</v>
+      </c>
+      <c r="E82">
+        <v>0</v>
+      </c>
+      <c r="F82">
+        <v>0</v>
+      </c>
+      <c r="G82">
+        <v>0</v>
+      </c>
+      <c r="H82">
+        <v>0</v>
+      </c>
+      <c r="I82">
+        <v>0</v>
+      </c>
+      <c r="J82">
+        <v>0</v>
+      </c>
+      <c r="K82">
+        <v>0</v>
+      </c>
+      <c r="L82">
+        <v>0</v>
+      </c>
+      <c r="M82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B83" s="41">
+        <v>44640.375</v>
+      </c>
+      <c r="C83" t="b">
+        <v>0</v>
+      </c>
+      <c r="D83">
+        <v>0</v>
+      </c>
+      <c r="E83">
+        <v>0</v>
+      </c>
+      <c r="F83">
+        <v>0</v>
+      </c>
+      <c r="G83">
+        <v>0</v>
+      </c>
+      <c r="H83">
+        <v>0</v>
+      </c>
+      <c r="I83">
+        <v>0</v>
+      </c>
+      <c r="J83">
+        <v>0</v>
+      </c>
+      <c r="K83">
+        <v>0</v>
+      </c>
+      <c r="L83">
+        <v>0</v>
+      </c>
+      <c r="M83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B84" s="41">
+        <v>44641.375</v>
+      </c>
+      <c r="C84" t="b">
+        <v>1</v>
+      </c>
+      <c r="D84" s="42">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="E84" s="42">
+        <v>0.5</v>
+      </c>
+      <c r="F84" s="42">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="G84" s="42">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="H84">
+        <v>0</v>
+      </c>
+      <c r="I84">
+        <v>0</v>
+      </c>
+      <c r="J84">
+        <v>0</v>
+      </c>
+      <c r="K84">
+        <v>0</v>
+      </c>
+      <c r="L84">
+        <v>0</v>
+      </c>
+      <c r="M84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B85" s="41">
+        <v>44642.375</v>
+      </c>
+      <c r="C85" t="b">
+        <v>1</v>
+      </c>
+      <c r="D85" s="42">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="E85" s="42">
+        <v>0.5</v>
+      </c>
+      <c r="F85" s="42">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="G85" s="42">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="H85">
+        <v>0</v>
+      </c>
+      <c r="I85">
+        <v>0</v>
+      </c>
+      <c r="J85">
+        <v>0</v>
+      </c>
+      <c r="K85">
+        <v>0</v>
+      </c>
+      <c r="L85">
+        <v>0</v>
+      </c>
+      <c r="M85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B86" s="41">
+        <v>44643.375</v>
+      </c>
+      <c r="C86" t="b">
+        <v>1</v>
+      </c>
+      <c r="D86" s="42">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="E86" s="42">
+        <v>0.5</v>
+      </c>
+      <c r="F86" s="42">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="G86" s="42">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="H86">
+        <v>0</v>
+      </c>
+      <c r="I86">
+        <v>0</v>
+      </c>
+      <c r="J86">
+        <v>0</v>
+      </c>
+      <c r="K86">
+        <v>0</v>
+      </c>
+      <c r="L86">
+        <v>0</v>
+      </c>
+      <c r="M86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B87" s="41">
+        <v>44644.375</v>
+      </c>
+      <c r="C87" t="b">
+        <v>1</v>
+      </c>
+      <c r="D87" s="42">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="E87" s="42">
+        <v>0.5</v>
+      </c>
+      <c r="F87" s="42">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="G87" s="42">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="H87">
+        <v>0</v>
+      </c>
+      <c r="I87">
+        <v>0</v>
+      </c>
+      <c r="J87">
+        <v>0</v>
+      </c>
+      <c r="K87">
+        <v>0</v>
+      </c>
+      <c r="L87">
+        <v>0</v>
+      </c>
+      <c r="M87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B88" s="41">
+        <v>44645.375</v>
+      </c>
+      <c r="C88" t="b">
+        <v>1</v>
+      </c>
+      <c r="D88" s="42">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="E88" s="42">
+        <v>0.5</v>
+      </c>
+      <c r="F88" s="42">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="G88" s="42">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="H88">
+        <v>0</v>
+      </c>
+      <c r="I88">
+        <v>0</v>
+      </c>
+      <c r="J88">
+        <v>0</v>
+      </c>
+      <c r="K88">
+        <v>0</v>
+      </c>
+      <c r="L88">
+        <v>0</v>
+      </c>
+      <c r="M88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B89" s="41">
+        <v>44646.375</v>
+      </c>
+      <c r="C89" t="b">
+        <v>0</v>
+      </c>
+      <c r="D89">
+        <v>0</v>
+      </c>
+      <c r="E89">
+        <v>0</v>
+      </c>
+      <c r="F89">
+        <v>0</v>
+      </c>
+      <c r="G89">
+        <v>0</v>
+      </c>
+      <c r="H89">
+        <v>0</v>
+      </c>
+      <c r="I89">
+        <v>0</v>
+      </c>
+      <c r="J89">
+        <v>0</v>
+      </c>
+      <c r="K89">
+        <v>0</v>
+      </c>
+      <c r="L89">
+        <v>0</v>
+      </c>
+      <c r="M89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B90" s="41">
+        <v>44647.375</v>
+      </c>
+      <c r="C90" t="b">
+        <v>0</v>
+      </c>
+      <c r="D90">
+        <v>0</v>
+      </c>
+      <c r="E90">
+        <v>0</v>
+      </c>
+      <c r="F90">
+        <v>0</v>
+      </c>
+      <c r="G90">
+        <v>0</v>
+      </c>
+      <c r="H90">
+        <v>0</v>
+      </c>
+      <c r="I90">
+        <v>0</v>
+      </c>
+      <c r="J90">
+        <v>0</v>
+      </c>
+      <c r="K90">
+        <v>0</v>
+      </c>
+      <c r="L90">
+        <v>0</v>
+      </c>
+      <c r="M90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B91" s="41">
+        <v>44648.375</v>
+      </c>
+      <c r="C91" t="b">
+        <v>1</v>
+      </c>
+      <c r="D91" s="42">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="E91" s="42">
+        <v>0.5</v>
+      </c>
+      <c r="F91" s="42">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="G91" s="42">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="H91">
+        <v>0</v>
+      </c>
+      <c r="I91">
+        <v>0</v>
+      </c>
+      <c r="J91">
+        <v>0</v>
+      </c>
+      <c r="K91">
+        <v>0</v>
+      </c>
+      <c r="L91">
+        <v>0</v>
+      </c>
+      <c r="M91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B92" s="41">
+        <v>44649.375</v>
+      </c>
+      <c r="C92" t="b">
+        <v>1</v>
+      </c>
+      <c r="D92" s="42">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="E92" s="42">
+        <v>0.5</v>
+      </c>
+      <c r="F92" s="42">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="G92" s="42">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="H92">
+        <v>0</v>
+      </c>
+      <c r="I92">
+        <v>0</v>
+      </c>
+      <c r="J92">
+        <v>0</v>
+      </c>
+      <c r="K92">
+        <v>0</v>
+      </c>
+      <c r="L92">
+        <v>0</v>
+      </c>
+      <c r="M92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B93" s="41">
+        <v>44650.375</v>
+      </c>
+      <c r="C93" t="b">
+        <v>1</v>
+      </c>
+      <c r="D93" s="42">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="E93" s="42">
+        <v>0.5</v>
+      </c>
+      <c r="F93" s="42">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="G93" s="42">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="H93">
+        <v>0</v>
+      </c>
+      <c r="I93">
+        <v>0</v>
+      </c>
+      <c r="J93">
+        <v>0</v>
+      </c>
+      <c r="K93">
+        <v>0</v>
+      </c>
+      <c r="L93">
+        <v>0</v>
+      </c>
+      <c r="M93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B94" s="41">
+        <v>44651.375</v>
+      </c>
+      <c r="C94" t="b">
+        <v>1</v>
+      </c>
+      <c r="D94" s="42">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="E94" s="42">
+        <v>0.5</v>
+      </c>
+      <c r="F94" s="42">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="G94" s="42">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="H94">
+        <v>0</v>
+      </c>
+      <c r="I94">
+        <v>0</v>
+      </c>
+      <c r="J94">
+        <v>0</v>
+      </c>
+      <c r="K94">
+        <v>0</v>
+      </c>
+      <c r="L94">
+        <v>0</v>
+      </c>
+      <c r="M94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B95" s="41">
+        <v>44652.375</v>
+      </c>
+      <c r="C95" t="b">
+        <v>1</v>
+      </c>
+      <c r="D95" s="42">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="E95" s="42">
+        <v>0.5</v>
+      </c>
+      <c r="F95" s="42">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="G95" s="42">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="H95">
+        <v>0</v>
+      </c>
+      <c r="I95">
+        <v>0</v>
+      </c>
+      <c r="J95">
+        <v>0</v>
+      </c>
+      <c r="K95">
+        <v>0</v>
+      </c>
+      <c r="L95">
+        <v>0</v>
+      </c>
+      <c r="M95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B96" s="41">
+        <v>44653.375</v>
+      </c>
+      <c r="C96" t="b">
+        <v>0</v>
+      </c>
+      <c r="D96">
+        <v>0</v>
+      </c>
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+      <c r="J96">
+        <v>0</v>
+      </c>
+      <c r="K96">
+        <v>0</v>
+      </c>
+      <c r="L96">
+        <v>0</v>
+      </c>
+      <c r="M96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B97" s="41">
+        <v>44654.375</v>
+      </c>
+      <c r="C97" t="b">
+        <v>0</v>
+      </c>
+      <c r="D97">
+        <v>0</v>
+      </c>
+      <c r="E97">
+        <v>0</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+      <c r="H97">
+        <v>0</v>
+      </c>
+      <c r="I97">
+        <v>0</v>
+      </c>
+      <c r="J97">
+        <v>0</v>
+      </c>
+      <c r="K97">
+        <v>0</v>
+      </c>
+      <c r="L97">
+        <v>0</v>
+      </c>
+      <c r="M97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B98" s="41">
+        <v>44655.375</v>
+      </c>
+      <c r="C98" t="b">
+        <v>1</v>
+      </c>
+      <c r="D98" s="42">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="E98" s="42">
+        <v>0.5</v>
+      </c>
+      <c r="F98" s="42">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="G98" s="42">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="H98">
+        <v>0</v>
+      </c>
+      <c r="I98">
+        <v>0</v>
+      </c>
+      <c r="J98">
+        <v>0</v>
+      </c>
+      <c r="K98">
+        <v>0</v>
+      </c>
+      <c r="L98">
+        <v>0</v>
+      </c>
+      <c r="M98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B99" s="41">
+        <v>44656.375</v>
+      </c>
+      <c r="C99" t="b">
+        <v>1</v>
+      </c>
+      <c r="D99" s="42">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="E99" s="42">
+        <v>0.5</v>
+      </c>
+      <c r="F99" s="42">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="G99" s="42">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+      <c r="I99">
+        <v>0</v>
+      </c>
+      <c r="J99">
+        <v>0</v>
+      </c>
+      <c r="K99">
+        <v>0</v>
+      </c>
+      <c r="L99">
+        <v>0</v>
+      </c>
+      <c r="M99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B100" s="41">
+        <v>44657.375</v>
+      </c>
+      <c r="C100" t="b">
+        <v>1</v>
+      </c>
+      <c r="D100" s="42">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="E100" s="42">
+        <v>0.5</v>
+      </c>
+      <c r="F100" s="42">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="G100" s="42">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+      <c r="J100">
+        <v>0</v>
+      </c>
+      <c r="K100">
+        <v>0</v>
+      </c>
+      <c r="L100">
+        <v>0</v>
+      </c>
+      <c r="M100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B101" s="41">
+        <v>44658.375</v>
+      </c>
+      <c r="C101" t="b">
+        <v>1</v>
+      </c>
+      <c r="D101" s="42">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="E101" s="42">
+        <v>0.5</v>
+      </c>
+      <c r="F101" s="42">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="G101" s="42">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="H101">
+        <v>0</v>
+      </c>
+      <c r="I101">
+        <v>0</v>
+      </c>
+      <c r="J101">
+        <v>0</v>
+      </c>
+      <c r="K101">
+        <v>0</v>
+      </c>
+      <c r="L101">
+        <v>0</v>
+      </c>
+      <c r="M101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B102" s="41">
+        <v>44659.375</v>
+      </c>
+      <c r="C102" t="b">
+        <v>1</v>
+      </c>
+      <c r="D102" s="42">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="E102" s="42">
+        <v>0.5</v>
+      </c>
+      <c r="F102" s="42">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="G102" s="42">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="H102">
+        <v>0</v>
+      </c>
+      <c r="I102">
+        <v>0</v>
+      </c>
+      <c r="J102">
+        <v>0</v>
+      </c>
+      <c r="K102">
+        <v>0</v>
+      </c>
+      <c r="L102">
+        <v>0</v>
+      </c>
+      <c r="M102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B103" s="41">
+        <v>44660.375</v>
+      </c>
+      <c r="C103" t="b">
+        <v>0</v>
+      </c>
+      <c r="D103">
+        <v>0</v>
+      </c>
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+      <c r="I103">
+        <v>0</v>
+      </c>
+      <c r="J103">
+        <v>0</v>
+      </c>
+      <c r="K103">
+        <v>0</v>
+      </c>
+      <c r="L103">
+        <v>0</v>
+      </c>
+      <c r="M103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B104" s="41">
+        <v>44661.375</v>
+      </c>
+      <c r="C104" t="b">
+        <v>0</v>
+      </c>
+      <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
+        <v>0</v>
+      </c>
+      <c r="J104">
+        <v>0</v>
+      </c>
+      <c r="K104">
+        <v>0</v>
+      </c>
+      <c r="L104">
+        <v>0</v>
+      </c>
+      <c r="M104">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B105" s="41">
+        <v>44662.375</v>
+      </c>
+      <c r="C105" t="b">
+        <v>1</v>
+      </c>
+      <c r="D105" s="42">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="E105" s="42">
+        <v>0.5</v>
+      </c>
+      <c r="F105" s="42">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="G105" s="42">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="H105">
+        <v>0</v>
+      </c>
+      <c r="I105">
+        <v>0</v>
+      </c>
+      <c r="J105">
+        <v>0</v>
+      </c>
+      <c r="K105">
+        <v>0</v>
+      </c>
+      <c r="L105">
+        <v>0</v>
+      </c>
+      <c r="M105">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B106" s="41">
+        <v>44663.375</v>
+      </c>
+      <c r="C106" t="b">
+        <v>1</v>
+      </c>
+      <c r="D106" s="42">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="E106" s="42">
+        <v>0.5</v>
+      </c>
+      <c r="F106" s="42">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="G106" s="42">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="H106">
+        <v>0</v>
+      </c>
+      <c r="I106">
+        <v>0</v>
+      </c>
+      <c r="J106">
+        <v>0</v>
+      </c>
+      <c r="K106">
+        <v>0</v>
+      </c>
+      <c r="L106">
+        <v>0</v>
+      </c>
+      <c r="M106">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B107" s="41">
+        <v>44664.375</v>
+      </c>
+      <c r="C107" t="b">
+        <v>1</v>
+      </c>
+      <c r="D107" s="42">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="E107" s="42">
+        <v>0.5</v>
+      </c>
+      <c r="F107" s="42">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="G107" s="42">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="H107">
+        <v>0</v>
+      </c>
+      <c r="I107">
+        <v>0</v>
+      </c>
+      <c r="J107">
+        <v>0</v>
+      </c>
+      <c r="K107">
+        <v>0</v>
+      </c>
+      <c r="L107">
+        <v>0</v>
+      </c>
+      <c r="M107">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B108" s="41">
+        <v>44665.375</v>
+      </c>
+      <c r="C108" t="b">
+        <v>1</v>
+      </c>
+      <c r="D108" s="42">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="E108" s="42">
+        <v>0.5</v>
+      </c>
+      <c r="F108" s="42">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="G108" s="42">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="H108">
+        <v>0</v>
+      </c>
+      <c r="I108">
+        <v>0</v>
+      </c>
+      <c r="J108">
+        <v>0</v>
+      </c>
+      <c r="K108">
+        <v>0</v>
+      </c>
+      <c r="L108">
+        <v>0</v>
+      </c>
+      <c r="M108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B109" s="41">
+        <v>44666.375</v>
+      </c>
+      <c r="C109" t="b">
+        <v>1</v>
+      </c>
+      <c r="D109" s="42">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="E109" s="42">
+        <v>0.5</v>
+      </c>
+      <c r="F109" s="42">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="G109" s="42">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="H109">
+        <v>0</v>
+      </c>
+      <c r="I109">
+        <v>0</v>
+      </c>
+      <c r="J109">
+        <v>0</v>
+      </c>
+      <c r="K109">
+        <v>0</v>
+      </c>
+      <c r="L109">
+        <v>0</v>
+      </c>
+      <c r="M109">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B110" s="41">
+        <v>44667.375</v>
+      </c>
+      <c r="C110" t="b">
+        <v>0</v>
+      </c>
+      <c r="D110">
+        <v>0</v>
+      </c>
+      <c r="E110">
+        <v>0</v>
+      </c>
+      <c r="F110">
+        <v>0</v>
+      </c>
+      <c r="G110">
+        <v>0</v>
+      </c>
+      <c r="H110">
+        <v>0</v>
+      </c>
+      <c r="I110">
+        <v>0</v>
+      </c>
+      <c r="J110">
+        <v>0</v>
+      </c>
+      <c r="K110">
+        <v>0</v>
+      </c>
+      <c r="L110">
+        <v>0</v>
+      </c>
+      <c r="M110">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B111" s="41">
+        <v>44668.375</v>
+      </c>
+      <c r="C111" t="b">
+        <v>0</v>
+      </c>
+      <c r="D111">
+        <v>0</v>
+      </c>
+      <c r="E111">
+        <v>0</v>
+      </c>
+      <c r="F111">
+        <v>0</v>
+      </c>
+      <c r="G111">
+        <v>0</v>
+      </c>
+      <c r="H111">
+        <v>0</v>
+      </c>
+      <c r="I111">
+        <v>0</v>
+      </c>
+      <c r="J111">
+        <v>0</v>
+      </c>
+      <c r="K111">
+        <v>0</v>
+      </c>
+      <c r="L111">
+        <v>0</v>
+      </c>
+      <c r="M111">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B112" s="41">
+        <v>44669.375</v>
+      </c>
+      <c r="C112" t="b">
+        <v>1</v>
+      </c>
+      <c r="D112" s="42">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="E112" s="42">
+        <v>0.5</v>
+      </c>
+      <c r="F112" s="42">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="G112" s="42">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="H112">
+        <v>0</v>
+      </c>
+      <c r="I112">
+        <v>0</v>
+      </c>
+      <c r="J112">
+        <v>0</v>
+      </c>
+      <c r="K112">
+        <v>0</v>
+      </c>
+      <c r="L112">
+        <v>0</v>
+      </c>
+      <c r="M112">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B113" s="41">
+        <v>44670.375</v>
+      </c>
+      <c r="C113" t="b">
+        <v>1</v>
+      </c>
+      <c r="D113" s="42">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="E113" s="42">
+        <v>0.5</v>
+      </c>
+      <c r="F113" s="42">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="G113" s="42">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="H113">
+        <v>0</v>
+      </c>
+      <c r="I113">
+        <v>0</v>
+      </c>
+      <c r="J113">
+        <v>0</v>
+      </c>
+      <c r="K113">
+        <v>0</v>
+      </c>
+      <c r="L113">
+        <v>0</v>
+      </c>
+      <c r="M113">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B114" s="41">
+        <v>44671.375</v>
+      </c>
+      <c r="C114" t="b">
+        <v>1</v>
+      </c>
+      <c r="D114" s="42">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="E114" s="42">
+        <v>0.5</v>
+      </c>
+      <c r="F114" s="42">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="G114" s="42">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="H114">
+        <v>0</v>
+      </c>
+      <c r="I114">
+        <v>0</v>
+      </c>
+      <c r="J114">
+        <v>0</v>
+      </c>
+      <c r="K114">
+        <v>0</v>
+      </c>
+      <c r="L114">
+        <v>0</v>
+      </c>
+      <c r="M114">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B115" s="41">
+        <v>44672.375</v>
+      </c>
+      <c r="C115" t="b">
+        <v>1</v>
+      </c>
+      <c r="D115" s="42">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="E115" s="42">
+        <v>0.5</v>
+      </c>
+      <c r="F115" s="42">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="G115" s="42">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="H115">
+        <v>0</v>
+      </c>
+      <c r="I115">
+        <v>0</v>
+      </c>
+      <c r="J115">
+        <v>0</v>
+      </c>
+      <c r="K115">
+        <v>0</v>
+      </c>
+      <c r="L115">
+        <v>0</v>
+      </c>
+      <c r="M115">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B116" s="41">
+        <v>44673.375</v>
+      </c>
+      <c r="C116" t="b">
+        <v>1</v>
+      </c>
+      <c r="D116" s="42">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="E116" s="42">
+        <v>0.5</v>
+      </c>
+      <c r="F116" s="42">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="G116" s="42">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="H116">
+        <v>0</v>
+      </c>
+      <c r="I116">
+        <v>0</v>
+      </c>
+      <c r="J116">
+        <v>0</v>
+      </c>
+      <c r="K116">
+        <v>0</v>
+      </c>
+      <c r="L116">
+        <v>0</v>
+      </c>
+      <c r="M116">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B117" s="41">
+        <v>44674.375</v>
+      </c>
+      <c r="C117" t="b">
+        <v>0</v>
+      </c>
+      <c r="D117">
+        <v>0</v>
+      </c>
+      <c r="E117">
+        <v>0</v>
+      </c>
+      <c r="F117">
+        <v>0</v>
+      </c>
+      <c r="G117">
+        <v>0</v>
+      </c>
+      <c r="H117">
+        <v>0</v>
+      </c>
+      <c r="I117">
+        <v>0</v>
+      </c>
+      <c r="J117">
+        <v>0</v>
+      </c>
+      <c r="K117">
+        <v>0</v>
+      </c>
+      <c r="L117">
+        <v>0</v>
+      </c>
+      <c r="M117">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B118" s="41">
+        <v>44675.375</v>
+      </c>
+      <c r="C118" t="b">
+        <v>0</v>
+      </c>
+      <c r="D118">
+        <v>0</v>
+      </c>
+      <c r="E118">
+        <v>0</v>
+      </c>
+      <c r="F118">
+        <v>0</v>
+      </c>
+      <c r="G118">
+        <v>0</v>
+      </c>
+      <c r="H118">
+        <v>0</v>
+      </c>
+      <c r="I118">
+        <v>0</v>
+      </c>
+      <c r="J118">
+        <v>0</v>
+      </c>
+      <c r="K118">
+        <v>0</v>
+      </c>
+      <c r="L118">
+        <v>0</v>
+      </c>
+      <c r="M118">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B119" s="41">
+        <v>44676.375</v>
+      </c>
+      <c r="C119" t="b">
+        <v>1</v>
+      </c>
+      <c r="D119" s="42">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="E119" s="42">
+        <v>0.5</v>
+      </c>
+      <c r="F119" s="42">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="G119" s="42">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="H119">
+        <v>0</v>
+      </c>
+      <c r="I119">
+        <v>0</v>
+      </c>
+      <c r="J119">
+        <v>0</v>
+      </c>
+      <c r="K119">
+        <v>0</v>
+      </c>
+      <c r="L119">
+        <v>0</v>
+      </c>
+      <c r="M119">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B120" s="41">
+        <v>44677.375</v>
+      </c>
+      <c r="C120" t="b">
+        <v>1</v>
+      </c>
+      <c r="D120" s="42">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="E120" s="42">
+        <v>0.5</v>
+      </c>
+      <c r="F120" s="42">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="G120" s="42">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="H120">
+        <v>0</v>
+      </c>
+      <c r="I120">
+        <v>0</v>
+      </c>
+      <c r="J120">
+        <v>0</v>
+      </c>
+      <c r="K120">
+        <v>0</v>
+      </c>
+      <c r="L120">
+        <v>0</v>
+      </c>
+      <c r="M120">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B121" s="41">
+        <v>44678.375</v>
+      </c>
+      <c r="C121" t="b">
+        <v>1</v>
+      </c>
+      <c r="D121" s="42">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="E121" s="42">
+        <v>0.5</v>
+      </c>
+      <c r="F121" s="42">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="G121" s="42">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="H121">
+        <v>0</v>
+      </c>
+      <c r="I121">
+        <v>0</v>
+      </c>
+      <c r="J121">
+        <v>0</v>
+      </c>
+      <c r="K121">
+        <v>0</v>
+      </c>
+      <c r="L121">
+        <v>0</v>
+      </c>
+      <c r="M121">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B122" s="41">
+        <v>44679.375</v>
+      </c>
+      <c r="C122" t="b">
+        <v>1</v>
+      </c>
+      <c r="D122" s="42">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="E122" s="42">
+        <v>0.5</v>
+      </c>
+      <c r="F122" s="42">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="G122" s="42">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="H122">
+        <v>0</v>
+      </c>
+      <c r="I122">
+        <v>0</v>
+      </c>
+      <c r="J122">
+        <v>0</v>
+      </c>
+      <c r="K122">
+        <v>0</v>
+      </c>
+      <c r="L122">
+        <v>0</v>
+      </c>
+      <c r="M122">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B123" s="41">
+        <v>44680.375</v>
+      </c>
+      <c r="C123" t="b">
+        <v>1</v>
+      </c>
+      <c r="D123" s="42">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="E123" s="42">
+        <v>0.5</v>
+      </c>
+      <c r="F123" s="42">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="G123" s="42">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="H123">
+        <v>0</v>
+      </c>
+      <c r="I123">
+        <v>0</v>
+      </c>
+      <c r="J123">
+        <v>0</v>
+      </c>
+      <c r="K123">
+        <v>0</v>
+      </c>
+      <c r="L123">
+        <v>0</v>
+      </c>
+      <c r="M123">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B124" s="41">
+        <v>44681.375</v>
+      </c>
+      <c r="C124" t="b">
+        <v>0</v>
+      </c>
+      <c r="D124">
+        <v>0</v>
+      </c>
+      <c r="E124">
+        <v>0</v>
+      </c>
+      <c r="F124">
+        <v>0</v>
+      </c>
+      <c r="G124">
+        <v>0</v>
+      </c>
+      <c r="H124">
+        <v>0</v>
+      </c>
+      <c r="I124">
+        <v>0</v>
+      </c>
+      <c r="J124">
+        <v>0</v>
+      </c>
+      <c r="K124">
+        <v>0</v>
+      </c>
+      <c r="L124">
+        <v>0</v>
+      </c>
+      <c r="M124">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B125" s="41">
+        <v>44682.375</v>
+      </c>
+      <c r="C125" t="b">
+        <v>0</v>
+      </c>
+      <c r="D125">
+        <v>0</v>
+      </c>
+      <c r="E125">
+        <v>0</v>
+      </c>
+      <c r="F125">
+        <v>0</v>
+      </c>
+      <c r="G125">
+        <v>0</v>
+      </c>
+      <c r="H125">
+        <v>0</v>
+      </c>
+      <c r="I125">
+        <v>0</v>
+      </c>
+      <c r="J125">
+        <v>0</v>
+      </c>
+      <c r="K125">
+        <v>0</v>
+      </c>
+      <c r="L125">
+        <v>0</v>
+      </c>
+      <c r="M125">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B126" s="41">
+        <v>44683.375</v>
+      </c>
+      <c r="C126" t="b">
+        <v>1</v>
+      </c>
+      <c r="D126" s="42">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="E126" s="42">
+        <v>0.5</v>
+      </c>
+      <c r="F126" s="42">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="G126" s="42">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="H126">
+        <v>0</v>
+      </c>
+      <c r="I126">
+        <v>0</v>
+      </c>
+      <c r="J126">
+        <v>0</v>
+      </c>
+      <c r="K126">
+        <v>0</v>
+      </c>
+      <c r="L126">
+        <v>0</v>
+      </c>
+      <c r="M126">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B127" s="41">
+        <v>44684.375</v>
+      </c>
+      <c r="C127" t="b">
+        <v>1</v>
+      </c>
+      <c r="D127" s="42">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="E127" s="42">
+        <v>0.5</v>
+      </c>
+      <c r="F127" s="42">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="G127" s="42">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="H127">
+        <v>0</v>
+      </c>
+      <c r="I127">
+        <v>0</v>
+      </c>
+      <c r="J127">
+        <v>0</v>
+      </c>
+      <c r="K127">
+        <v>0</v>
+      </c>
+      <c r="L127">
+        <v>0</v>
+      </c>
+      <c r="M127">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B128" s="41">
+        <v>44685.375</v>
+      </c>
+      <c r="C128" t="b">
+        <v>1</v>
+      </c>
+      <c r="D128" s="42">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="E128" s="42">
+        <v>0.5</v>
+      </c>
+      <c r="F128" s="42">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="G128" s="42">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="H128">
+        <v>0</v>
+      </c>
+      <c r="I128">
+        <v>0</v>
+      </c>
+      <c r="J128">
+        <v>0</v>
+      </c>
+      <c r="K128">
+        <v>0</v>
+      </c>
+      <c r="L128">
+        <v>0</v>
+      </c>
+      <c r="M128">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B129" s="41">
+        <v>44686.375</v>
+      </c>
+      <c r="C129" t="b">
+        <v>1</v>
+      </c>
+      <c r="D129" s="42">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="E129" s="42">
+        <v>0.5</v>
+      </c>
+      <c r="F129" s="42">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="G129" s="42">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="H129">
+        <v>0</v>
+      </c>
+      <c r="I129">
+        <v>0</v>
+      </c>
+      <c r="J129">
+        <v>0</v>
+      </c>
+      <c r="K129">
+        <v>0</v>
+      </c>
+      <c r="L129">
+        <v>0</v>
+      </c>
+      <c r="M129">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B130" s="41">
+        <v>44687.375</v>
+      </c>
+      <c r="C130" t="b">
+        <v>1</v>
+      </c>
+      <c r="D130" s="42">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="E130" s="42">
+        <v>0.5</v>
+      </c>
+      <c r="F130" s="42">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="G130" s="42">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="H130">
+        <v>0</v>
+      </c>
+      <c r="I130">
+        <v>0</v>
+      </c>
+      <c r="J130">
+        <v>0</v>
+      </c>
+      <c r="K130">
+        <v>0</v>
+      </c>
+      <c r="L130">
+        <v>0</v>
+      </c>
+      <c r="M130">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B131" s="41">
+        <v>44688.375</v>
+      </c>
+      <c r="C131" t="b">
+        <v>0</v>
+      </c>
+      <c r="D131">
+        <v>0</v>
+      </c>
+      <c r="E131">
+        <v>0</v>
+      </c>
+      <c r="F131">
+        <v>0</v>
+      </c>
+      <c r="G131">
+        <v>0</v>
+      </c>
+      <c r="H131">
+        <v>0</v>
+      </c>
+      <c r="I131">
+        <v>0</v>
+      </c>
+      <c r="J131">
+        <v>0</v>
+      </c>
+      <c r="K131">
+        <v>0</v>
+      </c>
+      <c r="L131">
+        <v>0</v>
+      </c>
+      <c r="M131">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B132" s="41">
+        <v>44689.375</v>
+      </c>
+      <c r="C132" t="b">
+        <v>0</v>
+      </c>
+      <c r="D132">
+        <v>0</v>
+      </c>
+      <c r="E132">
+        <v>0</v>
+      </c>
+      <c r="F132">
+        <v>0</v>
+      </c>
+      <c r="G132">
+        <v>0</v>
+      </c>
+      <c r="H132">
+        <v>0</v>
+      </c>
+      <c r="I132">
+        <v>0</v>
+      </c>
+      <c r="J132">
+        <v>0</v>
+      </c>
+      <c r="K132">
+        <v>0</v>
+      </c>
+      <c r="L132">
+        <v>0</v>
+      </c>
+      <c r="M132">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B133" s="41">
+        <v>44690.375</v>
+      </c>
+      <c r="C133" t="b">
+        <v>1</v>
+      </c>
+      <c r="D133" s="42">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="E133" s="42">
+        <v>0.5</v>
+      </c>
+      <c r="F133" s="42">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="G133" s="42">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="H133">
+        <v>0</v>
+      </c>
+      <c r="I133">
+        <v>0</v>
+      </c>
+      <c r="J133">
+        <v>0</v>
+      </c>
+      <c r="K133">
+        <v>0</v>
+      </c>
+      <c r="L133">
+        <v>0</v>
+      </c>
+      <c r="M133">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B134" s="41">
+        <v>44691.375</v>
+      </c>
+      <c r="C134" t="b">
+        <v>1</v>
+      </c>
+      <c r="D134" s="42">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="E134" s="42">
+        <v>0.5</v>
+      </c>
+      <c r="F134" s="42">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="G134" s="42">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="H134">
+        <v>0</v>
+      </c>
+      <c r="I134">
+        <v>0</v>
+      </c>
+      <c r="J134">
+        <v>0</v>
+      </c>
+      <c r="K134">
+        <v>0</v>
+      </c>
+      <c r="L134">
+        <v>0</v>
+      </c>
+      <c r="M134">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B135" s="41">
+        <v>44692.375</v>
+      </c>
+      <c r="C135" t="b">
+        <v>1</v>
+      </c>
+      <c r="D135" s="42">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="E135" s="42">
+        <v>0.5</v>
+      </c>
+      <c r="F135" s="42">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="G135" s="42">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="H135">
+        <v>0</v>
+      </c>
+      <c r="I135">
+        <v>0</v>
+      </c>
+      <c r="J135">
+        <v>0</v>
+      </c>
+      <c r="K135">
+        <v>0</v>
+      </c>
+      <c r="L135">
+        <v>0</v>
+      </c>
+      <c r="M135">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B136" s="41">
+        <v>44693.375</v>
+      </c>
+      <c r="C136" t="b">
+        <v>1</v>
+      </c>
+      <c r="D136" s="42">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="E136" s="42">
+        <v>0.5</v>
+      </c>
+      <c r="F136" s="42">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="G136" s="42">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="H136">
+        <v>0</v>
+      </c>
+      <c r="I136">
+        <v>0</v>
+      </c>
+      <c r="J136">
+        <v>0</v>
+      </c>
+      <c r="K136">
+        <v>0</v>
+      </c>
+      <c r="L136">
+        <v>0</v>
+      </c>
+      <c r="M136">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B137" s="41">
+        <v>44694.375</v>
+      </c>
+      <c r="C137" t="b">
+        <v>1</v>
+      </c>
+      <c r="D137" s="42">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="E137" s="42">
+        <v>0.5</v>
+      </c>
+      <c r="F137" s="42">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="G137" s="42">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="H137">
+        <v>0</v>
+      </c>
+      <c r="I137">
+        <v>0</v>
+      </c>
+      <c r="J137">
+        <v>0</v>
+      </c>
+      <c r="K137">
+        <v>0</v>
+      </c>
+      <c r="L137">
+        <v>0</v>
+      </c>
+      <c r="M137">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B138" s="41">
+        <v>44695.375</v>
+      </c>
+      <c r="C138" t="b">
+        <v>0</v>
+      </c>
+      <c r="D138">
+        <v>0</v>
+      </c>
+      <c r="E138">
+        <v>0</v>
+      </c>
+      <c r="F138">
+        <v>0</v>
+      </c>
+      <c r="G138">
+        <v>0</v>
+      </c>
+      <c r="H138">
+        <v>0</v>
+      </c>
+      <c r="I138">
+        <v>0</v>
+      </c>
+      <c r="J138">
+        <v>0</v>
+      </c>
+      <c r="K138">
+        <v>0</v>
+      </c>
+      <c r="L138">
+        <v>0</v>
+      </c>
+      <c r="M138">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B139" s="41">
+        <v>44696.375</v>
+      </c>
+      <c r="C139" t="b">
+        <v>0</v>
+      </c>
+      <c r="D139">
+        <v>0</v>
+      </c>
+      <c r="E139">
+        <v>0</v>
+      </c>
+      <c r="F139">
+        <v>0</v>
+      </c>
+      <c r="G139">
+        <v>0</v>
+      </c>
+      <c r="H139">
+        <v>0</v>
+      </c>
+      <c r="I139">
+        <v>0</v>
+      </c>
+      <c r="J139">
+        <v>0</v>
+      </c>
+      <c r="K139">
+        <v>0</v>
+      </c>
+      <c r="L139">
+        <v>0</v>
+      </c>
+      <c r="M139">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B140" s="41">
+        <v>44697.375</v>
+      </c>
+      <c r="C140" t="b">
+        <v>1</v>
+      </c>
+      <c r="D140" s="42">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="E140" s="42">
+        <v>0.5</v>
+      </c>
+      <c r="F140" s="42">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="G140" s="42">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="H140">
+        <v>0</v>
+      </c>
+      <c r="I140">
+        <v>0</v>
+      </c>
+      <c r="J140">
+        <v>0</v>
+      </c>
+      <c r="K140">
+        <v>0</v>
+      </c>
+      <c r="L140">
+        <v>0</v>
+      </c>
+      <c r="M140">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B141" s="41">
+        <v>44698.375</v>
+      </c>
+      <c r="C141" t="b">
+        <v>1</v>
+      </c>
+      <c r="D141" s="42">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="E141" s="42">
+        <v>0.5</v>
+      </c>
+      <c r="F141" s="42">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="G141" s="42">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="H141">
+        <v>0</v>
+      </c>
+      <c r="I141">
+        <v>0</v>
+      </c>
+      <c r="J141">
+        <v>0</v>
+      </c>
+      <c r="K141">
+        <v>0</v>
+      </c>
+      <c r="L141">
+        <v>0</v>
+      </c>
+      <c r="M141">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E12BEF8-01C4-4916-814F-44C950E02E28}">
+  <dimension ref="A1:Q10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Q1" sqref="Q1:Q4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="P1" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="Q1" s="4"/>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A2" s="5"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="5"/>
+      <c r="M2" s="5"/>
+      <c r="N2" s="5"/>
+      <c r="O2" s="5"/>
+      <c r="P2" s="5"/>
+      <c r="Q2" s="5"/>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A3" s="5"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
+      <c r="M3" s="5"/>
+      <c r="N3" s="5"/>
+      <c r="O3" s="5"/>
+      <c r="P3" s="5"/>
+      <c r="Q3" s="5"/>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A4" s="5"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="5"/>
+      <c r="M4" s="5"/>
+      <c r="N4" s="5"/>
+      <c r="O4" s="5"/>
+      <c r="P4" s="5"/>
+      <c r="Q4" s="5"/>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>94</v>
+      </c>
+      <c r="D5" t="s">
+        <v>210</v>
+      </c>
+      <c r="F5" t="s">
+        <v>211</v>
+      </c>
+      <c r="G5" t="s">
+        <v>212</v>
+      </c>
+      <c r="I5" t="s">
+        <v>213</v>
+      </c>
+      <c r="J5" t="s">
+        <v>214</v>
+      </c>
+      <c r="K5" s="40">
+        <v>1</v>
+      </c>
+      <c r="L5" s="40">
+        <v>1</v>
+      </c>
+      <c r="M5" t="s">
+        <v>215</v>
+      </c>
+      <c r="N5" t="s">
+        <v>216</v>
+      </c>
+      <c r="O5" t="s">
+        <v>217</v>
+      </c>
+      <c r="P5" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>2</v>
+      </c>
+      <c r="C6" t="s">
+        <v>71</v>
+      </c>
+      <c r="D6" t="s">
+        <v>210</v>
+      </c>
+      <c r="F6" t="s">
+        <v>211</v>
+      </c>
+      <c r="G6" t="s">
+        <v>212</v>
+      </c>
+      <c r="I6" t="s">
+        <v>218</v>
+      </c>
+      <c r="J6" t="s">
+        <v>219</v>
+      </c>
+      <c r="K6" s="40">
+        <v>2</v>
+      </c>
+      <c r="L6" s="40">
+        <v>1</v>
+      </c>
+      <c r="M6" t="s">
+        <v>215</v>
+      </c>
+      <c r="N6" t="s">
+        <v>220</v>
+      </c>
+      <c r="O6" t="s">
+        <v>217</v>
+      </c>
+      <c r="P6" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>3</v>
+      </c>
+      <c r="C7" t="s">
+        <v>113</v>
+      </c>
+      <c r="D7" t="s">
+        <v>221</v>
+      </c>
+      <c r="F7" t="s">
+        <v>211</v>
+      </c>
+      <c r="G7" t="s">
+        <v>212</v>
+      </c>
+      <c r="I7" t="s">
+        <v>222</v>
+      </c>
+      <c r="J7" t="s">
+        <v>223</v>
+      </c>
+      <c r="K7" s="40">
+        <v>2</v>
+      </c>
+      <c r="L7" s="40">
+        <v>1</v>
+      </c>
+      <c r="M7" t="s">
+        <v>215</v>
+      </c>
+      <c r="N7" t="s">
+        <v>224</v>
+      </c>
+      <c r="O7" t="s">
+        <v>217</v>
+      </c>
+      <c r="P7" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>4</v>
+      </c>
+      <c r="C8" t="s">
+        <v>132</v>
+      </c>
+      <c r="D8" t="s">
+        <v>221</v>
+      </c>
+      <c r="F8" t="s">
+        <v>211</v>
+      </c>
+      <c r="G8" t="s">
+        <v>212</v>
+      </c>
+      <c r="I8" t="s">
+        <v>225</v>
+      </c>
+      <c r="J8" t="s">
+        <v>226</v>
+      </c>
+      <c r="K8" s="40">
+        <v>3</v>
+      </c>
+      <c r="L8" s="40">
+        <v>1</v>
+      </c>
+      <c r="M8" t="s">
+        <v>215</v>
+      </c>
+      <c r="N8" t="s">
+        <v>227</v>
+      </c>
+      <c r="O8" t="s">
+        <v>217</v>
+      </c>
+      <c r="P8" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>5</v>
+      </c>
+      <c r="C9" t="s">
+        <v>158</v>
+      </c>
+      <c r="D9" t="s">
+        <v>228</v>
+      </c>
+      <c r="F9" t="s">
+        <v>211</v>
+      </c>
+      <c r="G9" t="s">
+        <v>212</v>
+      </c>
+      <c r="I9" t="s">
+        <v>229</v>
+      </c>
+      <c r="J9" t="s">
+        <v>230</v>
+      </c>
+      <c r="K9" s="40">
+        <v>2</v>
+      </c>
+      <c r="L9" s="40">
+        <v>1</v>
+      </c>
+      <c r="M9" t="s">
+        <v>215</v>
+      </c>
+      <c r="N9" t="s">
+        <v>231</v>
+      </c>
+      <c r="O9" t="s">
+        <v>217</v>
+      </c>
+      <c r="P9" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>6</v>
+      </c>
+      <c r="C10" t="s">
+        <v>232</v>
+      </c>
+      <c r="D10" t="s">
+        <v>228</v>
+      </c>
+      <c r="F10" t="s">
+        <v>211</v>
+      </c>
+      <c r="G10" t="s">
+        <v>212</v>
+      </c>
+      <c r="I10" t="s">
+        <v>233</v>
+      </c>
+      <c r="J10" t="s">
+        <v>234</v>
+      </c>
+      <c r="K10" s="40">
+        <v>2</v>
+      </c>
+      <c r="L10" s="40">
+        <v>1</v>
+      </c>
+      <c r="M10" t="s">
+        <v>215</v>
+      </c>
+      <c r="N10" t="s">
+        <v>235</v>
+      </c>
+      <c r="O10" t="s">
+        <v>217</v>
+      </c>
+      <c r="P10" t="s">
+        <v>217</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="17">
+    <mergeCell ref="M1:M4"/>
+    <mergeCell ref="N1:N4"/>
+    <mergeCell ref="O1:O4"/>
+    <mergeCell ref="P1:P4"/>
+    <mergeCell ref="Q1:Q4"/>
+    <mergeCell ref="G1:G4"/>
+    <mergeCell ref="H1:H4"/>
+    <mergeCell ref="I1:I4"/>
+    <mergeCell ref="J1:J4"/>
+    <mergeCell ref="K1:K4"/>
+    <mergeCell ref="L1:L4"/>
+    <mergeCell ref="A1:A4"/>
+    <mergeCell ref="B1:B4"/>
+    <mergeCell ref="C1:C4"/>
+    <mergeCell ref="D1:D4"/>
+    <mergeCell ref="E1:E4"/>
+    <mergeCell ref="F1:F4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>